--- a/Document/3.Report/김규하/상점컨셉기획서.xlsx
+++ b/Document/3.Report/김규하/상점컨셉기획서.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="330">
   <si>
     <t>1. 기획의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1314,6 +1314,26 @@
   </si>
   <si>
     <t>Shop_multi_sell_count_error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4} 호감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 호감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 2단계 할인 적용방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수자리에서 반올림 하여 정수로 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1382,7 +1402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1440,6 +1460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,7 +1645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1737,16 +1763,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1782,34 +1844,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1830,19 +1868,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6940,13 +6981,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>658284</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>378137</xdr:colOff>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6978,13 +7019,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>32373</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:colOff>435785</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7016,13 +7057,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>100850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7068,13 +7109,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>773208</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7123,13 +7164,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>84044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7178,13 +7219,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>567045</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>151326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>456944</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>204566</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7194,7 +7235,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2819427" y="18495355"/>
+          <a:off x="2819427" y="18708267"/>
           <a:ext cx="573458" cy="266152"/>
           <a:chOff x="2207559" y="19128441"/>
           <a:chExt cx="605117" cy="280147"/>
@@ -7308,15 +7349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>241104</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>97295</xdr:rowOff>
+      <xdr:colOff>307368</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>80729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>18943</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>150534</xdr:rowOff>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>133968</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7325,10 +7366,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3177045" y="20144619"/>
-          <a:ext cx="573457" cy="266150"/>
+          <a:off x="3243309" y="20340964"/>
+          <a:ext cx="525278" cy="266151"/>
           <a:chOff x="2207559" y="19128441"/>
-          <a:chExt cx="605117" cy="280147"/>
+          <a:chExt cx="688193" cy="280147"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -7339,7 +7380,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2364441" y="19139647"/>
-            <a:ext cx="448235" cy="257735"/>
+            <a:ext cx="531311" cy="257735"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7440,13 +7481,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177413</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>113113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>607996</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>77541</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7456,7 +7497,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3113354" y="20799172"/>
+          <a:off x="3113354" y="21012084"/>
           <a:ext cx="430583" cy="390251"/>
           <a:chOff x="2358321" y="18989210"/>
           <a:chExt cx="454355" cy="408172"/>
@@ -7569,15 +7610,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>494563</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22464</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>28111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>464342</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:colOff>679696</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>10453</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7587,10 +7628,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5021739" y="19436699"/>
-          <a:ext cx="653338" cy="195254"/>
-          <a:chOff x="2207559" y="19128441"/>
-          <a:chExt cx="605117" cy="280147"/>
+          <a:off x="5009082" y="19649611"/>
+          <a:ext cx="657232" cy="195254"/>
+          <a:chOff x="2207561" y="19128441"/>
+          <a:chExt cx="605115" cy="280147"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -7600,8 +7641,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2364441" y="19139647"/>
-            <a:ext cx="448235" cy="257735"/>
+            <a:off x="2364441" y="19139678"/>
+            <a:ext cx="448235" cy="257736"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7645,7 +7686,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2207559" y="19128441"/>
+            <a:off x="2207561" y="19128441"/>
             <a:ext cx="156882" cy="280147"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -7700,15 +7741,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>500912</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28814</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>25722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>502962</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30863</xdr:colOff>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>8062</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7718,8 +7759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5028088" y="19647222"/>
-          <a:ext cx="685609" cy="195252"/>
+          <a:off x="5015432" y="19860134"/>
+          <a:ext cx="685607" cy="195252"/>
           <a:chOff x="2207559" y="19128441"/>
           <a:chExt cx="723899" cy="280147"/>
         </a:xfrm>
@@ -7832,15 +7873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180918</xdr:colOff>
+      <xdr:colOff>617947</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>208057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>23530</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>198267</xdr:rowOff>
+      <xdr:colOff>460559</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>187062</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7849,7 +7890,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6938065" y="19202026"/>
+          <a:off x="6971682" y="19403733"/>
           <a:ext cx="526171" cy="617741"/>
           <a:chOff x="2351323" y="18835795"/>
           <a:chExt cx="466879" cy="886178"/>
@@ -7963,14 +8004,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>13266</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:colOff>483913</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>26815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>539438</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326526</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>199545</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7980,7 +8021,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7453972" y="19222491"/>
+          <a:off x="7521207" y="19435403"/>
           <a:ext cx="526172" cy="598554"/>
           <a:chOff x="2356852" y="18863234"/>
           <a:chExt cx="466879" cy="858739"/>
@@ -8093,15 +8134,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60515</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>393818</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:colOff>528290</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>4852</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8111,10 +8152,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3545541" y="23190013"/>
-          <a:ext cx="579836" cy="268751"/>
+          <a:off x="3680015" y="23402925"/>
+          <a:ext cx="467775" cy="268751"/>
           <a:chOff x="3552825" y="23660100"/>
-          <a:chExt cx="574793" cy="262027"/>
+          <a:chExt cx="574790" cy="262027"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -8124,7 +8165,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3701845" y="23670581"/>
+            <a:off x="3701842" y="23670581"/>
             <a:ext cx="425773" cy="241065"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -8226,13 +8267,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>60379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>441443</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>32501</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8242,7 +8283,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5079626" y="24153026"/>
+          <a:off x="4855509" y="24365938"/>
           <a:ext cx="572552" cy="185034"/>
           <a:chOff x="3552825" y="23660132"/>
           <a:chExt cx="574793" cy="283865"/>
@@ -8357,13 +8398,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>551524</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>17632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>492515</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>198840</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8373,7 +8414,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5078700" y="24323191"/>
+          <a:off x="4854583" y="24536103"/>
           <a:ext cx="624550" cy="181208"/>
           <a:chOff x="3552825" y="23660132"/>
           <a:chExt cx="626623" cy="283865"/>
@@ -8487,14 +8528,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>188179</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:colOff>614002</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>30650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>683012</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>425276</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>4636</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8504,8 +8545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6945326" y="23910385"/>
-          <a:ext cx="494833" cy="612722"/>
+          <a:off x="6967737" y="24123297"/>
+          <a:ext cx="494833" cy="612721"/>
           <a:chOff x="3696394" y="23369017"/>
           <a:chExt cx="493238" cy="941855"/>
         </a:xfrm>
@@ -8618,14 +8659,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>15309</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:colOff>418725</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>25086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>510142</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229999</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>208157</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8635,7 +8676,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7456015" y="23904821"/>
+          <a:off x="7456019" y="24117733"/>
           <a:ext cx="494833" cy="608895"/>
           <a:chOff x="3696394" y="23369017"/>
           <a:chExt cx="493238" cy="941855"/>
@@ -8750,13 +8791,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603502</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>107155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>250031</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>75188</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8766,8 +8807,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3539443" y="20793214"/>
-          <a:ext cx="442147" cy="393856"/>
+          <a:off x="3539443" y="21006126"/>
+          <a:ext cx="330088" cy="393856"/>
           <a:chOff x="2364441" y="18985350"/>
           <a:chExt cx="462492" cy="412032"/>
         </a:xfrm>
@@ -8879,15 +8920,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>326829</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24274</xdr:colOff>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>87770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209443</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:colOff>590447</xdr:colOff>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>141009</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8897,7 +8938,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6400417" y="24819152"/>
+          <a:off x="6378009" y="25032064"/>
           <a:ext cx="566173" cy="266151"/>
           <a:chOff x="2207559" y="19128441"/>
           <a:chExt cx="605117" cy="280147"/>
@@ -9011,15 +9052,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>272663</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>113113</xdr:rowOff>
+      <xdr:colOff>631251</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>101908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>17446</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>77541</xdr:rowOff>
+      <xdr:colOff>376034</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>66336</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9028,8 +9069,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6346251" y="25483231"/>
-          <a:ext cx="428342" cy="390251"/>
+          <a:off x="6301427" y="25684937"/>
+          <a:ext cx="428342" cy="390252"/>
           <a:chOff x="2358321" y="18989210"/>
           <a:chExt cx="454355" cy="408172"/>
         </a:xfrm>
@@ -9141,15 +9182,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>663188</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>383041</xdr:colOff>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>113113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>407971</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127824</xdr:colOff>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>77541</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9159,8 +9200,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6736776" y="25483231"/>
-          <a:ext cx="428342" cy="390251"/>
+          <a:off x="6736776" y="25696142"/>
+          <a:ext cx="428342" cy="390252"/>
           <a:chOff x="2358321" y="18989210"/>
           <a:chExt cx="454355" cy="408172"/>
         </a:xfrm>
@@ -9561,7 +9602,7 @@
   <dimension ref="B1:Y328"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight"/>
@@ -9577,114 +9618,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25">
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
     </row>
     <row r="2" spans="2:25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
     </row>
     <row r="7" spans="2:25" ht="17.25" thickBot="1"/>
     <row r="8" spans="2:25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="59" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="3"/>
@@ -9706,13 +9747,13 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
     </row>
     <row r="9" spans="2:25" ht="17.25" thickBot="1">
-      <c r="B9" s="46"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -9732,10 +9773,10 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
     </row>
     <row r="11" spans="2:25">
       <c r="B11" t="s">
@@ -9904,17 +9945,17 @@
       <c r="P34" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q34" s="48" t="s">
+      <c r="Q34" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="50"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="62"/>
     </row>
     <row r="35" spans="2:25">
       <c r="O35" s="19">
@@ -9923,17 +9964,17 @@
       <c r="P35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" s="51" t="s">
+      <c r="Q35" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="53"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="65"/>
     </row>
     <row r="36" spans="2:25">
       <c r="B36" s="1"/>
@@ -9965,191 +10006,191 @@
       <c r="O62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P62" s="41" t="s">
+      <c r="P62" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41" t="s">
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="S62" s="41"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="41"/>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="41"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="50"/>
+      <c r="Y62" s="50"/>
     </row>
     <row r="63" spans="2:25">
       <c r="O63" s="12">
         <v>1</v>
       </c>
-      <c r="P63" s="42" t="s">
+      <c r="P63" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="42" t="s">
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="S63" s="42"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="42"/>
-      <c r="V63" s="42"/>
-      <c r="W63" s="42"/>
-      <c r="X63" s="42"/>
-      <c r="Y63" s="42"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="53"/>
     </row>
     <row r="64" spans="2:25">
       <c r="O64" s="12">
         <v>2</v>
       </c>
-      <c r="P64" s="42" t="s">
+      <c r="P64" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42" t="s">
+      <c r="Q64" s="53"/>
+      <c r="R64" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="42"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="42"/>
-      <c r="V64" s="42"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="42"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="53"/>
+      <c r="V64" s="53"/>
+      <c r="W64" s="53"/>
+      <c r="X64" s="53"/>
+      <c r="Y64" s="53"/>
     </row>
     <row r="65" spans="15:25">
       <c r="O65" s="12">
         <v>3</v>
       </c>
-      <c r="P65" s="42" t="s">
+      <c r="P65" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="42" t="s">
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="S65" s="42"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="42"/>
-      <c r="X65" s="42"/>
-      <c r="Y65" s="42"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
     </row>
     <row r="66" spans="15:25">
       <c r="O66" s="12">
         <v>4</v>
       </c>
-      <c r="P66" s="42" t="s">
+      <c r="P66" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42" t="s">
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="S66" s="42"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="42"/>
-      <c r="V66" s="42"/>
-      <c r="W66" s="42"/>
-      <c r="X66" s="42"/>
-      <c r="Y66" s="42"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="53"/>
+      <c r="Y66" s="53"/>
     </row>
     <row r="67" spans="15:25">
       <c r="O67" s="12">
         <v>5</v>
       </c>
-      <c r="P67" s="42" t="s">
+      <c r="P67" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42" t="s">
+      <c r="Q67" s="53"/>
+      <c r="R67" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="42"/>
-      <c r="V67" s="42"/>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="42"/>
+      <c r="S67" s="53"/>
+      <c r="T67" s="53"/>
+      <c r="U67" s="53"/>
+      <c r="V67" s="53"/>
+      <c r="W67" s="53"/>
+      <c r="X67" s="53"/>
+      <c r="Y67" s="53"/>
     </row>
     <row r="68" spans="15:25">
       <c r="O68" s="12">
         <v>6</v>
       </c>
-      <c r="P68" s="42" t="s">
+      <c r="P68" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="42" t="s">
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="S68" s="42"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-      <c r="V68" s="42"/>
-      <c r="W68" s="42"/>
-      <c r="X68" s="42"/>
-      <c r="Y68" s="42"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="53"/>
+      <c r="U68" s="53"/>
+      <c r="V68" s="53"/>
+      <c r="W68" s="53"/>
+      <c r="X68" s="53"/>
+      <c r="Y68" s="53"/>
     </row>
     <row r="69" spans="15:25">
       <c r="O69" s="13">
         <v>7</v>
       </c>
-      <c r="P69" s="42" t="s">
+      <c r="P69" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42" t="s">
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="S69" s="42"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="42"/>
-      <c r="V69" s="42"/>
-      <c r="W69" s="42"/>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="42"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="53"/>
+      <c r="U69" s="53"/>
+      <c r="V69" s="53"/>
+      <c r="W69" s="53"/>
+      <c r="X69" s="53"/>
+      <c r="Y69" s="53"/>
     </row>
     <row r="70" spans="15:25">
       <c r="O70" s="13">
         <v>8</v>
       </c>
-      <c r="P70" s="42" t="s">
+      <c r="P70" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42" t="s">
+      <c r="Q70" s="53"/>
+      <c r="R70" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="S70" s="42"/>
-      <c r="T70" s="42"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="42"/>
-      <c r="W70" s="42"/>
-      <c r="X70" s="42"/>
-      <c r="Y70" s="42"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="53"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="53"/>
+      <c r="X70" s="53"/>
+      <c r="Y70" s="53"/>
     </row>
     <row r="71" spans="15:25">
       <c r="O71" s="13">
         <v>9</v>
       </c>
-      <c r="P71" s="42" t="s">
+      <c r="P71" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="Q71" s="42"/>
-      <c r="R71" s="42" t="s">
+      <c r="Q71" s="53"/>
+      <c r="R71" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="S71" s="42"/>
-      <c r="T71" s="42"/>
-      <c r="U71" s="42"/>
-      <c r="V71" s="42"/>
-      <c r="W71" s="42"/>
-      <c r="X71" s="42"/>
-      <c r="Y71" s="42"/>
+      <c r="S71" s="53"/>
+      <c r="T71" s="53"/>
+      <c r="U71" s="53"/>
+      <c r="V71" s="53"/>
+      <c r="W71" s="53"/>
+      <c r="X71" s="53"/>
+      <c r="Y71" s="53"/>
     </row>
     <row r="84" spans="2:25" ht="17.25" thickBot="1">
       <c r="B84" s="2"/>
@@ -10322,20 +10363,20 @@
       <c r="O90" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P90" s="41" t="s">
+      <c r="P90" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41" t="s">
+      <c r="Q90" s="50"/>
+      <c r="R90" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
-      <c r="V90" s="41"/>
-      <c r="W90" s="41"/>
-      <c r="X90" s="41"/>
-      <c r="Y90" s="41"/>
+      <c r="S90" s="50"/>
+      <c r="T90" s="50"/>
+      <c r="U90" s="50"/>
+      <c r="V90" s="50"/>
+      <c r="W90" s="50"/>
+      <c r="X90" s="50"/>
+      <c r="Y90" s="50"/>
     </row>
     <row r="91" spans="2:25">
       <c r="B91" s="1"/>
@@ -10354,20 +10395,20 @@
       <c r="O91" s="8">
         <v>1</v>
       </c>
-      <c r="P91" s="39" t="s">
+      <c r="P91" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39" t="s">
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="48"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="48"/>
+      <c r="W91" s="48"/>
+      <c r="X91" s="48"/>
+      <c r="Y91" s="48"/>
     </row>
     <row r="92" spans="2:25">
       <c r="B92" s="1"/>
@@ -10386,20 +10427,20 @@
       <c r="O92" s="8">
         <v>2</v>
       </c>
-      <c r="P92" s="39" t="s">
+      <c r="P92" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39" t="s">
+      <c r="Q92" s="48"/>
+      <c r="R92" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="39"/>
-      <c r="Y92" s="39"/>
+      <c r="S92" s="48"/>
+      <c r="T92" s="48"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="48"/>
+      <c r="W92" s="48"/>
+      <c r="X92" s="48"/>
+      <c r="Y92" s="48"/>
     </row>
     <row r="93" spans="2:25">
       <c r="B93" s="1"/>
@@ -10418,20 +10459,20 @@
       <c r="O93" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P93" s="39" t="s">
+      <c r="P93" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39" t="s">
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39"/>
-      <c r="V93" s="39"/>
-      <c r="W93" s="39"/>
-      <c r="X93" s="39"/>
-      <c r="Y93" s="39"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="48"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="48"/>
     </row>
     <row r="94" spans="2:25">
       <c r="B94" s="1"/>
@@ -10450,20 +10491,20 @@
       <c r="O94" s="8">
         <v>4</v>
       </c>
-      <c r="P94" s="39" t="s">
+      <c r="P94" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39" t="s">
+      <c r="Q94" s="48"/>
+      <c r="R94" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="S94" s="39"/>
-      <c r="T94" s="39"/>
-      <c r="U94" s="39"/>
-      <c r="V94" s="39"/>
-      <c r="W94" s="39"/>
-      <c r="X94" s="39"/>
-      <c r="Y94" s="39"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="48"/>
+      <c r="X94" s="48"/>
+      <c r="Y94" s="48"/>
     </row>
     <row r="95" spans="2:25">
       <c r="B95" s="1"/>
@@ -10482,20 +10523,20 @@
       <c r="O95" s="8">
         <v>5</v>
       </c>
-      <c r="P95" s="40" t="s">
+      <c r="P95" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="40" t="s">
+      <c r="Q95" s="54"/>
+      <c r="R95" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="S95" s="40"/>
-      <c r="T95" s="40"/>
-      <c r="U95" s="40"/>
-      <c r="V95" s="40"/>
-      <c r="W95" s="40"/>
-      <c r="X95" s="40"/>
-      <c r="Y95" s="40"/>
+      <c r="S95" s="54"/>
+      <c r="T95" s="54"/>
+      <c r="U95" s="54"/>
+      <c r="V95" s="54"/>
+      <c r="W95" s="54"/>
+      <c r="X95" s="54"/>
+      <c r="Y95" s="54"/>
     </row>
     <row r="96" spans="2:25">
       <c r="B96" s="1"/>
@@ -10514,20 +10555,20 @@
       <c r="O96" s="15">
         <v>6</v>
       </c>
-      <c r="P96" s="39" t="s">
+      <c r="P96" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="40" t="s">
+      <c r="Q96" s="48"/>
+      <c r="R96" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
+      <c r="S96" s="54"/>
+      <c r="T96" s="54"/>
+      <c r="U96" s="54"/>
+      <c r="V96" s="54"/>
+      <c r="W96" s="54"/>
+      <c r="X96" s="54"/>
+      <c r="Y96" s="54"/>
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="1"/>
@@ -10546,20 +10587,20 @@
       <c r="O97" s="15">
         <v>7</v>
       </c>
-      <c r="P97" s="39" t="s">
+      <c r="P97" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="40" t="s">
+      <c r="Q97" s="48"/>
+      <c r="R97" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="S97" s="40"/>
-      <c r="T97" s="40"/>
-      <c r="U97" s="40"/>
-      <c r="V97" s="40"/>
-      <c r="W97" s="40"/>
-      <c r="X97" s="40"/>
-      <c r="Y97" s="40"/>
+      <c r="S97" s="54"/>
+      <c r="T97" s="54"/>
+      <c r="U97" s="54"/>
+      <c r="V97" s="54"/>
+      <c r="W97" s="54"/>
+      <c r="X97" s="54"/>
+      <c r="Y97" s="54"/>
     </row>
     <row r="98" spans="2:25">
       <c r="B98" s="1"/>
@@ -10578,20 +10619,20 @@
       <c r="O98" s="15">
         <v>8</v>
       </c>
-      <c r="P98" s="39" t="s">
+      <c r="P98" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="40" t="s">
+      <c r="Q98" s="48"/>
+      <c r="R98" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="S98" s="40"/>
-      <c r="T98" s="40"/>
-      <c r="U98" s="40"/>
-      <c r="V98" s="40"/>
-      <c r="W98" s="40"/>
-      <c r="X98" s="40"/>
-      <c r="Y98" s="40"/>
+      <c r="S98" s="54"/>
+      <c r="T98" s="54"/>
+      <c r="U98" s="54"/>
+      <c r="V98" s="54"/>
+      <c r="W98" s="54"/>
+      <c r="X98" s="54"/>
+      <c r="Y98" s="54"/>
     </row>
     <row r="99" spans="2:25">
       <c r="B99" s="1"/>
@@ -10610,20 +10651,20 @@
       <c r="O99" s="15">
         <v>9</v>
       </c>
-      <c r="P99" s="40" t="s">
+      <c r="P99" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="40" t="s">
+      <c r="Q99" s="54"/>
+      <c r="R99" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="S99" s="40"/>
-      <c r="T99" s="40"/>
-      <c r="U99" s="40"/>
-      <c r="V99" s="40"/>
-      <c r="W99" s="40"/>
-      <c r="X99" s="40"/>
-      <c r="Y99" s="40"/>
+      <c r="S99" s="54"/>
+      <c r="T99" s="54"/>
+      <c r="U99" s="54"/>
+      <c r="V99" s="54"/>
+      <c r="W99" s="54"/>
+      <c r="X99" s="54"/>
+      <c r="Y99" s="54"/>
     </row>
     <row r="100" spans="2:25">
       <c r="B100" s="1"/>
@@ -10912,20 +10953,20 @@
       <c r="O112" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P112" s="41" t="s">
+      <c r="P112" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q112" s="41"/>
-      <c r="R112" s="41" t="s">
+      <c r="Q112" s="50"/>
+      <c r="R112" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="S112" s="41"/>
-      <c r="T112" s="41"/>
-      <c r="U112" s="41"/>
-      <c r="V112" s="41"/>
-      <c r="W112" s="41"/>
-      <c r="X112" s="41"/>
-      <c r="Y112" s="41"/>
+      <c r="S112" s="50"/>
+      <c r="T112" s="50"/>
+      <c r="U112" s="50"/>
+      <c r="V112" s="50"/>
+      <c r="W112" s="50"/>
+      <c r="X112" s="50"/>
+      <c r="Y112" s="50"/>
     </row>
     <row r="113" spans="2:25">
       <c r="B113" s="1"/>
@@ -10944,20 +10985,20 @@
       <c r="O113" s="31">
         <v>1</v>
       </c>
-      <c r="P113" s="39" t="s">
+      <c r="P113" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="Q113" s="39"/>
-      <c r="R113" s="39" t="s">
+      <c r="Q113" s="48"/>
+      <c r="R113" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="S113" s="39"/>
-      <c r="T113" s="39"/>
-      <c r="U113" s="39"/>
-      <c r="V113" s="39"/>
-      <c r="W113" s="39"/>
-      <c r="X113" s="39"/>
-      <c r="Y113" s="39"/>
+      <c r="S113" s="48"/>
+      <c r="T113" s="48"/>
+      <c r="U113" s="48"/>
+      <c r="V113" s="48"/>
+      <c r="W113" s="48"/>
+      <c r="X113" s="48"/>
+      <c r="Y113" s="48"/>
     </row>
     <row r="114" spans="2:25">
       <c r="B114" s="1"/>
@@ -10976,20 +11017,20 @@
       <c r="O114" s="31">
         <v>2</v>
       </c>
-      <c r="P114" s="39" t="s">
+      <c r="P114" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q114" s="39"/>
-      <c r="R114" s="39" t="s">
+      <c r="Q114" s="48"/>
+      <c r="R114" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="S114" s="39"/>
-      <c r="T114" s="39"/>
-      <c r="U114" s="39"/>
-      <c r="V114" s="39"/>
-      <c r="W114" s="39"/>
-      <c r="X114" s="39"/>
-      <c r="Y114" s="39"/>
+      <c r="S114" s="48"/>
+      <c r="T114" s="48"/>
+      <c r="U114" s="48"/>
+      <c r="V114" s="48"/>
+      <c r="W114" s="48"/>
+      <c r="X114" s="48"/>
+      <c r="Y114" s="48"/>
     </row>
     <row r="115" spans="2:25">
       <c r="B115" s="1"/>
@@ -11008,20 +11049,20 @@
       <c r="O115" s="31">
         <v>3</v>
       </c>
-      <c r="P115" s="39" t="s">
+      <c r="P115" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="Q115" s="39"/>
-      <c r="R115" s="39" t="s">
+      <c r="Q115" s="48"/>
+      <c r="R115" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="S115" s="39"/>
-      <c r="T115" s="39"/>
-      <c r="U115" s="39"/>
-      <c r="V115" s="39"/>
-      <c r="W115" s="39"/>
-      <c r="X115" s="39"/>
-      <c r="Y115" s="39"/>
+      <c r="S115" s="48"/>
+      <c r="T115" s="48"/>
+      <c r="U115" s="48"/>
+      <c r="V115" s="48"/>
+      <c r="W115" s="48"/>
+      <c r="X115" s="48"/>
+      <c r="Y115" s="48"/>
     </row>
     <row r="116" spans="2:25">
       <c r="B116" s="1"/>
@@ -11040,20 +11081,20 @@
       <c r="O116" s="31">
         <v>4</v>
       </c>
-      <c r="P116" s="40" t="s">
+      <c r="P116" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="Q116" s="40"/>
-      <c r="R116" s="40" t="s">
+      <c r="Q116" s="54"/>
+      <c r="R116" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="S116" s="40"/>
-      <c r="T116" s="40"/>
-      <c r="U116" s="40"/>
-      <c r="V116" s="40"/>
-      <c r="W116" s="40"/>
-      <c r="X116" s="40"/>
-      <c r="Y116" s="40"/>
+      <c r="S116" s="54"/>
+      <c r="T116" s="54"/>
+      <c r="U116" s="54"/>
+      <c r="V116" s="54"/>
+      <c r="W116" s="54"/>
+      <c r="X116" s="54"/>
+      <c r="Y116" s="54"/>
     </row>
     <row r="117" spans="2:25">
       <c r="B117" s="1"/>
@@ -11072,20 +11113,20 @@
       <c r="O117" s="33">
         <v>5</v>
       </c>
-      <c r="P117" s="39" t="s">
+      <c r="P117" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="Q117" s="39"/>
-      <c r="R117" s="40" t="s">
+      <c r="Q117" s="48"/>
+      <c r="R117" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="S117" s="40"/>
-      <c r="T117" s="40"/>
-      <c r="U117" s="40"/>
-      <c r="V117" s="40"/>
-      <c r="W117" s="40"/>
-      <c r="X117" s="40"/>
-      <c r="Y117" s="40"/>
+      <c r="S117" s="54"/>
+      <c r="T117" s="54"/>
+      <c r="U117" s="54"/>
+      <c r="V117" s="54"/>
+      <c r="W117" s="54"/>
+      <c r="X117" s="54"/>
+      <c r="Y117" s="54"/>
     </row>
     <row r="118" spans="2:25">
       <c r="B118" s="1"/>
@@ -11104,20 +11145,20 @@
       <c r="O118" s="33">
         <v>6</v>
       </c>
-      <c r="P118" s="39" t="s">
+      <c r="P118" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q118" s="39"/>
-      <c r="R118" s="40" t="s">
+      <c r="Q118" s="48"/>
+      <c r="R118" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="S118" s="40"/>
-      <c r="T118" s="40"/>
-      <c r="U118" s="40"/>
-      <c r="V118" s="40"/>
-      <c r="W118" s="40"/>
-      <c r="X118" s="40"/>
-      <c r="Y118" s="40"/>
+      <c r="S118" s="54"/>
+      <c r="T118" s="54"/>
+      <c r="U118" s="54"/>
+      <c r="V118" s="54"/>
+      <c r="W118" s="54"/>
+      <c r="X118" s="54"/>
+      <c r="Y118" s="54"/>
     </row>
     <row r="119" spans="2:25">
       <c r="B119" s="1"/>
@@ -11136,20 +11177,20 @@
       <c r="O119" s="33">
         <v>7</v>
       </c>
-      <c r="P119" s="39" t="s">
+      <c r="P119" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="Q119" s="39"/>
-      <c r="R119" s="40" t="s">
+      <c r="Q119" s="48"/>
+      <c r="R119" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="S119" s="40"/>
-      <c r="T119" s="40"/>
-      <c r="U119" s="40"/>
-      <c r="V119" s="40"/>
-      <c r="W119" s="40"/>
-      <c r="X119" s="40"/>
-      <c r="Y119" s="40"/>
+      <c r="S119" s="54"/>
+      <c r="T119" s="54"/>
+      <c r="U119" s="54"/>
+      <c r="V119" s="54"/>
+      <c r="W119" s="54"/>
+      <c r="X119" s="54"/>
+      <c r="Y119" s="54"/>
     </row>
     <row r="120" spans="2:25">
       <c r="B120" s="1"/>
@@ -11168,20 +11209,20 @@
       <c r="O120" s="33">
         <v>8</v>
       </c>
-      <c r="P120" s="40" t="s">
+      <c r="P120" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Q120" s="40"/>
-      <c r="R120" s="40" t="s">
+      <c r="Q120" s="54"/>
+      <c r="R120" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="S120" s="40"/>
-      <c r="T120" s="40"/>
-      <c r="U120" s="40"/>
-      <c r="V120" s="40"/>
-      <c r="W120" s="40"/>
-      <c r="X120" s="40"/>
-      <c r="Y120" s="40"/>
+      <c r="S120" s="54"/>
+      <c r="T120" s="54"/>
+      <c r="U120" s="54"/>
+      <c r="V120" s="54"/>
+      <c r="W120" s="54"/>
+      <c r="X120" s="54"/>
+      <c r="Y120" s="54"/>
     </row>
     <row r="121" spans="2:25">
       <c r="B121" s="1"/>
@@ -11200,20 +11241,20 @@
       <c r="O121" s="33">
         <v>9</v>
       </c>
-      <c r="P121" s="72" t="s">
+      <c r="P121" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="Q121" s="73"/>
-      <c r="R121" s="72" t="s">
+      <c r="Q121" s="45"/>
+      <c r="R121" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="S121" s="74"/>
-      <c r="T121" s="74"/>
-      <c r="U121" s="74"/>
-      <c r="V121" s="74"/>
-      <c r="W121" s="74"/>
-      <c r="X121" s="74"/>
-      <c r="Y121" s="73"/>
+      <c r="S121" s="46"/>
+      <c r="T121" s="46"/>
+      <c r="U121" s="46"/>
+      <c r="V121" s="46"/>
+      <c r="W121" s="46"/>
+      <c r="X121" s="46"/>
+      <c r="Y121" s="45"/>
     </row>
     <row r="122" spans="2:25">
       <c r="B122" s="1"/>
@@ -11546,20 +11587,20 @@
       <c r="O135" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P135" s="41" t="s">
+      <c r="P135" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q135" s="41"/>
-      <c r="R135" s="41" t="s">
+      <c r="Q135" s="50"/>
+      <c r="R135" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="S135" s="41"/>
-      <c r="T135" s="41"/>
-      <c r="U135" s="41"/>
-      <c r="V135" s="41"/>
-      <c r="W135" s="41"/>
-      <c r="X135" s="41"/>
-      <c r="Y135" s="41"/>
+      <c r="S135" s="50"/>
+      <c r="T135" s="50"/>
+      <c r="U135" s="50"/>
+      <c r="V135" s="50"/>
+      <c r="W135" s="50"/>
+      <c r="X135" s="50"/>
+      <c r="Y135" s="50"/>
     </row>
     <row r="136" spans="2:25">
       <c r="B136" s="1"/>
@@ -11578,20 +11619,20 @@
       <c r="O136" s="9">
         <v>1</v>
       </c>
-      <c r="P136" s="39" t="s">
+      <c r="P136" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="Q136" s="39"/>
-      <c r="R136" s="39" t="s">
+      <c r="Q136" s="48"/>
+      <c r="R136" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="S136" s="39"/>
-      <c r="T136" s="39"/>
-      <c r="U136" s="39"/>
-      <c r="V136" s="39"/>
-      <c r="W136" s="39"/>
-      <c r="X136" s="39"/>
-      <c r="Y136" s="39"/>
+      <c r="S136" s="48"/>
+      <c r="T136" s="48"/>
+      <c r="U136" s="48"/>
+      <c r="V136" s="48"/>
+      <c r="W136" s="48"/>
+      <c r="X136" s="48"/>
+      <c r="Y136" s="48"/>
     </row>
     <row r="137" spans="2:25">
       <c r="B137" s="1"/>
@@ -11610,20 +11651,20 @@
       <c r="O137" s="9">
         <v>2</v>
       </c>
-      <c r="P137" s="39" t="s">
+      <c r="P137" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="Q137" s="39"/>
-      <c r="R137" s="39" t="s">
+      <c r="Q137" s="48"/>
+      <c r="R137" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="S137" s="39"/>
-      <c r="T137" s="39"/>
-      <c r="U137" s="39"/>
-      <c r="V137" s="39"/>
-      <c r="W137" s="39"/>
-      <c r="X137" s="39"/>
-      <c r="Y137" s="39"/>
+      <c r="S137" s="48"/>
+      <c r="T137" s="48"/>
+      <c r="U137" s="48"/>
+      <c r="V137" s="48"/>
+      <c r="W137" s="48"/>
+      <c r="X137" s="48"/>
+      <c r="Y137" s="48"/>
     </row>
     <row r="138" spans="2:25">
       <c r="B138" s="1"/>
@@ -11642,20 +11683,20 @@
       <c r="O138" s="9">
         <v>3</v>
       </c>
-      <c r="P138" s="39" t="s">
+      <c r="P138" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="Q138" s="39"/>
-      <c r="R138" s="39" t="s">
+      <c r="Q138" s="48"/>
+      <c r="R138" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="S138" s="39"/>
-      <c r="T138" s="39"/>
-      <c r="U138" s="39"/>
-      <c r="V138" s="39"/>
-      <c r="W138" s="39"/>
-      <c r="X138" s="39"/>
-      <c r="Y138" s="39"/>
+      <c r="S138" s="48"/>
+      <c r="T138" s="48"/>
+      <c r="U138" s="48"/>
+      <c r="V138" s="48"/>
+      <c r="W138" s="48"/>
+      <c r="X138" s="48"/>
+      <c r="Y138" s="48"/>
     </row>
     <row r="139" spans="2:25">
       <c r="B139" s="1"/>
@@ -12060,20 +12101,20 @@
       <c r="O155" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="P155" s="41" t="s">
+      <c r="P155" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="Q155" s="41"/>
-      <c r="R155" s="41" t="s">
+      <c r="Q155" s="50"/>
+      <c r="R155" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="S155" s="41"/>
-      <c r="T155" s="41"/>
-      <c r="U155" s="41"/>
-      <c r="V155" s="41"/>
-      <c r="W155" s="41"/>
-      <c r="X155" s="41"/>
-      <c r="Y155" s="41"/>
+      <c r="S155" s="50"/>
+      <c r="T155" s="50"/>
+      <c r="U155" s="50"/>
+      <c r="V155" s="50"/>
+      <c r="W155" s="50"/>
+      <c r="X155" s="50"/>
+      <c r="Y155" s="50"/>
     </row>
     <row r="156" spans="2:25">
       <c r="B156" s="1"/>
@@ -12092,20 +12133,20 @@
       <c r="O156" s="9">
         <v>1</v>
       </c>
-      <c r="P156" s="39" t="s">
+      <c r="P156" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="Q156" s="39"/>
-      <c r="R156" s="39" t="s">
+      <c r="Q156" s="48"/>
+      <c r="R156" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="S156" s="39"/>
-      <c r="T156" s="39"/>
-      <c r="U156" s="39"/>
-      <c r="V156" s="39"/>
-      <c r="W156" s="39"/>
-      <c r="X156" s="39"/>
-      <c r="Y156" s="39"/>
+      <c r="S156" s="48"/>
+      <c r="T156" s="48"/>
+      <c r="U156" s="48"/>
+      <c r="V156" s="48"/>
+      <c r="W156" s="48"/>
+      <c r="X156" s="48"/>
+      <c r="Y156" s="48"/>
     </row>
     <row r="157" spans="2:25">
       <c r="B157" s="1"/>
@@ -12863,209 +12904,209 @@
       </c>
     </row>
     <row r="269" spans="2:13">
-      <c r="C269" s="41" t="s">
+      <c r="C269" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D269" s="41"/>
-      <c r="E269" s="41" t="s">
+      <c r="D269" s="50"/>
+      <c r="E269" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F269" s="41"/>
-      <c r="G269" s="41"/>
-      <c r="H269" s="41" t="s">
+      <c r="F269" s="50"/>
+      <c r="G269" s="50"/>
+      <c r="H269" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="I269" s="41"/>
-      <c r="J269" s="41"/>
-      <c r="K269" s="41" t="s">
+      <c r="I269" s="50"/>
+      <c r="J269" s="50"/>
+      <c r="K269" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="L269" s="41"/>
-      <c r="M269" s="41"/>
+      <c r="L269" s="50"/>
+      <c r="M269" s="50"/>
     </row>
     <row r="270" spans="2:13">
-      <c r="C270" s="55" t="s">
+      <c r="C270" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D270" s="55"/>
-      <c r="E270" s="39" t="s">
+      <c r="D270" s="49"/>
+      <c r="E270" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="F270" s="39"/>
-      <c r="G270" s="39"/>
-      <c r="H270" s="39" t="s">
+      <c r="F270" s="48"/>
+      <c r="G270" s="48"/>
+      <c r="H270" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="I270" s="39"/>
-      <c r="J270" s="39"/>
-      <c r="K270" s="39" t="s">
+      <c r="I270" s="48"/>
+      <c r="J270" s="48"/>
+      <c r="K270" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="L270" s="39"/>
-      <c r="M270" s="39"/>
+      <c r="L270" s="48"/>
+      <c r="M270" s="48"/>
     </row>
     <row r="271" spans="2:13">
-      <c r="C271" s="55"/>
-      <c r="D271" s="55"/>
-      <c r="E271" s="39"/>
-      <c r="F271" s="39"/>
-      <c r="G271" s="39"/>
-      <c r="H271" s="39"/>
-      <c r="I271" s="39"/>
-      <c r="J271" s="39"/>
-      <c r="K271" s="39"/>
-      <c r="L271" s="39"/>
-      <c r="M271" s="39"/>
+      <c r="C271" s="49"/>
+      <c r="D271" s="49"/>
+      <c r="E271" s="48"/>
+      <c r="F271" s="48"/>
+      <c r="G271" s="48"/>
+      <c r="H271" s="48"/>
+      <c r="I271" s="48"/>
+      <c r="J271" s="48"/>
+      <c r="K271" s="48"/>
+      <c r="L271" s="48"/>
+      <c r="M271" s="48"/>
     </row>
     <row r="272" spans="2:13">
-      <c r="C272" s="55" t="s">
+      <c r="C272" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="D272" s="55"/>
-      <c r="E272" s="39" t="s">
+      <c r="D272" s="49"/>
+      <c r="E272" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F272" s="39"/>
-      <c r="G272" s="39"/>
-      <c r="H272" s="39"/>
-      <c r="I272" s="39"/>
-      <c r="J272" s="39"/>
-      <c r="K272" s="39"/>
-      <c r="L272" s="39"/>
-      <c r="M272" s="39"/>
+      <c r="F272" s="48"/>
+      <c r="G272" s="48"/>
+      <c r="H272" s="48"/>
+      <c r="I272" s="48"/>
+      <c r="J272" s="48"/>
+      <c r="K272" s="48"/>
+      <c r="L272" s="48"/>
+      <c r="M272" s="48"/>
     </row>
     <row r="273" spans="2:25">
-      <c r="C273" s="55"/>
-      <c r="D273" s="55"/>
-      <c r="E273" s="39"/>
-      <c r="F273" s="39"/>
-      <c r="G273" s="39"/>
-      <c r="H273" s="39"/>
-      <c r="I273" s="39"/>
-      <c r="J273" s="39"/>
-      <c r="K273" s="39"/>
-      <c r="L273" s="39"/>
-      <c r="M273" s="39"/>
+      <c r="C273" s="49"/>
+      <c r="D273" s="49"/>
+      <c r="E273" s="48"/>
+      <c r="F273" s="48"/>
+      <c r="G273" s="48"/>
+      <c r="H273" s="48"/>
+      <c r="I273" s="48"/>
+      <c r="J273" s="48"/>
+      <c r="K273" s="48"/>
+      <c r="L273" s="48"/>
+      <c r="M273" s="48"/>
     </row>
     <row r="274" spans="2:25">
-      <c r="C274" s="55" t="s">
+      <c r="C274" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D274" s="55"/>
-      <c r="E274" s="39" t="s">
+      <c r="D274" s="49"/>
+      <c r="E274" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="F274" s="39"/>
-      <c r="G274" s="39"/>
-      <c r="H274" s="39"/>
-      <c r="I274" s="39"/>
-      <c r="J274" s="39"/>
-      <c r="K274" s="39"/>
-      <c r="L274" s="39"/>
-      <c r="M274" s="39"/>
+      <c r="F274" s="48"/>
+      <c r="G274" s="48"/>
+      <c r="H274" s="48"/>
+      <c r="I274" s="48"/>
+      <c r="J274" s="48"/>
+      <c r="K274" s="48"/>
+      <c r="L274" s="48"/>
+      <c r="M274" s="48"/>
     </row>
     <row r="275" spans="2:25">
-      <c r="C275" s="55"/>
-      <c r="D275" s="55"/>
-      <c r="E275" s="39"/>
-      <c r="F275" s="39"/>
-      <c r="G275" s="39"/>
-      <c r="H275" s="39"/>
-      <c r="I275" s="39"/>
-      <c r="J275" s="39"/>
-      <c r="K275" s="39"/>
-      <c r="L275" s="39"/>
-      <c r="M275" s="39"/>
+      <c r="C275" s="49"/>
+      <c r="D275" s="49"/>
+      <c r="E275" s="48"/>
+      <c r="F275" s="48"/>
+      <c r="G275" s="48"/>
+      <c r="H275" s="48"/>
+      <c r="I275" s="48"/>
+      <c r="J275" s="48"/>
+      <c r="K275" s="48"/>
+      <c r="L275" s="48"/>
+      <c r="M275" s="48"/>
     </row>
     <row r="276" spans="2:25">
-      <c r="C276" s="55" t="s">
+      <c r="C276" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D276" s="55"/>
-      <c r="E276" s="39" t="s">
+      <c r="D276" s="49"/>
+      <c r="E276" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="F276" s="39"/>
-      <c r="G276" s="39"/>
-      <c r="H276" s="39"/>
-      <c r="I276" s="39"/>
-      <c r="J276" s="39"/>
-      <c r="K276" s="39"/>
-      <c r="L276" s="39"/>
-      <c r="M276" s="39"/>
+      <c r="F276" s="48"/>
+      <c r="G276" s="48"/>
+      <c r="H276" s="48"/>
+      <c r="I276" s="48"/>
+      <c r="J276" s="48"/>
+      <c r="K276" s="48"/>
+      <c r="L276" s="48"/>
+      <c r="M276" s="48"/>
     </row>
     <row r="277" spans="2:25">
-      <c r="C277" s="55"/>
-      <c r="D277" s="55"/>
-      <c r="E277" s="39"/>
-      <c r="F277" s="39"/>
-      <c r="G277" s="39"/>
-      <c r="H277" s="39"/>
-      <c r="I277" s="39"/>
-      <c r="J277" s="39"/>
-      <c r="K277" s="39"/>
-      <c r="L277" s="39"/>
-      <c r="M277" s="39"/>
+      <c r="C277" s="49"/>
+      <c r="D277" s="49"/>
+      <c r="E277" s="48"/>
+      <c r="F277" s="48"/>
+      <c r="G277" s="48"/>
+      <c r="H277" s="48"/>
+      <c r="I277" s="48"/>
+      <c r="J277" s="48"/>
+      <c r="K277" s="48"/>
+      <c r="L277" s="48"/>
+      <c r="M277" s="48"/>
     </row>
     <row r="278" spans="2:25">
-      <c r="C278" s="55" t="s">
+      <c r="C278" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D278" s="55"/>
-      <c r="E278" s="39" t="s">
+      <c r="D278" s="49"/>
+      <c r="E278" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="F278" s="39"/>
-      <c r="G278" s="39"/>
-      <c r="H278" s="39"/>
-      <c r="I278" s="39"/>
-      <c r="J278" s="39"/>
-      <c r="K278" s="39"/>
-      <c r="L278" s="39"/>
-      <c r="M278" s="39"/>
+      <c r="F278" s="48"/>
+      <c r="G278" s="48"/>
+      <c r="H278" s="48"/>
+      <c r="I278" s="48"/>
+      <c r="J278" s="48"/>
+      <c r="K278" s="48"/>
+      <c r="L278" s="48"/>
+      <c r="M278" s="48"/>
     </row>
     <row r="279" spans="2:25">
-      <c r="C279" s="55"/>
-      <c r="D279" s="55"/>
-      <c r="E279" s="39"/>
-      <c r="F279" s="39"/>
-      <c r="G279" s="39"/>
-      <c r="H279" s="39"/>
-      <c r="I279" s="39"/>
-      <c r="J279" s="39"/>
-      <c r="K279" s="39"/>
-      <c r="L279" s="39"/>
-      <c r="M279" s="39"/>
+      <c r="C279" s="49"/>
+      <c r="D279" s="49"/>
+      <c r="E279" s="48"/>
+      <c r="F279" s="48"/>
+      <c r="G279" s="48"/>
+      <c r="H279" s="48"/>
+      <c r="I279" s="48"/>
+      <c r="J279" s="48"/>
+      <c r="K279" s="48"/>
+      <c r="L279" s="48"/>
+      <c r="M279" s="48"/>
     </row>
     <row r="280" spans="2:25">
-      <c r="C280" s="55" t="s">
+      <c r="C280" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D280" s="55"/>
-      <c r="E280" s="39" t="s">
+      <c r="D280" s="49"/>
+      <c r="E280" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="F280" s="39"/>
-      <c r="G280" s="39"/>
-      <c r="H280" s="39"/>
-      <c r="I280" s="39"/>
-      <c r="J280" s="39"/>
-      <c r="K280" s="39"/>
-      <c r="L280" s="39"/>
-      <c r="M280" s="39"/>
+      <c r="F280" s="48"/>
+      <c r="G280" s="48"/>
+      <c r="H280" s="48"/>
+      <c r="I280" s="48"/>
+      <c r="J280" s="48"/>
+      <c r="K280" s="48"/>
+      <c r="L280" s="48"/>
+      <c r="M280" s="48"/>
     </row>
     <row r="281" spans="2:25">
-      <c r="C281" s="55"/>
-      <c r="D281" s="55"/>
-      <c r="E281" s="39"/>
-      <c r="F281" s="39"/>
-      <c r="G281" s="39"/>
-      <c r="H281" s="39"/>
-      <c r="I281" s="39"/>
-      <c r="J281" s="39"/>
-      <c r="K281" s="39"/>
-      <c r="L281" s="39"/>
-      <c r="M281" s="39"/>
+      <c r="C281" s="49"/>
+      <c r="D281" s="49"/>
+      <c r="E281" s="48"/>
+      <c r="F281" s="48"/>
+      <c r="G281" s="48"/>
+      <c r="H281" s="48"/>
+      <c r="I281" s="48"/>
+      <c r="J281" s="48"/>
+      <c r="K281" s="48"/>
+      <c r="L281" s="48"/>
+      <c r="M281" s="48"/>
     </row>
     <row r="283" spans="2:25" ht="17.25">
       <c r="B283" s="14" t="s">
@@ -13081,77 +13122,77 @@
       <c r="O286" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="P286" s="41" t="s">
+      <c r="P286" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="Q286" s="41"/>
-      <c r="R286" s="41" t="s">
+      <c r="Q286" s="50"/>
+      <c r="R286" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="S286" s="41"/>
-      <c r="T286" s="41"/>
-      <c r="U286" s="41"/>
-      <c r="V286" s="41"/>
-      <c r="W286" s="41"/>
-      <c r="X286" s="41"/>
-      <c r="Y286" s="41"/>
+      <c r="S286" s="50"/>
+      <c r="T286" s="50"/>
+      <c r="U286" s="50"/>
+      <c r="V286" s="50"/>
+      <c r="W286" s="50"/>
+      <c r="X286" s="50"/>
+      <c r="Y286" s="50"/>
     </row>
     <row r="287" spans="2:25">
       <c r="O287" s="22">
         <v>1</v>
       </c>
-      <c r="P287" s="39" t="s">
+      <c r="P287" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="Q287" s="39"/>
-      <c r="R287" s="39" t="s">
+      <c r="Q287" s="48"/>
+      <c r="R287" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="S287" s="39"/>
-      <c r="T287" s="39"/>
-      <c r="U287" s="39"/>
-      <c r="V287" s="39"/>
-      <c r="W287" s="39"/>
-      <c r="X287" s="39"/>
-      <c r="Y287" s="39"/>
+      <c r="S287" s="48"/>
+      <c r="T287" s="48"/>
+      <c r="U287" s="48"/>
+      <c r="V287" s="48"/>
+      <c r="W287" s="48"/>
+      <c r="X287" s="48"/>
+      <c r="Y287" s="48"/>
     </row>
     <row r="288" spans="2:25">
       <c r="O288" s="22">
         <v>2</v>
       </c>
-      <c r="P288" s="39" t="s">
+      <c r="P288" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="Q288" s="39"/>
-      <c r="R288" s="39" t="s">
+      <c r="Q288" s="48"/>
+      <c r="R288" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="S288" s="39"/>
-      <c r="T288" s="39"/>
-      <c r="U288" s="39"/>
-      <c r="V288" s="39"/>
-      <c r="W288" s="39"/>
-      <c r="X288" s="39"/>
-      <c r="Y288" s="39"/>
+      <c r="S288" s="48"/>
+      <c r="T288" s="48"/>
+      <c r="U288" s="48"/>
+      <c r="V288" s="48"/>
+      <c r="W288" s="48"/>
+      <c r="X288" s="48"/>
+      <c r="Y288" s="48"/>
     </row>
     <row r="289" spans="15:25">
       <c r="O289" s="22">
         <v>3</v>
       </c>
-      <c r="P289" s="39" t="s">
+      <c r="P289" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="Q289" s="39"/>
-      <c r="R289" s="39" t="s">
+      <c r="Q289" s="48"/>
+      <c r="R289" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="S289" s="39"/>
-      <c r="T289" s="39"/>
-      <c r="U289" s="39"/>
-      <c r="V289" s="39"/>
-      <c r="W289" s="39"/>
-      <c r="X289" s="39"/>
-      <c r="Y289" s="39"/>
+      <c r="S289" s="48"/>
+      <c r="T289" s="48"/>
+      <c r="U289" s="48"/>
+      <c r="V289" s="48"/>
+      <c r="W289" s="48"/>
+      <c r="X289" s="48"/>
+      <c r="Y289" s="48"/>
     </row>
     <row r="308" spans="3:17">
       <c r="C308" t="s">
@@ -13162,75 +13203,75 @@
       <c r="D309" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E309" s="41" t="s">
+      <c r="E309" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F309" s="41"/>
+      <c r="F309" s="50"/>
       <c r="G309" s="20" t="s">
         <v>80</v>
       </c>
       <c r="H309" s="20"/>
-      <c r="I309" s="41" t="s">
+      <c r="I309" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="J309" s="41"/>
+      <c r="J309" s="50"/>
     </row>
     <row r="310" spans="3:17">
-      <c r="D310" s="56" t="s">
+      <c r="D310" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E310" s="39" t="s">
+      <c r="E310" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F310" s="39"/>
-      <c r="G310" s="54" t="s">
+      <c r="F310" s="48"/>
+      <c r="G310" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="H310" s="39"/>
-      <c r="I310" s="39" t="s">
+      <c r="H310" s="48"/>
+      <c r="I310" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="J310" s="39"/>
-      <c r="M310" s="62"/>
-      <c r="N310" s="62"/>
-      <c r="O310" s="62"/>
-      <c r="P310" s="62"/>
-      <c r="Q310" s="62"/>
+      <c r="J310" s="48"/>
+      <c r="M310" s="52"/>
+      <c r="N310" s="52"/>
+      <c r="O310" s="52"/>
+      <c r="P310" s="52"/>
+      <c r="Q310" s="52"/>
     </row>
     <row r="311" spans="3:17">
-      <c r="D311" s="56"/>
-      <c r="E311" s="39"/>
-      <c r="F311" s="39"/>
-      <c r="G311" s="39"/>
-      <c r="H311" s="39"/>
-      <c r="I311" s="39"/>
-      <c r="J311" s="39"/>
+      <c r="D311" s="47"/>
+      <c r="E311" s="48"/>
+      <c r="F311" s="48"/>
+      <c r="G311" s="48"/>
+      <c r="H311" s="48"/>
+      <c r="I311" s="48"/>
+      <c r="J311" s="48"/>
     </row>
     <row r="312" spans="3:17">
-      <c r="D312" s="56" t="s">
+      <c r="D312" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E312" s="39">
+      <c r="E312" s="48">
         <v>0</v>
       </c>
-      <c r="F312" s="39"/>
-      <c r="G312" s="39">
+      <c r="F312" s="48"/>
+      <c r="G312" s="48">
         <v>1000</v>
       </c>
-      <c r="H312" s="39"/>
-      <c r="I312" s="39">
+      <c r="H312" s="48"/>
+      <c r="I312" s="48">
         <v>2500</v>
       </c>
-      <c r="J312" s="39"/>
+      <c r="J312" s="48"/>
     </row>
     <row r="313" spans="3:17">
-      <c r="D313" s="56"/>
-      <c r="E313" s="39"/>
-      <c r="F313" s="39"/>
-      <c r="G313" s="39"/>
-      <c r="H313" s="39"/>
-      <c r="I313" s="39"/>
-      <c r="J313" s="39"/>
+      <c r="D313" s="47"/>
+      <c r="E313" s="48"/>
+      <c r="F313" s="48"/>
+      <c r="G313" s="48"/>
+      <c r="H313" s="48"/>
+      <c r="I313" s="48"/>
+      <c r="J313" s="48"/>
     </row>
     <row r="315" spans="3:17">
       <c r="C315" t="s">
@@ -13241,79 +13282,79 @@
       <c r="D317" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E317" s="41" t="s">
+      <c r="E317" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F317" s="41"/>
-      <c r="G317" s="41"/>
-      <c r="H317" s="41"/>
-      <c r="I317" s="41"/>
-      <c r="J317" s="41"/>
+      <c r="F317" s="50"/>
+      <c r="G317" s="50"/>
+      <c r="H317" s="50"/>
+      <c r="I317" s="50"/>
+      <c r="J317" s="50"/>
     </row>
     <row r="318" spans="3:17">
       <c r="D318" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E318" s="39" t="s">
+      <c r="E318" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F318" s="39"/>
-      <c r="G318" s="39"/>
-      <c r="H318" s="39"/>
-      <c r="I318" s="39"/>
-      <c r="J318" s="39"/>
+      <c r="F318" s="48"/>
+      <c r="G318" s="48"/>
+      <c r="H318" s="48"/>
+      <c r="I318" s="48"/>
+      <c r="J318" s="48"/>
     </row>
     <row r="319" spans="3:17">
       <c r="D319" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E319" s="39" t="s">
+      <c r="E319" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="F319" s="39"/>
-      <c r="G319" s="39"/>
-      <c r="H319" s="39"/>
-      <c r="I319" s="39"/>
-      <c r="J319" s="39"/>
+      <c r="F319" s="48"/>
+      <c r="G319" s="48"/>
+      <c r="H319" s="48"/>
+      <c r="I319" s="48"/>
+      <c r="J319" s="48"/>
     </row>
     <row r="320" spans="3:17">
       <c r="D320" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E320" s="39" t="s">
+      <c r="E320" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F320" s="39"/>
-      <c r="G320" s="39"/>
-      <c r="H320" s="39"/>
-      <c r="I320" s="39"/>
-      <c r="J320" s="39"/>
+      <c r="F320" s="48"/>
+      <c r="G320" s="48"/>
+      <c r="H320" s="48"/>
+      <c r="I320" s="48"/>
+      <c r="J320" s="48"/>
     </row>
     <row r="321" spans="2:25">
       <c r="D321" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E321" s="39" t="s">
+      <c r="E321" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="F321" s="39"/>
-      <c r="G321" s="39"/>
-      <c r="H321" s="39"/>
-      <c r="I321" s="39"/>
-      <c r="J321" s="39"/>
+      <c r="F321" s="48"/>
+      <c r="G321" s="48"/>
+      <c r="H321" s="48"/>
+      <c r="I321" s="48"/>
+      <c r="J321" s="48"/>
     </row>
     <row r="322" spans="2:25">
       <c r="D322" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E322" s="39" t="s">
+      <c r="E322" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F322" s="39"/>
-      <c r="G322" s="39"/>
-      <c r="H322" s="39"/>
-      <c r="I322" s="39"/>
-      <c r="J322" s="39"/>
+      <c r="F322" s="48"/>
+      <c r="G322" s="48"/>
+      <c r="H322" s="48"/>
+      <c r="I322" s="48"/>
+      <c r="J322" s="48"/>
     </row>
     <row r="325" spans="2:25" ht="17.25" thickBot="1">
       <c r="B325" s="28"/>
@@ -13395,6 +13436,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="R96:Y96"/>
+    <mergeCell ref="R156:Y156"/>
+    <mergeCell ref="R97:Y97"/>
+    <mergeCell ref="R99:Y99"/>
+    <mergeCell ref="R112:Y112"/>
+    <mergeCell ref="R113:Y113"/>
+    <mergeCell ref="R138:Y138"/>
+    <mergeCell ref="R155:Y155"/>
+    <mergeCell ref="R98:Y98"/>
+    <mergeCell ref="R114:Y114"/>
+    <mergeCell ref="R115:Y115"/>
+    <mergeCell ref="R116:Y116"/>
+    <mergeCell ref="R117:Y117"/>
+    <mergeCell ref="R118:Y118"/>
+    <mergeCell ref="R119:Y119"/>
+    <mergeCell ref="R120:Y120"/>
+    <mergeCell ref="R135:Y135"/>
+    <mergeCell ref="R136:Y136"/>
+    <mergeCell ref="R137:Y137"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P155:Q155"/>
+    <mergeCell ref="P156:Q156"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B1:Y2"/>
+    <mergeCell ref="B4:Y5"/>
+    <mergeCell ref="V8:Y9"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:Y62"/>
+    <mergeCell ref="R63:Y63"/>
+    <mergeCell ref="R64:Y64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="Q34:Y34"/>
+    <mergeCell ref="Q35:Y35"/>
+    <mergeCell ref="R70:Y70"/>
+    <mergeCell ref="R71:Y71"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="R90:Y90"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="R91:Y91"/>
+    <mergeCell ref="R92:Y92"/>
+    <mergeCell ref="R93:Y93"/>
+    <mergeCell ref="R94:Y94"/>
+    <mergeCell ref="R95:Y95"/>
+    <mergeCell ref="R287:Y287"/>
+    <mergeCell ref="R288:Y288"/>
+    <mergeCell ref="R289:Y289"/>
+    <mergeCell ref="E322:J322"/>
+    <mergeCell ref="E321:J321"/>
+    <mergeCell ref="E320:J320"/>
+    <mergeCell ref="E319:J319"/>
+    <mergeCell ref="E318:J318"/>
+    <mergeCell ref="E312:F313"/>
+    <mergeCell ref="G312:H313"/>
+    <mergeCell ref="I312:J313"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="E310:F311"/>
+    <mergeCell ref="G310:H311"/>
+    <mergeCell ref="I309:J309"/>
+    <mergeCell ref="I310:J311"/>
+    <mergeCell ref="E317:J317"/>
+    <mergeCell ref="M310:Q310"/>
+    <mergeCell ref="P287:Q287"/>
+    <mergeCell ref="P288:Q288"/>
+    <mergeCell ref="P289:Q289"/>
     <mergeCell ref="P121:Q121"/>
     <mergeCell ref="R121:Y121"/>
     <mergeCell ref="D312:D313"/>
@@ -13419,103 +13557,6 @@
     <mergeCell ref="C270:D271"/>
     <mergeCell ref="C269:D269"/>
     <mergeCell ref="R286:Y286"/>
-    <mergeCell ref="R287:Y287"/>
-    <mergeCell ref="R288:Y288"/>
-    <mergeCell ref="R289:Y289"/>
-    <mergeCell ref="E322:J322"/>
-    <mergeCell ref="E321:J321"/>
-    <mergeCell ref="E320:J320"/>
-    <mergeCell ref="E319:J319"/>
-    <mergeCell ref="E318:J318"/>
-    <mergeCell ref="E312:F313"/>
-    <mergeCell ref="G312:H313"/>
-    <mergeCell ref="I312:J313"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="E310:F311"/>
-    <mergeCell ref="G310:H311"/>
-    <mergeCell ref="I309:J309"/>
-    <mergeCell ref="I310:J311"/>
-    <mergeCell ref="E317:J317"/>
-    <mergeCell ref="M310:Q310"/>
-    <mergeCell ref="P287:Q287"/>
-    <mergeCell ref="P288:Q288"/>
-    <mergeCell ref="P289:Q289"/>
-    <mergeCell ref="R70:Y70"/>
-    <mergeCell ref="R71:Y71"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="R90:Y90"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="R91:Y91"/>
-    <mergeCell ref="R92:Y92"/>
-    <mergeCell ref="R93:Y93"/>
-    <mergeCell ref="R94:Y94"/>
-    <mergeCell ref="B1:Y2"/>
-    <mergeCell ref="B4:Y5"/>
-    <mergeCell ref="V8:Y9"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:Y62"/>
-    <mergeCell ref="R63:Y63"/>
-    <mergeCell ref="R64:Y64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="Q34:Y34"/>
-    <mergeCell ref="Q35:Y35"/>
-    <mergeCell ref="R95:Y95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P155:Q155"/>
-    <mergeCell ref="P156:Q156"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="R96:Y96"/>
-    <mergeCell ref="R156:Y156"/>
-    <mergeCell ref="R97:Y97"/>
-    <mergeCell ref="R99:Y99"/>
-    <mergeCell ref="R112:Y112"/>
-    <mergeCell ref="R113:Y113"/>
-    <mergeCell ref="R138:Y138"/>
-    <mergeCell ref="R155:Y155"/>
-    <mergeCell ref="R98:Y98"/>
-    <mergeCell ref="R114:Y114"/>
-    <mergeCell ref="R115:Y115"/>
-    <mergeCell ref="R116:Y116"/>
-    <mergeCell ref="R117:Y117"/>
-    <mergeCell ref="R118:Y118"/>
-    <mergeCell ref="R119:Y119"/>
-    <mergeCell ref="R120:Y120"/>
-    <mergeCell ref="R135:Y135"/>
-    <mergeCell ref="R136:Y136"/>
-    <mergeCell ref="R137:Y137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13529,7 +13570,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Y181"/>
+  <dimension ref="B1:Y195"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
@@ -13541,9 +13582,8 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25">
@@ -13599,58 +13639,58 @@
       <c r="Y2" s="24"/>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
     </row>
     <row r="7" spans="2:25" ht="17.25" thickBot="1">
       <c r="B7" s="28"/>
@@ -13679,12 +13719,12 @@
       <c r="Y7" s="28"/>
     </row>
     <row r="8" spans="2:25">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="77" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="17.25" thickBot="1">
-      <c r="B9" s="58"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -13754,197 +13794,182 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="17.25" thickBot="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="2:25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-    </row>
-    <row r="24" spans="2:25" ht="27" thickBot="1">
-      <c r="B24" s="7" t="s">
+    <row r="21" spans="2:25">
+      <c r="B21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="17.25" thickBot="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="2:25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+    </row>
+    <row r="25" spans="2:25" ht="27" thickBot="1">
+      <c r="B25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-    </row>
-    <row r="26" spans="2:25">
-      <c r="B26" s="6" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="27" spans="2:25">
+      <c r="B27" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="2:25" ht="17.25" thickBot="1">
-      <c r="B28" s="23"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-    </row>
-    <row r="31" spans="2:25" ht="27" thickBot="1">
-      <c r="B31" s="7" t="s">
+    <row r="29" spans="2:25" ht="17.25" thickBot="1">
+      <c r="B29" s="23"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="32" spans="2:25" ht="27" thickBot="1">
+      <c r="B32" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-    </row>
-    <row r="32" spans="2:25" ht="26.25">
-      <c r="B32" s="37"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="2:20" ht="17.25">
-      <c r="B33" s="14" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="2:25" ht="26.25">
+      <c r="B33" s="37"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="2:25" ht="17.25">
+      <c r="B34" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="2:20">
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-    </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
@@ -13964,7 +13989,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="2:20">
+    <row r="36" spans="2:25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
@@ -13984,27 +14009,19 @@
       <c r="S36" s="30"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="2:20">
+    <row r="37" spans="2:25">
       <c r="C37" s="30"/>
-      <c r="D37" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="56"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="56"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="K37" s="56"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
       <c r="L37" s="30"/>
-      <c r="M37" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="N37" s="65"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
@@ -14012,27 +14029,27 @@
       <c r="S37" s="30"/>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="2:20">
+    <row r="38" spans="2:25">
       <c r="C38" s="30"/>
-      <c r="D38" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="59"/>
+      <c r="D38" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="47"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38" s="63"/>
+      <c r="G38" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="47"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="K38" s="60"/>
+      <c r="J38" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" s="47"/>
       <c r="L38" s="30"/>
-      <c r="M38" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="N38" s="67"/>
+      <c r="M38" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="N38" s="69"/>
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="30"/>
@@ -14040,27 +14057,27 @@
       <c r="S38" s="30"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:25">
       <c r="C39" s="30"/>
-      <c r="D39" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" s="59"/>
+      <c r="D39" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="67"/>
       <c r="F39" s="30"/>
-      <c r="G39" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="59"/>
+      <c r="G39" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="74"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="K39" s="59"/>
+      <c r="J39" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="K39" s="75"/>
       <c r="L39" s="30"/>
-      <c r="M39" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="N39" s="69"/>
+      <c r="M39" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="N39" s="71"/>
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="30"/>
@@ -14068,27 +14085,27 @@
       <c r="S39" s="30"/>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="2:20">
+    <row r="40" spans="2:25">
       <c r="C40" s="30"/>
-      <c r="D40" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="59"/>
+      <c r="D40" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="67"/>
       <c r="F40" s="30"/>
-      <c r="G40" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="H40" s="60"/>
+      <c r="G40" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" s="67"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="K40" s="59"/>
+      <c r="J40" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="K40" s="67"/>
       <c r="L40" s="30"/>
-      <c r="M40" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="N40" s="69"/>
+      <c r="M40" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="N40" s="73"/>
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="30"/>
@@ -14096,25 +14113,27 @@
       <c r="S40" s="30"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:25">
       <c r="C41" s="30"/>
-      <c r="D41" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="63"/>
+      <c r="D41" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="67"/>
       <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="G41" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="75"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="K41" s="59"/>
+      <c r="J41" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="K41" s="67"/>
       <c r="L41" s="30"/>
-      <c r="M41" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="N41" s="69"/>
+      <c r="M41" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="N41" s="73"/>
       <c r="O41" s="30"/>
       <c r="P41" s="30"/>
       <c r="Q41" s="30"/>
@@ -14122,25 +14141,25 @@
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:25">
       <c r="C42" s="30"/>
-      <c r="D42" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="59"/>
+      <c r="D42" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="74"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
-      <c r="J42" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="K42" s="59"/>
+      <c r="J42" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" s="67"/>
       <c r="L42" s="30"/>
-      <c r="M42" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="N42" s="69"/>
+      <c r="M42" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="N42" s="73"/>
       <c r="O42" s="30"/>
       <c r="P42" s="30"/>
       <c r="Q42" s="30"/>
@@ -14148,21 +14167,25 @@
       <c r="S42" s="30"/>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="2:20">
+    <row r="43" spans="2:25">
       <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
+      <c r="D43" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="67"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
-      <c r="J43" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="K43" s="59"/>
+      <c r="J43" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="K43" s="67"/>
       <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
+      <c r="M43" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="N43" s="73"/>
       <c r="O43" s="30"/>
       <c r="P43" s="30"/>
       <c r="Q43" s="30"/>
@@ -14170,7 +14193,7 @@
       <c r="S43" s="30"/>
       <c r="T43" s="30"/>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
@@ -14178,10 +14201,10 @@
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
-      <c r="J44" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="K44" s="61"/>
+      <c r="J44" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" s="67"/>
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
       <c r="N44" s="30"/>
@@ -14192,7 +14215,7 @@
       <c r="S44" s="30"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:25">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -14200,10 +14223,10 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="K45" s="59"/>
+      <c r="J45" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="K45" s="76"/>
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
       <c r="N45" s="30"/>
@@ -14214,7 +14237,7 @@
       <c r="S45" s="30"/>
       <c r="T45" s="30"/>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
@@ -14222,8 +14245,10 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
+      <c r="J46" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="K46" s="67"/>
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
       <c r="N46" s="30"/>
@@ -14234,7 +14259,7 @@
       <c r="S46" s="30"/>
       <c r="T46" s="30"/>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -14254,1456 +14279,1589 @@
       <c r="S47" s="30"/>
       <c r="T47" s="30"/>
     </row>
-    <row r="49" spans="3:11">
-      <c r="C49" s="29" t="s">
+    <row r="48" spans="2:25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+    </row>
+    <row r="50" spans="3:11">
+      <c r="C50" s="29" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
-      <c r="D50" s="32" t="s">
+    <row r="51" spans="3:11">
+      <c r="D51" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E51" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41" t="s">
+      <c r="F51" s="50"/>
+      <c r="G51" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-    </row>
-    <row r="51" spans="3:11">
-      <c r="D51" s="31">
-        <v>1</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
     </row>
     <row r="52" spans="3:11">
       <c r="D52" s="31">
-        <v>2</v>
-      </c>
-      <c r="E52" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
     </row>
     <row r="53" spans="3:11">
       <c r="D53" s="31">
-        <v>3</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
     </row>
     <row r="54" spans="3:11">
       <c r="D54" s="31">
-        <v>4</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
     </row>
     <row r="55" spans="3:11">
       <c r="D55" s="31">
+        <v>4</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="D56" s="31">
         <v>5</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E56" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39" t="s">
+      <c r="F56" s="48"/>
+      <c r="G56" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-    </row>
-    <row r="57" spans="3:11">
-      <c r="C57" s="29" t="s">
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+    </row>
+    <row r="58" spans="3:11">
+      <c r="C58" s="29" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="3:11">
-      <c r="D58" s="32" t="s">
+    <row r="59" spans="3:11">
+      <c r="D59" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E59" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41" t="s">
+      <c r="F59" s="50"/>
+      <c r="G59" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-    </row>
-    <row r="59" spans="3:11">
-      <c r="D59" s="31">
-        <v>1</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
     </row>
     <row r="60" spans="3:11">
       <c r="D60" s="31">
-        <v>2</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
     </row>
     <row r="61" spans="3:11">
       <c r="D61" s="31">
+        <v>2</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+    </row>
+    <row r="62" spans="3:11">
+      <c r="D62" s="31">
         <v>3</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E62" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="F61" s="31"/>
-      <c r="G61" s="39" t="s">
+      <c r="F62" s="31"/>
+      <c r="G62" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-    </row>
-    <row r="63" spans="3:11">
-      <c r="C63" s="29" t="s">
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+    </row>
+    <row r="64" spans="3:11">
+      <c r="C64" s="29" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="3:11">
-      <c r="D64" s="32" t="s">
+    <row r="65" spans="3:11">
+      <c r="D65" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E64" s="41" t="s">
+      <c r="E65" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41" t="s">
+      <c r="F65" s="50"/>
+      <c r="G65" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-    </row>
-    <row r="65" spans="3:14">
-      <c r="D65" s="31">
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+    </row>
+    <row r="66" spans="3:11">
+      <c r="D66" s="31">
         <v>1</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E66" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39" t="s">
+      <c r="F66" s="48"/>
+      <c r="G66" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-    </row>
-    <row r="66" spans="3:14">
-      <c r="D66" s="31">
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+    </row>
+    <row r="67" spans="3:11">
+      <c r="D67" s="31">
         <v>2</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E67" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39" t="s">
+      <c r="F67" s="48"/>
+      <c r="G67" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-    </row>
-    <row r="67" spans="3:14">
-      <c r="D67" s="31">
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+    </row>
+    <row r="68" spans="3:11">
+      <c r="D68" s="31">
         <v>3</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E68" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39" t="s">
+      <c r="F68" s="48"/>
+      <c r="G68" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-    </row>
-    <row r="68" spans="3:14">
-      <c r="D68" s="31">
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+    </row>
+    <row r="69" spans="3:11">
+      <c r="D69" s="31">
         <v>4</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E69" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39" t="s">
+      <c r="F69" s="48"/>
+      <c r="G69" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-    </row>
-    <row r="69" spans="3:14">
-      <c r="D69" s="31">
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+    </row>
+    <row r="70" spans="3:11">
+      <c r="D70" s="31">
         <v>5</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E70" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39" t="s">
+      <c r="F70" s="48"/>
+      <c r="G70" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-    </row>
-    <row r="70" spans="3:14">
-      <c r="D70" s="31">
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+    </row>
+    <row r="71" spans="3:11">
+      <c r="D71" s="31">
         <v>6</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E71" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39" t="s">
+      <c r="F71" s="48"/>
+      <c r="G71" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-    </row>
-    <row r="71" spans="3:14">
-      <c r="D71" s="31">
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+    </row>
+    <row r="72" spans="3:11">
+      <c r="D72" s="31">
         <v>7</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E72" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39" t="s">
+      <c r="F72" s="48"/>
+      <c r="G72" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-    </row>
-    <row r="72" spans="3:14">
-      <c r="D72" s="33">
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
+    </row>
+    <row r="73" spans="3:11">
+      <c r="D73" s="33">
         <v>8</v>
       </c>
-      <c r="E72" s="39" t="s">
+      <c r="E73" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39" t="s">
+      <c r="F73" s="48"/>
+      <c r="G73" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-    </row>
-    <row r="74" spans="3:14">
-      <c r="C74" s="29" t="s">
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+    </row>
+    <row r="75" spans="3:11">
+      <c r="C75" s="29" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="3:14">
-      <c r="D75" s="32" t="s">
+    <row r="76" spans="3:11">
+      <c r="D76" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E76" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41" t="s">
+      <c r="F76" s="50"/>
+      <c r="G76" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-    </row>
-    <row r="76" spans="3:14">
-      <c r="D76" s="31">
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+    </row>
+    <row r="77" spans="3:11">
+      <c r="D77" s="31">
         <v>1</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E77" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39" t="s">
+      <c r="F77" s="48"/>
+      <c r="G77" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-    </row>
-    <row r="77" spans="3:14">
-      <c r="D77" s="31">
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+    </row>
+    <row r="78" spans="3:11">
+      <c r="D78" s="31">
         <v>2</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E78" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39" t="s">
+      <c r="F78" s="48"/>
+      <c r="G78" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-    </row>
-    <row r="78" spans="3:14">
-      <c r="D78" s="31">
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+    </row>
+    <row r="79" spans="3:11">
+      <c r="D79" s="31">
         <v>3</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E79" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39" t="s">
+      <c r="F79" s="48"/>
+      <c r="G79" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-    </row>
-    <row r="79" spans="3:14">
-      <c r="D79" s="31">
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
+    </row>
+    <row r="80" spans="3:11">
+      <c r="D80" s="31">
         <v>4</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E80" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39" t="s">
+      <c r="F80" s="48"/>
+      <c r="G80" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-    </row>
-    <row r="80" spans="3:14">
-      <c r="D80" s="31">
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+    </row>
+    <row r="81" spans="2:22">
+      <c r="D81" s="31">
         <v>5</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E81" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39" t="s">
+      <c r="F81" s="48"/>
+      <c r="G81" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="N80" s="70"/>
-    </row>
-    <row r="83" spans="2:22" ht="17.25">
-      <c r="B83" s="14" t="s">
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="N81" s="43"/>
+    </row>
+    <row r="84" spans="2:22" ht="17.25">
+      <c r="B84" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="R83" s="6"/>
-    </row>
-    <row r="84" spans="2:22">
-      <c r="C84" t="s">
+      <c r="R84" s="6"/>
+    </row>
+    <row r="85" spans="2:22">
+      <c r="C85" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="2:22">
-      <c r="O85" s="32" t="s">
+    <row r="86" spans="2:22">
+      <c r="O86" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="P85" s="41" t="s">
+      <c r="P86" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="Q85" s="41"/>
-      <c r="R85" s="41" t="s">
+      <c r="Q86" s="50"/>
+      <c r="R86" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="S85" s="41"/>
-      <c r="T85" s="41"/>
-      <c r="U85" s="41"/>
-      <c r="V85" s="41"/>
-    </row>
-    <row r="86" spans="2:22">
-      <c r="O86" s="31">
-        <v>1</v>
-      </c>
-      <c r="P86" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
+      <c r="S86" s="50"/>
+      <c r="T86" s="50"/>
+      <c r="U86" s="50"/>
+      <c r="V86" s="50"/>
     </row>
     <row r="87" spans="2:22">
       <c r="O87" s="31">
-        <v>2</v>
-      </c>
-      <c r="P87" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="P87" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="S87" s="48"/>
+      <c r="T87" s="48"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="48"/>
     </row>
     <row r="88" spans="2:22">
       <c r="O88" s="31">
-        <v>3</v>
-      </c>
-      <c r="P88" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="P88" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="S88" s="48"/>
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="48"/>
     </row>
     <row r="89" spans="2:22">
       <c r="O89" s="31">
-        <v>4</v>
-      </c>
-      <c r="P89" s="72" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q89" s="73"/>
-      <c r="R89" s="72" t="s">
-        <v>303</v>
-      </c>
-      <c r="S89" s="74"/>
-      <c r="T89" s="74"/>
-      <c r="U89" s="74"/>
-      <c r="V89" s="73"/>
+        <v>3</v>
+      </c>
+      <c r="P89" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q89" s="48"/>
+      <c r="R89" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="S89" s="48"/>
+      <c r="T89" s="48"/>
+      <c r="U89" s="48"/>
+      <c r="V89" s="48"/>
     </row>
     <row r="90" spans="2:22">
       <c r="O90" s="31">
-        <v>5</v>
-      </c>
-      <c r="P90" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="P90" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q90" s="45"/>
+      <c r="R90" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="S90" s="46"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="45"/>
     </row>
     <row r="91" spans="2:22">
       <c r="O91" s="31">
-        <v>6</v>
-      </c>
-      <c r="P91" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
+        <v>5</v>
+      </c>
+      <c r="P91" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="S91" s="48"/>
+      <c r="T91" s="48"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="48"/>
     </row>
     <row r="92" spans="2:22">
       <c r="O92" s="31">
-        <v>7</v>
-      </c>
-      <c r="P92" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
+        <v>6</v>
+      </c>
+      <c r="P92" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q92" s="48"/>
+      <c r="R92" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="S92" s="48"/>
+      <c r="T92" s="48"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="48"/>
     </row>
     <row r="93" spans="2:22">
       <c r="O93" s="31">
+        <v>7</v>
+      </c>
+      <c r="P93" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+    </row>
+    <row r="94" spans="2:22">
+      <c r="O94" s="31">
         <v>8</v>
       </c>
-      <c r="P93" s="39" t="s">
+      <c r="P94" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39" t="s">
+      <c r="Q94" s="48"/>
+      <c r="R94" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39"/>
-      <c r="V93" s="39"/>
-    </row>
-    <row r="106" spans="3:22">
-      <c r="C106" t="s">
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="48"/>
+    </row>
+    <row r="107" spans="3:22">
+      <c r="C107" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="3:22">
-      <c r="O107" s="32" t="s">
+    <row r="108" spans="3:22">
+      <c r="O108" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="P107" s="41" t="s">
+      <c r="P108" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="41" t="s">
+      <c r="Q108" s="50"/>
+      <c r="R108" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="S107" s="41"/>
-      <c r="T107" s="41"/>
-      <c r="U107" s="41"/>
-      <c r="V107" s="41"/>
-    </row>
-    <row r="108" spans="3:22">
-      <c r="O108" s="34">
-        <v>1</v>
-      </c>
-      <c r="P108" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q108" s="42"/>
-      <c r="R108" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="S108" s="42"/>
-      <c r="T108" s="42"/>
-      <c r="U108" s="42"/>
-      <c r="V108" s="42"/>
+      <c r="S108" s="50"/>
+      <c r="T108" s="50"/>
+      <c r="U108" s="50"/>
+      <c r="V108" s="50"/>
     </row>
     <row r="109" spans="3:22">
       <c r="O109" s="34">
-        <v>2</v>
-      </c>
-      <c r="P109" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q109" s="42"/>
-      <c r="R109" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="S109" s="42"/>
-      <c r="T109" s="42"/>
-      <c r="U109" s="42"/>
-      <c r="V109" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="P109" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q109" s="53"/>
+      <c r="R109" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="S109" s="53"/>
+      <c r="T109" s="53"/>
+      <c r="U109" s="53"/>
+      <c r="V109" s="53"/>
     </row>
     <row r="110" spans="3:22">
       <c r="O110" s="34">
-        <v>3</v>
-      </c>
-      <c r="P110" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q110" s="42"/>
-      <c r="R110" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="S110" s="42"/>
-      <c r="T110" s="42"/>
-      <c r="U110" s="42"/>
-      <c r="V110" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="P110" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q110" s="53"/>
+      <c r="R110" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="S110" s="53"/>
+      <c r="T110" s="53"/>
+      <c r="U110" s="53"/>
+      <c r="V110" s="53"/>
     </row>
     <row r="111" spans="3:22">
       <c r="O111" s="34">
-        <v>4</v>
-      </c>
-      <c r="P111" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q111" s="42"/>
-      <c r="R111" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="S111" s="42"/>
-      <c r="T111" s="42"/>
-      <c r="U111" s="42"/>
-      <c r="V111" s="42"/>
+        <v>3</v>
+      </c>
+      <c r="P111" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q111" s="53"/>
+      <c r="R111" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="S111" s="53"/>
+      <c r="T111" s="53"/>
+      <c r="U111" s="53"/>
+      <c r="V111" s="53"/>
     </row>
     <row r="112" spans="3:22">
       <c r="O112" s="34">
+        <v>4</v>
+      </c>
+      <c r="P112" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q112" s="53"/>
+      <c r="R112" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="S112" s="53"/>
+      <c r="T112" s="53"/>
+      <c r="U112" s="53"/>
+      <c r="V112" s="53"/>
+    </row>
+    <row r="113" spans="15:22">
+      <c r="O113" s="34">
         <v>5</v>
       </c>
-      <c r="P112" s="42" t="s">
+      <c r="P113" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="Q112" s="42"/>
-      <c r="R112" s="42" t="s">
+      <c r="Q113" s="53"/>
+      <c r="R113" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="S112" s="42"/>
-      <c r="T112" s="42"/>
-      <c r="U112" s="42"/>
-      <c r="V112" s="42"/>
-    </row>
-    <row r="113" spans="2:25">
-      <c r="O113" s="13">
+      <c r="S113" s="53"/>
+      <c r="T113" s="53"/>
+      <c r="U113" s="53"/>
+      <c r="V113" s="53"/>
+    </row>
+    <row r="114" spans="15:22">
+      <c r="O114" s="13">
         <v>6</v>
       </c>
-      <c r="P113" s="42" t="s">
+      <c r="P114" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="42" t="s">
+      <c r="Q114" s="53"/>
+      <c r="R114" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="S113" s="42"/>
-      <c r="T113" s="42"/>
-      <c r="U113" s="42"/>
-      <c r="V113" s="42"/>
-    </row>
-    <row r="114" spans="2:25">
-      <c r="O114" s="13">
+      <c r="S114" s="53"/>
+      <c r="T114" s="53"/>
+      <c r="U114" s="53"/>
+      <c r="V114" s="53"/>
+    </row>
+    <row r="115" spans="15:22">
+      <c r="O115" s="13">
         <v>7</v>
       </c>
-      <c r="P114" s="42" t="s">
+      <c r="P115" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="Q114" s="42"/>
-      <c r="R114" s="42" t="s">
+      <c r="Q115" s="53"/>
+      <c r="R115" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="S114" s="42"/>
-      <c r="T114" s="42"/>
-      <c r="U114" s="42"/>
-      <c r="V114" s="42"/>
-    </row>
-    <row r="115" spans="2:25">
-      <c r="O115" s="13">
+      <c r="S115" s="53"/>
+      <c r="T115" s="53"/>
+      <c r="U115" s="53"/>
+      <c r="V115" s="53"/>
+    </row>
+    <row r="116" spans="15:22">
+      <c r="O116" s="13">
         <v>8</v>
       </c>
-      <c r="P115" s="42" t="s">
+      <c r="P116" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="Q115" s="42"/>
-      <c r="R115" s="42" t="s">
+      <c r="Q116" s="53"/>
+      <c r="R116" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="S115" s="42"/>
-      <c r="T115" s="42"/>
-      <c r="U115" s="42"/>
-      <c r="V115" s="42"/>
-    </row>
-    <row r="120" spans="2:25">
-      <c r="R120" s="6"/>
-    </row>
-    <row r="128" spans="2:25" ht="17.25" thickBot="1">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
-      <c r="V128" s="2"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-    </row>
-    <row r="129" spans="2:25">
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-      <c r="S129" s="1"/>
-      <c r="T129" s="1"/>
-      <c r="U129" s="1"/>
-      <c r="V129" s="1"/>
-    </row>
-    <row r="131" spans="2:25" ht="27" thickBot="1">
-      <c r="B131" s="38" t="s">
+      <c r="S116" s="53"/>
+      <c r="T116" s="53"/>
+      <c r="U116" s="53"/>
+      <c r="V116" s="53"/>
+    </row>
+    <row r="121" spans="15:22">
+      <c r="R121" s="6"/>
+    </row>
+    <row r="129" spans="2:25" ht="17.25" thickBot="1">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+    </row>
+    <row r="130" spans="2:25">
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+    </row>
+    <row r="132" spans="2:25" ht="27" thickBot="1">
+      <c r="B132" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2"/>
-      <c r="V131" s="2"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-    </row>
-    <row r="133" spans="2:25" ht="17.25">
-      <c r="B133" s="14" t="s">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
+    </row>
+    <row r="134" spans="2:25" ht="17.25">
+      <c r="B134" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="2:25">
-      <c r="C134" t="s">
+    <row r="135" spans="2:25">
+      <c r="C135" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="2:25">
-      <c r="D135" t="s">
+    <row r="136" spans="2:25">
+      <c r="D136" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="137" spans="2:25">
-      <c r="C137" t="s">
+    <row r="138" spans="2:25">
+      <c r="C138" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="138" spans="2:25">
-      <c r="D138" s="32" t="s">
+    <row r="139" spans="2:25">
+      <c r="D139" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="E138" s="41" t="s">
+      <c r="E139" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="F138" s="41"/>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41" t="s">
+      <c r="F139" s="50"/>
+      <c r="G139" s="50"/>
+      <c r="H139" s="50"/>
+      <c r="I139" s="50"/>
+      <c r="J139" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="J138" s="41"/>
-      <c r="K138" s="41"/>
-      <c r="L138" s="41"/>
-    </row>
-    <row r="139" spans="2:25">
-      <c r="D139" s="36" t="s">
+      <c r="K139" s="50"/>
+      <c r="L139" s="50"/>
+      <c r="M139" s="50"/>
+    </row>
+    <row r="140" spans="2:25">
+      <c r="D140" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E139" s="39" t="s">
+      <c r="E140" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="F139" s="39"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="39" t="s">
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="48"/>
+      <c r="J140" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="J139" s="39"/>
-      <c r="K139" s="39"/>
-      <c r="L139" s="39"/>
-    </row>
-    <row r="140" spans="2:25">
-      <c r="D140" s="36" t="s">
+      <c r="K140" s="48"/>
+      <c r="L140" s="48"/>
+      <c r="M140" s="48"/>
+    </row>
+    <row r="141" spans="2:25">
+      <c r="D141" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="E140" s="39" t="s">
+      <c r="E141" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="F140" s="39"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39" t="s">
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="48"/>
+      <c r="J141" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="J140" s="39"/>
-      <c r="K140" s="39"/>
-      <c r="L140" s="39"/>
-    </row>
-    <row r="141" spans="2:25">
-      <c r="D141" s="36" t="s">
+      <c r="K141" s="48"/>
+      <c r="L141" s="48"/>
+      <c r="M141" s="48"/>
+    </row>
+    <row r="142" spans="2:25">
+      <c r="D142" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="E141" s="39" t="s">
+      <c r="E142" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="F141" s="39"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="39" t="s">
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
+      <c r="I142" s="48"/>
+      <c r="J142" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="J141" s="39"/>
-      <c r="K141" s="39"/>
-      <c r="L141" s="39"/>
-    </row>
-    <row r="143" spans="2:25">
-      <c r="C143" t="s">
+      <c r="K142" s="48"/>
+      <c r="L142" s="48"/>
+      <c r="M142" s="48"/>
+    </row>
+    <row r="144" spans="2:25">
+      <c r="C144" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="2:25">
-      <c r="D144" s="32" t="s">
+    <row r="145" spans="2:13">
+      <c r="D145" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="E144" s="41" t="s">
+      <c r="E145" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="F144" s="41"/>
-      <c r="G144" s="41"/>
-      <c r="H144" s="41"/>
-      <c r="I144" s="41" t="s">
+      <c r="F145" s="50"/>
+      <c r="G145" s="50"/>
+      <c r="H145" s="50"/>
+      <c r="I145" s="50"/>
+      <c r="J145" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="J144" s="41"/>
-      <c r="K144" s="41"/>
-      <c r="L144" s="41"/>
-    </row>
-    <row r="145" spans="2:12">
-      <c r="D145" s="36" t="s">
+      <c r="K145" s="50"/>
+      <c r="L145" s="50"/>
+      <c r="M145" s="50"/>
+    </row>
+    <row r="146" spans="2:13">
+      <c r="D146" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="E145" s="39" t="s">
+      <c r="E146" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="39" t="s">
+      <c r="F146" s="48"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="48"/>
+      <c r="J146" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="J145" s="39"/>
-      <c r="K145" s="39"/>
-      <c r="L145" s="39"/>
-    </row>
-    <row r="146" spans="2:12">
-      <c r="D146" s="36" t="s">
+      <c r="K146" s="48"/>
+      <c r="L146" s="48"/>
+      <c r="M146" s="48"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="D147" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="E146" s="39" t="s">
+      <c r="E147" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="F146" s="39"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="39" t="s">
+      <c r="F147" s="48"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="48"/>
+      <c r="J147" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="J146" s="39"/>
-      <c r="K146" s="39"/>
-      <c r="L146" s="39"/>
-    </row>
-    <row r="147" spans="2:12">
-      <c r="D147" s="36" t="s">
+      <c r="K147" s="48"/>
+      <c r="L147" s="48"/>
+      <c r="M147" s="48"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="D148" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E147" s="39" t="s">
+      <c r="E148" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="F147" s="39"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="39" t="s">
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="48"/>
+      <c r="J148" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="J147" s="39"/>
-      <c r="K147" s="39"/>
-      <c r="L147" s="39"/>
-    </row>
-    <row r="149" spans="2:12">
-      <c r="C149" t="s">
+      <c r="K148" s="48"/>
+      <c r="L148" s="48"/>
+      <c r="M148" s="48"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="C150" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="150" spans="2:12">
-      <c r="D150" s="32" t="s">
+    <row r="151" spans="2:13">
+      <c r="D151" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="E150" s="41" t="s">
+      <c r="E151" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="F150" s="41"/>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41"/>
-    </row>
-    <row r="151" spans="2:12">
-      <c r="D151" s="36" t="s">
+      <c r="F151" s="50"/>
+      <c r="G151" s="50"/>
+      <c r="H151" s="50"/>
+      <c r="I151" s="50"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="D152" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="E151" s="39" t="s">
+      <c r="E152" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F151" s="71"/>
-      <c r="G151" s="71"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="71"/>
-    </row>
-    <row r="152" spans="2:12">
-      <c r="D152" s="36" t="s">
+      <c r="F152" s="66"/>
+      <c r="G152" s="66"/>
+      <c r="H152" s="66"/>
+      <c r="I152" s="66"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="D153" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="E152" s="39" t="s">
+      <c r="E153" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="F152" s="39"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="39"/>
-      <c r="I152" s="39"/>
-    </row>
-    <row r="153" spans="2:12">
-      <c r="D153" s="36" t="s">
+      <c r="F153" s="48"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="48"/>
+      <c r="I153" s="48"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="D154" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E153" s="39" t="s">
+      <c r="E154" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="F153" s="39"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="39"/>
-      <c r="I153" s="39"/>
-    </row>
-    <row r="156" spans="2:12" ht="17.25">
-      <c r="B156" s="14" t="s">
+      <c r="F154" s="48"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="48"/>
+    </row>
+    <row r="157" spans="2:13" ht="17.25">
+      <c r="B157" s="14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="2:12">
-      <c r="C157" t="s">
+    <row r="158" spans="2:13">
+      <c r="C158" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="158" spans="2:12">
-      <c r="D158" t="s">
+    <row r="159" spans="2:13">
+      <c r="D159" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="160" spans="2:12">
-      <c r="C160" t="s">
+    <row r="161" spans="3:13">
+      <c r="C161" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="3:12">
-      <c r="D161" s="32" t="s">
+    <row r="162" spans="3:13">
+      <c r="D162" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="E161" s="41" t="s">
+      <c r="E162" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="F161" s="41"/>
-      <c r="G161" s="41"/>
-      <c r="H161" s="41"/>
-      <c r="I161" s="41" t="s">
+      <c r="F162" s="50"/>
+      <c r="G162" s="50"/>
+      <c r="H162" s="50"/>
+      <c r="I162" s="50"/>
+      <c r="J162" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="J161" s="41"/>
-      <c r="K161" s="41"/>
-      <c r="L161" s="41"/>
-    </row>
-    <row r="162" spans="3:12">
-      <c r="D162" s="36" t="s">
+      <c r="K162" s="50"/>
+      <c r="L162" s="50"/>
+      <c r="M162" s="50"/>
+    </row>
+    <row r="163" spans="3:13">
+      <c r="D163" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E162" s="39" t="s">
+      <c r="E163" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="F162" s="39"/>
-      <c r="G162" s="39"/>
-      <c r="H162" s="39"/>
-      <c r="I162" s="39" t="s">
+      <c r="F163" s="48"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="48"/>
+      <c r="I163" s="48"/>
+      <c r="J163" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="J162" s="39"/>
-      <c r="K162" s="39"/>
-      <c r="L162" s="39"/>
-    </row>
-    <row r="163" spans="3:12">
-      <c r="D163" s="36" t="s">
+      <c r="K163" s="48"/>
+      <c r="L163" s="48"/>
+      <c r="M163" s="48"/>
+    </row>
+    <row r="164" spans="3:13">
+      <c r="D164" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="E163" s="39" t="s">
+      <c r="E164" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="F163" s="39"/>
-      <c r="G163" s="39"/>
-      <c r="H163" s="39"/>
-      <c r="I163" s="39" t="s">
+      <c r="F164" s="48"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="48"/>
+      <c r="I164" s="48"/>
+      <c r="J164" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="J163" s="39"/>
-      <c r="K163" s="39"/>
-      <c r="L163" s="39"/>
-    </row>
-    <row r="164" spans="3:12">
-      <c r="D164" s="36" t="s">
+      <c r="K164" s="48"/>
+      <c r="L164" s="48"/>
+      <c r="M164" s="48"/>
+    </row>
+    <row r="165" spans="3:13">
+      <c r="D165" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="E164" s="39" t="s">
+      <c r="E165" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="F164" s="39"/>
-      <c r="G164" s="39"/>
-      <c r="H164" s="39"/>
-      <c r="I164" s="39" t="s">
+      <c r="F165" s="48"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="48"/>
+      <c r="I165" s="48"/>
+      <c r="J165" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="J164" s="39"/>
-      <c r="K164" s="39"/>
-      <c r="L164" s="39"/>
-    </row>
-    <row r="166" spans="3:12">
-      <c r="C166" t="s">
+      <c r="K165" s="48"/>
+      <c r="L165" s="48"/>
+      <c r="M165" s="48"/>
+    </row>
+    <row r="167" spans="3:13">
+      <c r="C167" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="167" spans="3:12">
-      <c r="D167" s="32" t="s">
+    <row r="168" spans="3:13">
+      <c r="D168" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E167" s="41" t="s">
+      <c r="E168" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="F167" s="41"/>
-      <c r="G167" s="41"/>
-      <c r="H167" s="41"/>
-      <c r="I167" s="41" t="s">
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="50"/>
+      <c r="I168" s="50"/>
+      <c r="J168" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="J167" s="41"/>
-      <c r="K167" s="41"/>
-      <c r="L167" s="41"/>
-    </row>
-    <row r="168" spans="3:12">
-      <c r="D168" s="36" t="s">
+      <c r="K168" s="50"/>
+      <c r="L168" s="50"/>
+      <c r="M168" s="50"/>
+    </row>
+    <row r="169" spans="3:13">
+      <c r="D169" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="E168" s="31" t="s">
+      <c r="E169" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="31"/>
-      <c r="I168" s="39" t="s">
+      <c r="F169" s="48"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="48"/>
+      <c r="I169" s="48"/>
+      <c r="J169" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="J168" s="39"/>
-      <c r="K168" s="39"/>
-      <c r="L168" s="39"/>
-    </row>
-    <row r="169" spans="3:12">
-      <c r="D169" s="36" t="s">
+      <c r="K169" s="48"/>
+      <c r="L169" s="48"/>
+      <c r="M169" s="48"/>
+    </row>
+    <row r="170" spans="3:13">
+      <c r="D170" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="E169" s="39" t="s">
+      <c r="E170" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="F169" s="39"/>
-      <c r="G169" s="39"/>
-      <c r="H169" s="39"/>
-      <c r="I169" s="39" t="s">
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48"/>
+      <c r="I170" s="48"/>
+      <c r="J170" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="J169" s="39"/>
-      <c r="K169" s="39"/>
-      <c r="L169" s="39"/>
-    </row>
-    <row r="170" spans="3:12">
-      <c r="D170" s="36" t="s">
+      <c r="K170" s="48"/>
+      <c r="L170" s="48"/>
+      <c r="M170" s="48"/>
+    </row>
+    <row r="171" spans="3:13">
+      <c r="D171" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E170" s="39" t="s">
+      <c r="E171" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="F170" s="39"/>
-      <c r="G170" s="39"/>
-      <c r="H170" s="39"/>
-      <c r="I170" s="39" t="s">
+      <c r="F171" s="48"/>
+      <c r="G171" s="48"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="48"/>
+      <c r="J171" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="J170" s="39"/>
-      <c r="K170" s="39"/>
-      <c r="L170" s="39"/>
-    </row>
-    <row r="172" spans="3:12">
-      <c r="C172" t="s">
+      <c r="K171" s="48"/>
+      <c r="L171" s="48"/>
+      <c r="M171" s="48"/>
+    </row>
+    <row r="173" spans="3:13">
+      <c r="C173" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="173" spans="3:12">
-      <c r="D173" s="32" t="s">
+    <row r="174" spans="3:13">
+      <c r="D174" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E173" s="41" t="s">
+      <c r="E174" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="F173" s="41"/>
-      <c r="G173" s="41"/>
-      <c r="H173" s="41"/>
-      <c r="I173" s="41"/>
-    </row>
-    <row r="174" spans="3:12">
-      <c r="D174" s="36" t="s">
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
+      <c r="H174" s="50"/>
+      <c r="I174" s="50"/>
+    </row>
+    <row r="175" spans="3:13">
+      <c r="D175" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="E174" s="31" t="s">
+      <c r="E175" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F174" s="31"/>
-      <c r="G174" s="31"/>
-      <c r="H174" s="31"/>
-      <c r="I174" s="31"/>
-    </row>
-    <row r="175" spans="3:12">
-      <c r="D175" s="36" t="s">
+      <c r="F175" s="31"/>
+      <c r="G175" s="31"/>
+      <c r="H175" s="31"/>
+      <c r="I175" s="31"/>
+    </row>
+    <row r="176" spans="3:13">
+      <c r="D176" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="E175" s="39" t="s">
+      <c r="E176" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="F175" s="39"/>
-      <c r="G175" s="39"/>
-      <c r="H175" s="39"/>
-      <c r="I175" s="39"/>
-    </row>
-    <row r="176" spans="3:12">
-      <c r="D176" s="36" t="s">
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="48"/>
+    </row>
+    <row r="177" spans="2:25">
+      <c r="D177" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E176" s="39" t="s">
+      <c r="E177" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="F176" s="39"/>
-      <c r="G176" s="39"/>
-      <c r="H176" s="39"/>
-      <c r="I176" s="39"/>
-    </row>
-    <row r="178" spans="2:25" ht="17.25" thickBot="1">
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
-      <c r="U178" s="2"/>
-      <c r="V178" s="2"/>
-      <c r="W178" s="2"/>
-      <c r="X178" s="2"/>
-      <c r="Y178" s="2"/>
-    </row>
-    <row r="180" spans="2:25">
-      <c r="B180" s="35"/>
-      <c r="C180" s="35"/>
-      <c r="D180" s="35"/>
-      <c r="E180" s="35"/>
-      <c r="F180" s="35"/>
-      <c r="G180" s="35"/>
-      <c r="H180" s="35"/>
-      <c r="I180" s="35"/>
-      <c r="J180" s="35"/>
-      <c r="K180" s="35"/>
-      <c r="L180" s="35"/>
-      <c r="M180" s="35"/>
-      <c r="N180" s="35"/>
-      <c r="O180" s="35"/>
-      <c r="P180" s="35"/>
-      <c r="Q180" s="35"/>
-      <c r="R180" s="35"/>
-      <c r="S180" s="35"/>
-      <c r="T180" s="35"/>
-      <c r="U180" s="35"/>
-      <c r="V180" s="35"/>
-      <c r="W180" s="35"/>
-      <c r="X180" s="35"/>
-      <c r="Y180" s="35"/>
-    </row>
-    <row r="181" spans="2:25">
-      <c r="B181" s="35"/>
-      <c r="C181" s="35"/>
-      <c r="D181" s="35"/>
-      <c r="E181" s="35"/>
-      <c r="F181" s="35"/>
-      <c r="G181" s="35"/>
-      <c r="H181" s="35"/>
-      <c r="I181" s="35"/>
-      <c r="J181" s="35"/>
-      <c r="K181" s="35"/>
-      <c r="L181" s="35"/>
-      <c r="M181" s="35"/>
-      <c r="N181" s="35"/>
-      <c r="O181" s="35"/>
-      <c r="P181" s="35"/>
-      <c r="Q181" s="35"/>
-      <c r="R181" s="35"/>
-      <c r="S181" s="35"/>
-      <c r="T181" s="35"/>
-      <c r="U181" s="35"/>
-      <c r="V181" s="35"/>
-      <c r="W181" s="35"/>
-      <c r="X181" s="35"/>
-      <c r="Y181" s="35"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="48"/>
+    </row>
+    <row r="179" spans="2:25">
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+    </row>
+    <row r="181" spans="2:25" ht="17.25" thickBot="1">
+      <c r="B181" s="40"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2"/>
+      <c r="V181" s="2"/>
+      <c r="W181" s="2"/>
+      <c r="X181" s="2"/>
+      <c r="Y181" s="2"/>
+    </row>
+    <row r="184" spans="2:25" ht="27" thickBot="1">
+      <c r="B184" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2"/>
+      <c r="V184" s="2"/>
+      <c r="W184" s="2"/>
+      <c r="X184" s="2"/>
+      <c r="Y184" s="2"/>
+    </row>
+    <row r="186" spans="2:25">
+      <c r="B186" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="188" spans="2:25">
+      <c r="C188" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D188" s="39"/>
+    </row>
+    <row r="189" spans="2:25">
+      <c r="C189" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D189" s="48"/>
+      <c r="E189" t="s">
+        <v>328</v>
+      </c>
+      <c r="F189" s="79" t="s">
+        <v>329</v>
+      </c>
+      <c r="G189" s="79"/>
+      <c r="H189" s="79"/>
+      <c r="I189" s="79"/>
+    </row>
+    <row r="190" spans="2:25">
+      <c r="C190" s="48"/>
+      <c r="D190" s="48"/>
+    </row>
+    <row r="192" spans="2:25" ht="17.25" thickBot="1">
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
+      <c r="V192" s="2"/>
+      <c r="W192" s="2"/>
+      <c r="X192" s="2"/>
+      <c r="Y192" s="2"/>
+    </row>
+    <row r="194" spans="2:25">
+      <c r="B194" s="35"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="35"/>
+      <c r="F194" s="35"/>
+      <c r="G194" s="35"/>
+      <c r="H194" s="35"/>
+      <c r="I194" s="35"/>
+      <c r="J194" s="35"/>
+      <c r="K194" s="35"/>
+      <c r="L194" s="35"/>
+      <c r="M194" s="35"/>
+      <c r="N194" s="35"/>
+      <c r="O194" s="35"/>
+      <c r="P194" s="35"/>
+      <c r="Q194" s="35"/>
+      <c r="R194" s="35"/>
+      <c r="S194" s="35"/>
+      <c r="T194" s="35"/>
+      <c r="U194" s="35"/>
+      <c r="V194" s="35"/>
+      <c r="W194" s="35"/>
+      <c r="X194" s="35"/>
+      <c r="Y194" s="35"/>
+    </row>
+    <row r="195" spans="2:25">
+      <c r="B195" s="35"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="35"/>
+      <c r="G195" s="35"/>
+      <c r="H195" s="35"/>
+      <c r="I195" s="35"/>
+      <c r="J195" s="35"/>
+      <c r="K195" s="35"/>
+      <c r="L195" s="35"/>
+      <c r="M195" s="35"/>
+      <c r="N195" s="35"/>
+      <c r="O195" s="35"/>
+      <c r="P195" s="35"/>
+      <c r="Q195" s="35"/>
+      <c r="R195" s="35"/>
+      <c r="S195" s="35"/>
+      <c r="T195" s="35"/>
+      <c r="U195" s="35"/>
+      <c r="V195" s="35"/>
+      <c r="W195" s="35"/>
+      <c r="X195" s="35"/>
+      <c r="Y195" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="150">
-    <mergeCell ref="E173:I173"/>
-    <mergeCell ref="E176:I176"/>
-    <mergeCell ref="E175:I175"/>
+  <mergeCells count="153">
+    <mergeCell ref="C189:D190"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="E140:I140"/>
+    <mergeCell ref="E139:I139"/>
+    <mergeCell ref="E141:I141"/>
+    <mergeCell ref="E142:I142"/>
+    <mergeCell ref="E145:I145"/>
+    <mergeCell ref="E146:I146"/>
+    <mergeCell ref="E147:I147"/>
+    <mergeCell ref="E148:I148"/>
+    <mergeCell ref="E163:I163"/>
+    <mergeCell ref="E162:I162"/>
+    <mergeCell ref="E164:I164"/>
+    <mergeCell ref="E165:I165"/>
+    <mergeCell ref="E168:I168"/>
+    <mergeCell ref="E169:I169"/>
+    <mergeCell ref="E170:I170"/>
+    <mergeCell ref="E171:I171"/>
+    <mergeCell ref="B4:Y5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="R86:V86"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="R93:V93"/>
+    <mergeCell ref="R94:V94"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="R90:V90"/>
+    <mergeCell ref="R87:V87"/>
+    <mergeCell ref="R88:V88"/>
+    <mergeCell ref="R89:V89"/>
+    <mergeCell ref="R91:V91"/>
+    <mergeCell ref="R92:V92"/>
     <mergeCell ref="R113:V113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="R114:V114"/>
-    <mergeCell ref="R115:V115"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="I161:L161"/>
-    <mergeCell ref="I162:L162"/>
-    <mergeCell ref="I163:L163"/>
-    <mergeCell ref="I164:L164"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="I167:L167"/>
-    <mergeCell ref="E169:H169"/>
-    <mergeCell ref="E170:H170"/>
-    <mergeCell ref="I168:L168"/>
-    <mergeCell ref="I169:L169"/>
-    <mergeCell ref="I170:L170"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="E162:H162"/>
-    <mergeCell ref="E163:H163"/>
-    <mergeCell ref="E164:H164"/>
-    <mergeCell ref="E167:H167"/>
-    <mergeCell ref="E151:I151"/>
-    <mergeCell ref="E150:I150"/>
-    <mergeCell ref="E152:I152"/>
-    <mergeCell ref="E153:I153"/>
-    <mergeCell ref="I146:L146"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="I145:L145"/>
-    <mergeCell ref="I147:L147"/>
-    <mergeCell ref="E144:H144"/>
-    <mergeCell ref="E145:H145"/>
-    <mergeCell ref="E146:H146"/>
-    <mergeCell ref="E147:H147"/>
-    <mergeCell ref="E139:H139"/>
-    <mergeCell ref="E138:H138"/>
-    <mergeCell ref="E140:H140"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="I138:L138"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="R112:V112"/>
-    <mergeCell ref="P107:Q107"/>
     <mergeCell ref="P108:Q108"/>
     <mergeCell ref="P109:Q109"/>
     <mergeCell ref="P110:Q110"/>
     <mergeCell ref="P111:Q111"/>
     <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="R107:V107"/>
+    <mergeCell ref="P113:Q113"/>
     <mergeCell ref="R108:V108"/>
     <mergeCell ref="R109:V109"/>
     <mergeCell ref="R110:V110"/>
     <mergeCell ref="R111:V111"/>
-    <mergeCell ref="R92:V92"/>
-    <mergeCell ref="R93:V93"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R112:V112"/>
     <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="R89:V89"/>
-    <mergeCell ref="R86:V86"/>
-    <mergeCell ref="R87:V87"/>
-    <mergeCell ref="R88:V88"/>
-    <mergeCell ref="R90:V90"/>
-    <mergeCell ref="R91:V91"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="R85:V85"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B4:Y5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J168:M168"/>
+    <mergeCell ref="J169:M169"/>
+    <mergeCell ref="J170:M170"/>
+    <mergeCell ref="J171:M171"/>
+    <mergeCell ref="E152:I152"/>
+    <mergeCell ref="E151:I151"/>
+    <mergeCell ref="E153:I153"/>
+    <mergeCell ref="E154:I154"/>
+    <mergeCell ref="J147:M147"/>
+    <mergeCell ref="J145:M145"/>
+    <mergeCell ref="J146:M146"/>
+    <mergeCell ref="J148:M148"/>
+    <mergeCell ref="E174:I174"/>
+    <mergeCell ref="E177:I177"/>
+    <mergeCell ref="E176:I176"/>
+    <mergeCell ref="R114:V114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="R115:V115"/>
+    <mergeCell ref="R116:V116"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="J162:M162"/>
+    <mergeCell ref="J163:M163"/>
+    <mergeCell ref="J164:M164"/>
+    <mergeCell ref="J165:M165"/>
+    <mergeCell ref="J140:M140"/>
+    <mergeCell ref="J139:M139"/>
+    <mergeCell ref="J141:M141"/>
+    <mergeCell ref="J142:M142"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/3.Report/김규하/상점컨셉기획서.xlsx
+++ b/Document/3.Report/김규하/상점컨셉기획서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\바르게살자\Project_GoodLife\Document\3.Report\김규하\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C9FA91-0A86-40F1-9988-620989A42E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="1" r:id="rId1"/>
@@ -1340,8 +1346,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1778,16 +1784,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1796,7 +1793,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1842,6 +1839,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -1892,6 +1898,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1912,7 +1926,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="그림 154" descr="상점_구매.png"/>
+        <xdr:cNvPr id="155" name="그림 154" descr="상점_구매.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1950,7 +1970,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="150" name="그림 149" descr="상점_다중판매.png"/>
+        <xdr:cNvPr id="150" name="그림 149" descr="상점_다중판매.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1988,7 +2014,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="상점_구매.png"/>
+        <xdr:cNvPr id="2" name="그림 1" descr="상점_구매.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2026,7 +2058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2098,7 +2136,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4" descr="상점_구매.png"/>
+        <xdr:cNvPr id="5" name="그림 4" descr="상점_구매.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2136,7 +2180,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="그룹 7"/>
+        <xdr:cNvPr id="8" name="그룹 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2149,7 +2199,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="직사각형 5"/>
+          <xdr:cNvPr id="6" name="직사각형 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2194,7 +2250,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="직사각형 6"/>
+          <xdr:cNvPr id="7" name="직사각형 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2267,7 +2329,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="그룹 11"/>
+        <xdr:cNvPr id="12" name="그룹 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2280,7 +2348,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="직사각형 12"/>
+          <xdr:cNvPr id="13" name="직사각형 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2325,7 +2399,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="직사각형 13"/>
+          <xdr:cNvPr id="14" name="직사각형 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2398,7 +2478,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="그룹 14"/>
+        <xdr:cNvPr id="15" name="그룹 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2411,7 +2497,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="직사각형 15"/>
+          <xdr:cNvPr id="16" name="직사각형 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2456,7 +2548,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="직사각형 16"/>
+          <xdr:cNvPr id="17" name="직사각형 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2529,7 +2627,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="그룹 18"/>
+        <xdr:cNvPr id="19" name="그룹 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2542,7 +2646,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="직사각형 19"/>
+          <xdr:cNvPr id="20" name="직사각형 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2587,7 +2697,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="직사각형 20"/>
+          <xdr:cNvPr id="21" name="직사각형 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2660,7 +2776,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="그룹 29"/>
+        <xdr:cNvPr id="30" name="그룹 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2673,7 +2795,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="직사각형 17"/>
+          <xdr:cNvPr id="18" name="직사각형 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2718,7 +2846,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="직사각형 21"/>
+          <xdr:cNvPr id="22" name="직사각형 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2791,7 +2925,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="그룹 42"/>
+        <xdr:cNvPr id="43" name="그룹 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2804,7 +2944,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="직사각형 43"/>
+          <xdr:cNvPr id="44" name="직사각형 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2849,7 +2995,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="직사각형 44"/>
+          <xdr:cNvPr id="45" name="직사각형 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2922,7 +3074,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="46" name="그룹 45"/>
+        <xdr:cNvPr id="46" name="그룹 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2935,7 +3093,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="직사각형 46"/>
+          <xdr:cNvPr id="47" name="직사각형 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2980,7 +3144,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="직사각형 47"/>
+          <xdr:cNvPr id="48" name="직사각형 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3053,7 +3223,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="그룹 48"/>
+        <xdr:cNvPr id="49" name="그룹 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3066,7 +3242,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="직사각형 49"/>
+          <xdr:cNvPr id="50" name="직사각형 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3111,7 +3293,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="직사각형 50"/>
+          <xdr:cNvPr id="51" name="직사각형 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3184,7 +3372,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="52" name="그룹 51"/>
+        <xdr:cNvPr id="52" name="그룹 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3197,7 +3391,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="직사각형 52"/>
+          <xdr:cNvPr id="53" name="직사각형 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3242,7 +3442,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="직사각형 53"/>
+          <xdr:cNvPr id="54" name="직사각형 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3315,7 +3521,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="60" name="그룹 59"/>
+        <xdr:cNvPr id="60" name="그룹 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3328,7 +3540,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="직사각형 60"/>
+          <xdr:cNvPr id="61" name="직사각형 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3373,7 +3591,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="직사각형 61"/>
+          <xdr:cNvPr id="62" name="직사각형 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3446,7 +3670,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="63" name="그룹 62"/>
+        <xdr:cNvPr id="63" name="그룹 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3459,7 +3689,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="직사각형 63"/>
+          <xdr:cNvPr id="64" name="직사각형 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3504,7 +3740,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="직사각형 64"/>
+          <xdr:cNvPr id="65" name="직사각형 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3577,7 +3819,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="70" name="그룹 69"/>
+        <xdr:cNvPr id="70" name="그룹 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3590,7 +3838,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="직사각형 70"/>
+          <xdr:cNvPr id="71" name="직사각형 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3635,7 +3889,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="직사각형 71"/>
+          <xdr:cNvPr id="72" name="직사각형 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3708,7 +3968,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="73" name="그룹 72"/>
+        <xdr:cNvPr id="73" name="그룹 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3721,7 +3987,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="직사각형 73"/>
+          <xdr:cNvPr id="74" name="직사각형 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3766,7 +4038,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="직사각형 74"/>
+          <xdr:cNvPr id="75" name="직사각형 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3839,7 +4117,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="76" name="그룹 75"/>
+        <xdr:cNvPr id="76" name="그룹 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3852,7 +4136,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="직사각형 76"/>
+          <xdr:cNvPr id="77" name="직사각형 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3897,7 +4187,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="직사각형 77"/>
+          <xdr:cNvPr id="78" name="직사각형 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3970,7 +4266,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="79" name="그룹 78"/>
+        <xdr:cNvPr id="79" name="그룹 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3983,7 +4285,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="직사각형 79"/>
+          <xdr:cNvPr id="80" name="직사각형 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4028,7 +4336,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="직사각형 80"/>
+          <xdr:cNvPr id="81" name="직사각형 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4101,7 +4415,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="82" name="그룹 81"/>
+        <xdr:cNvPr id="82" name="그룹 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4114,7 +4434,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="직사각형 82"/>
+          <xdr:cNvPr id="83" name="직사각형 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4159,7 +4485,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="직사각형 83"/>
+          <xdr:cNvPr id="84" name="직사각형 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4232,7 +4564,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="88" name="그룹 87"/>
+        <xdr:cNvPr id="88" name="그룹 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4245,7 +4583,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="직사각형 88"/>
+          <xdr:cNvPr id="89" name="직사각형 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4290,7 +4634,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="직사각형 89"/>
+          <xdr:cNvPr id="90" name="직사각형 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4363,7 +4713,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="92" name="그룹 91"/>
+        <xdr:cNvPr id="92" name="그룹 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4376,7 +4732,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="직사각형 92"/>
+          <xdr:cNvPr id="93" name="직사각형 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4421,7 +4783,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="직사각형 93"/>
+          <xdr:cNvPr id="94" name="직사각형 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4494,7 +4862,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="98" name="그룹 97"/>
+        <xdr:cNvPr id="98" name="그룹 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4507,7 +4881,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="직사각형 98"/>
+          <xdr:cNvPr id="99" name="직사각형 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4552,7 +4932,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="직사각형 99"/>
+          <xdr:cNvPr id="100" name="직사각형 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4625,7 +5011,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="102" name="그룹 101"/>
+        <xdr:cNvPr id="102" name="그룹 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4638,7 +5030,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="직사각형 102"/>
+          <xdr:cNvPr id="103" name="직사각형 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4683,7 +5081,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="직사각형 103"/>
+          <xdr:cNvPr id="104" name="직사각형 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4756,7 +5160,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="105" name="그룹 104"/>
+        <xdr:cNvPr id="105" name="그룹 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4769,7 +5179,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="직사각형 105"/>
+          <xdr:cNvPr id="106" name="직사각형 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4814,7 +5230,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="직사각형 106"/>
+          <xdr:cNvPr id="107" name="직사각형 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4887,7 +5309,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="108" name="그룹 107"/>
+        <xdr:cNvPr id="108" name="그룹 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4900,7 +5328,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="직사각형 108"/>
+          <xdr:cNvPr id="109" name="직사각형 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4945,7 +5379,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="직사각형 109"/>
+          <xdr:cNvPr id="110" name="직사각형 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5018,7 +5458,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="111" name="그룹 110"/>
+        <xdr:cNvPr id="111" name="그룹 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5031,7 +5477,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="직사각형 111"/>
+          <xdr:cNvPr id="112" name="직사각형 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5076,7 +5528,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="직사각형 112"/>
+          <xdr:cNvPr id="113" name="직사각형 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5149,7 +5607,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="114" name="그룹 113"/>
+        <xdr:cNvPr id="114" name="그룹 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5162,7 +5626,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="직사각형 114"/>
+          <xdr:cNvPr id="115" name="직사각형 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5207,7 +5677,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="직사각형 115"/>
+          <xdr:cNvPr id="116" name="직사각형 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5280,7 +5756,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="117" name="그룹 116"/>
+        <xdr:cNvPr id="117" name="그룹 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5293,7 +5775,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="직사각형 117"/>
+          <xdr:cNvPr id="118" name="직사각형 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5338,7 +5826,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="직사각형 118"/>
+          <xdr:cNvPr id="119" name="직사각형 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5411,7 +5905,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="120" name="그림 119" descr="구매확정탭.png"/>
+        <xdr:cNvPr id="120" name="그림 119" descr="구매확정탭.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5449,7 +5949,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="121" name="그룹 120"/>
+        <xdr:cNvPr id="121" name="그룹 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5462,7 +5968,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="직사각형 121"/>
+          <xdr:cNvPr id="122" name="직사각형 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5507,7 +6019,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="직사각형 122"/>
+          <xdr:cNvPr id="123" name="직사각형 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5580,7 +6098,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="127" name="그룹 126"/>
+        <xdr:cNvPr id="127" name="그룹 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5593,7 +6117,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="128" name="직사각형 127"/>
+          <xdr:cNvPr id="128" name="직사각형 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5638,7 +6168,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="129" name="직사각형 128"/>
+          <xdr:cNvPr id="129" name="직사각형 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5711,7 +6247,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="130" name="그룹 129"/>
+        <xdr:cNvPr id="130" name="그룹 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5724,7 +6266,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="131" name="직사각형 130"/>
+          <xdr:cNvPr id="131" name="직사각형 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5769,7 +6317,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="132" name="직사각형 131"/>
+          <xdr:cNvPr id="132" name="직사각형 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5842,7 +6396,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="그림 132" descr="인벤토리.png"/>
+        <xdr:cNvPr id="133" name="그림 132" descr="인벤토리.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5880,7 +6440,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="134" name="그룹 133"/>
+        <xdr:cNvPr id="134" name="그룹 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5893,7 +6459,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="135" name="직사각형 134"/>
+          <xdr:cNvPr id="135" name="직사각형 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5938,7 +6510,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="136" name="직사각형 135"/>
+          <xdr:cNvPr id="136" name="직사각형 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6011,7 +6589,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="141" name="그룹 140"/>
+        <xdr:cNvPr id="141" name="그룹 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6024,7 +6608,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="142" name="직사각형 141"/>
+          <xdr:cNvPr id="142" name="직사각형 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6069,7 +6659,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="직사각형 142"/>
+          <xdr:cNvPr id="143" name="직사각형 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6142,7 +6738,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="그림 123" descr="10시전.png"/>
+        <xdr:cNvPr id="124" name="그림 123" descr="10시전.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6180,7 +6782,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="그림 124" descr="10시~6시.png"/>
+        <xdr:cNvPr id="125" name="그림 124" descr="10시~6시.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6218,7 +6826,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="144" name="그림 143" descr="8시이후.png"/>
+        <xdr:cNvPr id="144" name="그림 143" descr="8시이후.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6256,7 +6870,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="그림 144" descr="상점_구매.png"/>
+        <xdr:cNvPr id="145" name="그림 144" descr="상점_구매.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6294,7 +6914,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="156" name="그림 155" descr="선물방법.png"/>
+        <xdr:cNvPr id="156" name="그림 155" descr="선물방법.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6332,7 +6958,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="161" name="그룹 160"/>
+        <xdr:cNvPr id="161" name="그룹 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6345,7 +6977,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="157" name="직사각형 156"/>
+          <xdr:cNvPr id="157" name="직사각형 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6390,7 +7028,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="직사각형 159"/>
+          <xdr:cNvPr id="160" name="직사각형 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6463,7 +7107,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="147" name="그룹 146"/>
+        <xdr:cNvPr id="147" name="그룹 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6476,7 +7126,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="158" name="직사각형 157"/>
+          <xdr:cNvPr id="158" name="직사각형 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6521,7 +7177,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="162" name="직사각형 161"/>
+          <xdr:cNvPr id="162" name="직사각형 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6594,7 +7256,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="126" name="그룹 125"/>
+        <xdr:cNvPr id="126" name="그룹 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6607,7 +7275,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="159" name="직사각형 158"/>
+          <xdr:cNvPr id="159" name="직사각형 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6652,7 +7326,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="164" name="직사각형 163"/>
+          <xdr:cNvPr id="164" name="직사각형 163">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6725,7 +7405,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="149" name="그룹 148"/>
+        <xdr:cNvPr id="149" name="그룹 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6738,7 +7424,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="직사각형 2"/>
+          <xdr:cNvPr id="3" name="직사각형 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6783,7 +7475,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="148" name="직사각형 147"/>
+          <xdr:cNvPr id="148" name="직사각형 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6856,7 +7554,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="151" name="그룹 150"/>
+        <xdr:cNvPr id="151" name="그룹 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6869,7 +7573,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="153" name="직사각형 152"/>
+          <xdr:cNvPr id="153" name="직사각형 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6914,7 +7624,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="154" name="직사각형 153"/>
+          <xdr:cNvPr id="154" name="직사각형 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6992,7 +7708,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="그림 82" descr="상점_다중판매.png"/>
+        <xdr:cNvPr id="83" name="그림 82" descr="상점_다중판매.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7030,7 +7752,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="그림 78" descr="상점_구매.png"/>
+        <xdr:cNvPr id="79" name="그림 78" descr="상점_구매.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7068,7 +7796,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="꺾인 연결선 2"/>
+        <xdr:cNvPr id="3" name="꺾인 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7120,7 +7854,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="꺾인 연결선 4"/>
+        <xdr:cNvPr id="5" name="꺾인 연결선 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7175,7 +7915,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="꺾인 연결선 28"/>
+        <xdr:cNvPr id="29" name="꺾인 연결선 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7230,7 +7976,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="그룹 34"/>
+        <xdr:cNvPr id="35" name="그룹 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7243,7 +7995,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="직사각형 32"/>
+          <xdr:cNvPr id="33" name="직사각형 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7288,7 +8046,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="직사각형 33"/>
+          <xdr:cNvPr id="34" name="직사각형 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7361,7 +8125,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="그룹 35"/>
+        <xdr:cNvPr id="36" name="그룹 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7374,7 +8144,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="직사각형 36"/>
+          <xdr:cNvPr id="37" name="직사각형 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7419,7 +8195,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="직사각형 37"/>
+          <xdr:cNvPr id="38" name="직사각형 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7492,7 +8274,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="39" name="그룹 38"/>
+        <xdr:cNvPr id="39" name="그룹 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7505,7 +8293,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="직사각형 39"/>
+          <xdr:cNvPr id="40" name="직사각형 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7550,7 +8344,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="직사각형 40"/>
+          <xdr:cNvPr id="41" name="직사각형 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7623,7 +8423,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="42" name="그룹 41"/>
+        <xdr:cNvPr id="42" name="그룹 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7636,7 +8442,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="직사각형 42"/>
+          <xdr:cNvPr id="43" name="직사각형 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7681,7 +8493,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="직사각형 43"/>
+          <xdr:cNvPr id="44" name="직사각형 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7754,7 +8572,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="그룹 44"/>
+        <xdr:cNvPr id="45" name="그룹 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7767,7 +8591,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="직사각형 45"/>
+          <xdr:cNvPr id="46" name="직사각형 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7812,7 +8642,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="직사각형 46"/>
+          <xdr:cNvPr id="47" name="직사각형 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7885,7 +8721,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="그룹 47"/>
+        <xdr:cNvPr id="48" name="그룹 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7898,7 +8740,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="직사각형 48"/>
+          <xdr:cNvPr id="49" name="직사각형 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7943,7 +8791,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="직사각형 49"/>
+          <xdr:cNvPr id="50" name="직사각형 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8016,7 +8870,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="그룹 50"/>
+        <xdr:cNvPr id="51" name="그룹 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8029,7 +8889,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="직사각형 51"/>
+          <xdr:cNvPr id="52" name="직사각형 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8074,7 +8940,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="직사각형 52"/>
+          <xdr:cNvPr id="53" name="직사각형 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8147,7 +9019,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="58" name="그룹 57"/>
+        <xdr:cNvPr id="58" name="그룹 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8160,7 +9038,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="직사각형 55"/>
+          <xdr:cNvPr id="56" name="직사각형 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8205,7 +9089,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="직사각형 56"/>
+          <xdr:cNvPr id="57" name="직사각형 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8265,25 +9155,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70599</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>60379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>441443</xdr:colOff>
+      <xdr:colOff>643151</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>32501</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="59" name="그룹 58"/>
+        <xdr:cNvPr id="59" name="그룹 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4855509" y="24365938"/>
+          <a:off x="5057217" y="24365938"/>
           <a:ext cx="572552" cy="185034"/>
           <a:chOff x="3552825" y="23660132"/>
           <a:chExt cx="574793" cy="283865"/>
@@ -8291,7 +9187,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="직사각형 59"/>
+          <xdr:cNvPr id="60" name="직사각형 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8336,7 +9238,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="직사각형 60"/>
+          <xdr:cNvPr id="61" name="직사각형 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8396,25 +9304,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>551524</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69673</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>17632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>492515</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10665</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>198840</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="70" name="그룹 69"/>
+        <xdr:cNvPr id="70" name="그룹 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4854583" y="24536103"/>
+          <a:off x="5056291" y="24536103"/>
           <a:ext cx="624550" cy="181208"/>
           <a:chOff x="3552825" y="23660132"/>
           <a:chExt cx="626623" cy="283865"/>
@@ -8422,7 +9336,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="직사각형 70"/>
+          <xdr:cNvPr id="71" name="직사각형 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8467,7 +9387,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="직사각형 71"/>
+          <xdr:cNvPr id="72" name="직사각형 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8540,7 +9466,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="73" name="그룹 72"/>
+        <xdr:cNvPr id="73" name="그룹 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8553,7 +9485,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="직사각형 73"/>
+          <xdr:cNvPr id="74" name="직사각형 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8598,7 +9536,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="직사각형 74"/>
+          <xdr:cNvPr id="75" name="직사각형 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8671,7 +9615,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="76" name="그룹 75"/>
+        <xdr:cNvPr id="76" name="그룹 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8684,7 +9634,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="직사각형 76"/>
+          <xdr:cNvPr id="77" name="직사각형 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8729,7 +9685,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="직사각형 77"/>
+          <xdr:cNvPr id="78" name="직사각형 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8802,7 +9764,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="80" name="그룹 79"/>
+        <xdr:cNvPr id="80" name="그룹 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8815,7 +9783,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="직사각형 80"/>
+          <xdr:cNvPr id="81" name="직사각형 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8860,7 +9834,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="직사각형 81"/>
+          <xdr:cNvPr id="82" name="직사각형 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8933,7 +9913,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="84" name="그룹 83"/>
+        <xdr:cNvPr id="84" name="그룹 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8946,7 +9932,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="직사각형 84"/>
+          <xdr:cNvPr id="85" name="직사각형 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8991,7 +9983,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="직사각형 85"/>
+          <xdr:cNvPr id="86" name="직사각형 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9064,7 +10062,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="90" name="그룹 89"/>
+        <xdr:cNvPr id="90" name="그룹 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -9077,7 +10081,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="직사각형 90"/>
+          <xdr:cNvPr id="91" name="직사각형 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9122,7 +10132,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="직사각형 91"/>
+          <xdr:cNvPr id="92" name="직사각형 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9195,7 +10211,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="93" name="그룹 92"/>
+        <xdr:cNvPr id="93" name="그룹 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -9208,7 +10230,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="직사각형 93"/>
+          <xdr:cNvPr id="94" name="직사각형 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9253,7 +10281,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="직사각형 94"/>
+          <xdr:cNvPr id="95" name="직사각형 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9357,7 +10391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9389,9 +10423,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9423,6 +10475,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9598,17 +10668,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y328"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B293" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D319" sqref="D319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="4" width="9" customWidth="1"/>
@@ -9617,115 +10687,115 @@
     <col min="14" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-    </row>
-    <row r="2" spans="2:25">
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-    </row>
-    <row r="4" spans="2:25">
-      <c r="B4" s="56" t="s">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-    </row>
-    <row r="5" spans="2:25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-    </row>
-    <row r="7" spans="2:25" ht="17.25" thickBot="1"/>
-    <row r="8" spans="2:25">
-      <c r="B8" s="59" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+    </row>
+    <row r="7" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="56" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="3"/>
@@ -9747,13 +10817,13 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-    </row>
-    <row r="9" spans="2:25" ht="17.25" thickBot="1">
-      <c r="B9" s="58"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+    </row>
+    <row r="9" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="55"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -9773,72 +10843,72 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-    </row>
-    <row r="11" spans="2:25">
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:25" ht="17.25" thickBot="1">
+    <row r="25" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9864,7 +10934,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="2:25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -9890,7 +10960,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="2:25" ht="27" thickBot="1">
+    <row r="27" spans="2:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
@@ -9918,281 +10988,281 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="29" spans="2:25" ht="17.25">
+    <row r="29" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="2:25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O34" s="25" t="s">
         <v>72</v>
       </c>
       <c r="P34" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q34" s="60" t="s">
+      <c r="Q34" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="62"/>
-    </row>
-    <row r="35" spans="2:25">
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="59"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O35" s="19">
         <v>1</v>
       </c>
       <c r="P35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" s="63" t="s">
+      <c r="Q35" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="65"/>
-    </row>
-    <row r="36" spans="2:25">
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="62"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="43" spans="2:25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="S43" s="6"/>
     </row>
-    <row r="57" spans="2:25" ht="17.25">
+    <row r="57" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:25">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="2:25">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="2:25">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="2:25">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P62" s="50" t="s">
+      <c r="P62" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="50" t="s">
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="S62" s="50"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="50"/>
-      <c r="V62" s="50"/>
-      <c r="W62" s="50"/>
-      <c r="X62" s="50"/>
-      <c r="Y62" s="50"/>
-    </row>
-    <row r="63" spans="2:25">
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="44"/>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O63" s="12">
         <v>1</v>
       </c>
-      <c r="P63" s="53" t="s">
+      <c r="P63" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53" t="s">
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
-      <c r="Y63" s="53"/>
-    </row>
-    <row r="64" spans="2:25">
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="50"/>
+      <c r="V63" s="50"/>
+      <c r="W63" s="50"/>
+      <c r="X63" s="50"/>
+      <c r="Y63" s="50"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O64" s="12">
         <v>2</v>
       </c>
-      <c r="P64" s="53" t="s">
+      <c r="P64" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q64" s="53"/>
-      <c r="R64" s="53" t="s">
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="53"/>
-      <c r="T64" s="53"/>
-      <c r="U64" s="53"/>
-      <c r="V64" s="53"/>
-      <c r="W64" s="53"/>
-      <c r="X64" s="53"/>
-      <c r="Y64" s="53"/>
-    </row>
-    <row r="65" spans="15:25">
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="50"/>
+      <c r="X64" s="50"/>
+      <c r="Y64" s="50"/>
+    </row>
+    <row r="65" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O65" s="12">
         <v>3</v>
       </c>
-      <c r="P65" s="53" t="s">
+      <c r="P65" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="53" t="s">
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="S65" s="53"/>
-      <c r="T65" s="53"/>
-      <c r="U65" s="53"/>
-      <c r="V65" s="53"/>
-      <c r="W65" s="53"/>
-      <c r="X65" s="53"/>
-      <c r="Y65" s="53"/>
-    </row>
-    <row r="66" spans="15:25">
+      <c r="S65" s="50"/>
+      <c r="T65" s="50"/>
+      <c r="U65" s="50"/>
+      <c r="V65" s="50"/>
+      <c r="W65" s="50"/>
+      <c r="X65" s="50"/>
+      <c r="Y65" s="50"/>
+    </row>
+    <row r="66" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O66" s="12">
         <v>4</v>
       </c>
-      <c r="P66" s="53" t="s">
+      <c r="P66" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="53" t="s">
+      <c r="Q66" s="50"/>
+      <c r="R66" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="S66" s="53"/>
-      <c r="T66" s="53"/>
-      <c r="U66" s="53"/>
-      <c r="V66" s="53"/>
-      <c r="W66" s="53"/>
-      <c r="X66" s="53"/>
-      <c r="Y66" s="53"/>
-    </row>
-    <row r="67" spans="15:25">
+      <c r="S66" s="50"/>
+      <c r="T66" s="50"/>
+      <c r="U66" s="50"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="50"/>
+      <c r="X66" s="50"/>
+      <c r="Y66" s="50"/>
+    </row>
+    <row r="67" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O67" s="12">
         <v>5</v>
       </c>
-      <c r="P67" s="53" t="s">
+      <c r="P67" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="53" t="s">
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="S67" s="53"/>
-      <c r="T67" s="53"/>
-      <c r="U67" s="53"/>
-      <c r="V67" s="53"/>
-      <c r="W67" s="53"/>
-      <c r="X67" s="53"/>
-      <c r="Y67" s="53"/>
-    </row>
-    <row r="68" spans="15:25">
+      <c r="S67" s="50"/>
+      <c r="T67" s="50"/>
+      <c r="U67" s="50"/>
+      <c r="V67" s="50"/>
+      <c r="W67" s="50"/>
+      <c r="X67" s="50"/>
+      <c r="Y67" s="50"/>
+    </row>
+    <row r="68" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O68" s="12">
         <v>6</v>
       </c>
-      <c r="P68" s="53" t="s">
+      <c r="P68" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53" t="s">
+      <c r="Q68" s="50"/>
+      <c r="R68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-      <c r="U68" s="53"/>
-      <c r="V68" s="53"/>
-      <c r="W68" s="53"/>
-      <c r="X68" s="53"/>
-      <c r="Y68" s="53"/>
-    </row>
-    <row r="69" spans="15:25">
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="50"/>
+      <c r="W68" s="50"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+    </row>
+    <row r="69" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O69" s="13">
         <v>7</v>
       </c>
-      <c r="P69" s="53" t="s">
+      <c r="P69" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53" t="s">
+      <c r="Q69" s="50"/>
+      <c r="R69" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
-      <c r="V69" s="53"/>
-      <c r="W69" s="53"/>
-      <c r="X69" s="53"/>
-      <c r="Y69" s="53"/>
-    </row>
-    <row r="70" spans="15:25">
+      <c r="S69" s="50"/>
+      <c r="T69" s="50"/>
+      <c r="U69" s="50"/>
+      <c r="V69" s="50"/>
+      <c r="W69" s="50"/>
+      <c r="X69" s="50"/>
+      <c r="Y69" s="50"/>
+    </row>
+    <row r="70" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O70" s="13">
         <v>8</v>
       </c>
-      <c r="P70" s="53" t="s">
+      <c r="P70" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="53" t="s">
+      <c r="Q70" s="50"/>
+      <c r="R70" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="S70" s="53"/>
-      <c r="T70" s="53"/>
-      <c r="U70" s="53"/>
-      <c r="V70" s="53"/>
-      <c r="W70" s="53"/>
-      <c r="X70" s="53"/>
-      <c r="Y70" s="53"/>
-    </row>
-    <row r="71" spans="15:25">
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="50"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="50"/>
+      <c r="Y70" s="50"/>
+    </row>
+    <row r="71" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O71" s="13">
         <v>9</v>
       </c>
-      <c r="P71" s="53" t="s">
+      <c r="P71" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="53" t="s">
+      <c r="Q71" s="50"/>
+      <c r="R71" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="S71" s="53"/>
-      <c r="T71" s="53"/>
-      <c r="U71" s="53"/>
-      <c r="V71" s="53"/>
-      <c r="W71" s="53"/>
-      <c r="X71" s="53"/>
-      <c r="Y71" s="53"/>
-    </row>
-    <row r="84" spans="2:25" ht="17.25" thickBot="1">
+      <c r="S71" s="50"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="50"/>
+      <c r="V71" s="50"/>
+      <c r="W71" s="50"/>
+      <c r="X71" s="50"/>
+      <c r="Y71" s="50"/>
+    </row>
+    <row r="84" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -10218,7 +11288,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="2:25">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -10244,7 +11314,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="2:25">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -10268,7 +11338,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="2:25" ht="27" thickBot="1">
+    <row r="87" spans="2:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="7" t="s">
         <v>11</v>
       </c>
@@ -10296,7 +11366,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="2:25">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -10320,7 +11390,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="2:25" ht="17.25">
+    <row r="89" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
         <v>46</v>
       </c>
@@ -10346,7 +11416,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="2:25">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -10363,22 +11433,22 @@
       <c r="O90" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P90" s="50" t="s">
+      <c r="P90" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q90" s="50"/>
-      <c r="R90" s="50" t="s">
+      <c r="Q90" s="44"/>
+      <c r="R90" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="S90" s="50"/>
-      <c r="T90" s="50"/>
-      <c r="U90" s="50"/>
-      <c r="V90" s="50"/>
-      <c r="W90" s="50"/>
-      <c r="X90" s="50"/>
-      <c r="Y90" s="50"/>
-    </row>
-    <row r="91" spans="2:25">
+      <c r="S90" s="44"/>
+      <c r="T90" s="44"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="44"/>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="44"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -10395,22 +11465,22 @@
       <c r="O91" s="8">
         <v>1</v>
       </c>
-      <c r="P91" s="48" t="s">
+      <c r="P91" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q91" s="48"/>
-      <c r="R91" s="48" t="s">
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="S91" s="48"/>
-      <c r="T91" s="48"/>
-      <c r="U91" s="48"/>
-      <c r="V91" s="48"/>
-      <c r="W91" s="48"/>
-      <c r="X91" s="48"/>
-      <c r="Y91" s="48"/>
-    </row>
-    <row r="92" spans="2:25">
+      <c r="S91" s="45"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="45"/>
+      <c r="V91" s="45"/>
+      <c r="W91" s="45"/>
+      <c r="X91" s="45"/>
+      <c r="Y91" s="45"/>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -10427,22 +11497,22 @@
       <c r="O92" s="8">
         <v>2</v>
       </c>
-      <c r="P92" s="48" t="s">
+      <c r="P92" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="Q92" s="48"/>
-      <c r="R92" s="48" t="s">
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="S92" s="48"/>
-      <c r="T92" s="48"/>
-      <c r="U92" s="48"/>
-      <c r="V92" s="48"/>
-      <c r="W92" s="48"/>
-      <c r="X92" s="48"/>
-      <c r="Y92" s="48"/>
-    </row>
-    <row r="93" spans="2:25">
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="45"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="45"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -10459,22 +11529,22 @@
       <c r="O93" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P93" s="48" t="s">
+      <c r="P93" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="Q93" s="48"/>
-      <c r="R93" s="48" t="s">
+      <c r="Q93" s="45"/>
+      <c r="R93" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="S93" s="48"/>
-      <c r="T93" s="48"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="48"/>
-      <c r="W93" s="48"/>
-      <c r="X93" s="48"/>
-      <c r="Y93" s="48"/>
-    </row>
-    <row r="94" spans="2:25">
+      <c r="S93" s="45"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="45"/>
+      <c r="V93" s="45"/>
+      <c r="W93" s="45"/>
+      <c r="X93" s="45"/>
+      <c r="Y93" s="45"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -10491,22 +11561,22 @@
       <c r="O94" s="8">
         <v>4</v>
       </c>
-      <c r="P94" s="48" t="s">
+      <c r="P94" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="Q94" s="48"/>
-      <c r="R94" s="48" t="s">
+      <c r="Q94" s="45"/>
+      <c r="R94" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="S94" s="48"/>
-      <c r="T94" s="48"/>
-      <c r="U94" s="48"/>
-      <c r="V94" s="48"/>
-      <c r="W94" s="48"/>
-      <c r="X94" s="48"/>
-      <c r="Y94" s="48"/>
-    </row>
-    <row r="95" spans="2:25">
+      <c r="S94" s="45"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="45"/>
+      <c r="V94" s="45"/>
+      <c r="W94" s="45"/>
+      <c r="X94" s="45"/>
+      <c r="Y94" s="45"/>
+    </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -10523,22 +11593,22 @@
       <c r="O95" s="8">
         <v>5</v>
       </c>
-      <c r="P95" s="54" t="s">
+      <c r="P95" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Q95" s="54"/>
-      <c r="R95" s="54" t="s">
+      <c r="Q95" s="51"/>
+      <c r="R95" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="S95" s="54"/>
-      <c r="T95" s="54"/>
-      <c r="U95" s="54"/>
-      <c r="V95" s="54"/>
-      <c r="W95" s="54"/>
-      <c r="X95" s="54"/>
-      <c r="Y95" s="54"/>
-    </row>
-    <row r="96" spans="2:25">
+      <c r="S95" s="51"/>
+      <c r="T95" s="51"/>
+      <c r="U95" s="51"/>
+      <c r="V95" s="51"/>
+      <c r="W95" s="51"/>
+      <c r="X95" s="51"/>
+      <c r="Y95" s="51"/>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -10555,22 +11625,22 @@
       <c r="O96" s="15">
         <v>6</v>
       </c>
-      <c r="P96" s="48" t="s">
+      <c r="P96" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Q96" s="48"/>
-      <c r="R96" s="54" t="s">
+      <c r="Q96" s="45"/>
+      <c r="R96" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="S96" s="54"/>
-      <c r="T96" s="54"/>
-      <c r="U96" s="54"/>
-      <c r="V96" s="54"/>
-      <c r="W96" s="54"/>
-      <c r="X96" s="54"/>
-      <c r="Y96" s="54"/>
-    </row>
-    <row r="97" spans="2:25">
+      <c r="S96" s="51"/>
+      <c r="T96" s="51"/>
+      <c r="U96" s="51"/>
+      <c r="V96" s="51"/>
+      <c r="W96" s="51"/>
+      <c r="X96" s="51"/>
+      <c r="Y96" s="51"/>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -10587,22 +11657,22 @@
       <c r="O97" s="15">
         <v>7</v>
       </c>
-      <c r="P97" s="48" t="s">
+      <c r="P97" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Q97" s="48"/>
-      <c r="R97" s="54" t="s">
+      <c r="Q97" s="45"/>
+      <c r="R97" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="S97" s="54"/>
-      <c r="T97" s="54"/>
-      <c r="U97" s="54"/>
-      <c r="V97" s="54"/>
-      <c r="W97" s="54"/>
-      <c r="X97" s="54"/>
-      <c r="Y97" s="54"/>
-    </row>
-    <row r="98" spans="2:25">
+      <c r="S97" s="51"/>
+      <c r="T97" s="51"/>
+      <c r="U97" s="51"/>
+      <c r="V97" s="51"/>
+      <c r="W97" s="51"/>
+      <c r="X97" s="51"/>
+      <c r="Y97" s="51"/>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -10619,22 +11689,22 @@
       <c r="O98" s="15">
         <v>8</v>
       </c>
-      <c r="P98" s="48" t="s">
+      <c r="P98" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q98" s="48"/>
-      <c r="R98" s="54" t="s">
+      <c r="Q98" s="45"/>
+      <c r="R98" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="S98" s="54"/>
-      <c r="T98" s="54"/>
-      <c r="U98" s="54"/>
-      <c r="V98" s="54"/>
-      <c r="W98" s="54"/>
-      <c r="X98" s="54"/>
-      <c r="Y98" s="54"/>
-    </row>
-    <row r="99" spans="2:25">
+      <c r="S98" s="51"/>
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="51"/>
+      <c r="W98" s="51"/>
+      <c r="X98" s="51"/>
+      <c r="Y98" s="51"/>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -10651,22 +11721,22 @@
       <c r="O99" s="15">
         <v>9</v>
       </c>
-      <c r="P99" s="54" t="s">
+      <c r="P99" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q99" s="54"/>
-      <c r="R99" s="54" t="s">
+      <c r="Q99" s="51"/>
+      <c r="R99" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="S99" s="54"/>
-      <c r="T99" s="54"/>
-      <c r="U99" s="54"/>
-      <c r="V99" s="54"/>
-      <c r="W99" s="54"/>
-      <c r="X99" s="54"/>
-      <c r="Y99" s="54"/>
-    </row>
-    <row r="100" spans="2:25">
+      <c r="S99" s="51"/>
+      <c r="T99" s="51"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="51"/>
+      <c r="W99" s="51"/>
+      <c r="X99" s="51"/>
+      <c r="Y99" s="51"/>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -10690,7 +11760,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="2:25">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -10714,7 +11784,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="2:25">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -10738,7 +11808,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="2:25">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -10758,7 +11828,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="2:25">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -10778,7 +11848,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="2:25">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -10798,7 +11868,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="2:25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -10818,7 +11888,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="2:25">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -10838,7 +11908,7 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="2:25">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -10862,7 +11932,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="2:25">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -10886,7 +11956,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="2:25">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -10910,7 +11980,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="2:25" ht="17.25">
+    <row r="111" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B111" s="16" t="s">
         <v>38</v>
       </c>
@@ -10936,7 +12006,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="2:25">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -10953,22 +12023,22 @@
       <c r="O112" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P112" s="50" t="s">
+      <c r="P112" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q112" s="50"/>
-      <c r="R112" s="50" t="s">
+      <c r="Q112" s="44"/>
+      <c r="R112" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="S112" s="50"/>
-      <c r="T112" s="50"/>
-      <c r="U112" s="50"/>
-      <c r="V112" s="50"/>
-      <c r="W112" s="50"/>
-      <c r="X112" s="50"/>
-      <c r="Y112" s="50"/>
-    </row>
-    <row r="113" spans="2:25">
+      <c r="S112" s="44"/>
+      <c r="T112" s="44"/>
+      <c r="U112" s="44"/>
+      <c r="V112" s="44"/>
+      <c r="W112" s="44"/>
+      <c r="X112" s="44"/>
+      <c r="Y112" s="44"/>
+    </row>
+    <row r="113" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -10985,22 +12055,22 @@
       <c r="O113" s="31">
         <v>1</v>
       </c>
-      <c r="P113" s="48" t="s">
+      <c r="P113" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="Q113" s="48"/>
-      <c r="R113" s="48" t="s">
+      <c r="Q113" s="45"/>
+      <c r="R113" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="S113" s="48"/>
-      <c r="T113" s="48"/>
-      <c r="U113" s="48"/>
-      <c r="V113" s="48"/>
-      <c r="W113" s="48"/>
-      <c r="X113" s="48"/>
-      <c r="Y113" s="48"/>
-    </row>
-    <row r="114" spans="2:25">
+      <c r="S113" s="45"/>
+      <c r="T113" s="45"/>
+      <c r="U113" s="45"/>
+      <c r="V113" s="45"/>
+      <c r="W113" s="45"/>
+      <c r="X113" s="45"/>
+      <c r="Y113" s="45"/>
+    </row>
+    <row r="114" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -11017,22 +12087,22 @@
       <c r="O114" s="31">
         <v>2</v>
       </c>
-      <c r="P114" s="48" t="s">
+      <c r="P114" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="Q114" s="48"/>
-      <c r="R114" s="48" t="s">
+      <c r="Q114" s="45"/>
+      <c r="R114" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="S114" s="48"/>
-      <c r="T114" s="48"/>
-      <c r="U114" s="48"/>
-      <c r="V114" s="48"/>
-      <c r="W114" s="48"/>
-      <c r="X114" s="48"/>
-      <c r="Y114" s="48"/>
-    </row>
-    <row r="115" spans="2:25">
+      <c r="S114" s="45"/>
+      <c r="T114" s="45"/>
+      <c r="U114" s="45"/>
+      <c r="V114" s="45"/>
+      <c r="W114" s="45"/>
+      <c r="X114" s="45"/>
+      <c r="Y114" s="45"/>
+    </row>
+    <row r="115" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -11049,22 +12119,22 @@
       <c r="O115" s="31">
         <v>3</v>
       </c>
-      <c r="P115" s="48" t="s">
+      <c r="P115" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="Q115" s="48"/>
-      <c r="R115" s="48" t="s">
+      <c r="Q115" s="45"/>
+      <c r="R115" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="S115" s="48"/>
-      <c r="T115" s="48"/>
-      <c r="U115" s="48"/>
-      <c r="V115" s="48"/>
-      <c r="W115" s="48"/>
-      <c r="X115" s="48"/>
-      <c r="Y115" s="48"/>
-    </row>
-    <row r="116" spans="2:25">
+      <c r="S115" s="45"/>
+      <c r="T115" s="45"/>
+      <c r="U115" s="45"/>
+      <c r="V115" s="45"/>
+      <c r="W115" s="45"/>
+      <c r="X115" s="45"/>
+      <c r="Y115" s="45"/>
+    </row>
+    <row r="116" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -11081,22 +12151,22 @@
       <c r="O116" s="31">
         <v>4</v>
       </c>
-      <c r="P116" s="54" t="s">
+      <c r="P116" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="Q116" s="54"/>
-      <c r="R116" s="54" t="s">
+      <c r="Q116" s="51"/>
+      <c r="R116" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="S116" s="54"/>
-      <c r="T116" s="54"/>
-      <c r="U116" s="54"/>
-      <c r="V116" s="54"/>
-      <c r="W116" s="54"/>
-      <c r="X116" s="54"/>
-      <c r="Y116" s="54"/>
-    </row>
-    <row r="117" spans="2:25">
+      <c r="S116" s="51"/>
+      <c r="T116" s="51"/>
+      <c r="U116" s="51"/>
+      <c r="V116" s="51"/>
+      <c r="W116" s="51"/>
+      <c r="X116" s="51"/>
+      <c r="Y116" s="51"/>
+    </row>
+    <row r="117" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -11113,22 +12183,22 @@
       <c r="O117" s="33">
         <v>5</v>
       </c>
-      <c r="P117" s="48" t="s">
+      <c r="P117" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Q117" s="48"/>
-      <c r="R117" s="54" t="s">
+      <c r="Q117" s="45"/>
+      <c r="R117" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="S117" s="54"/>
-      <c r="T117" s="54"/>
-      <c r="U117" s="54"/>
-      <c r="V117" s="54"/>
-      <c r="W117" s="54"/>
-      <c r="X117" s="54"/>
-      <c r="Y117" s="54"/>
-    </row>
-    <row r="118" spans="2:25">
+      <c r="S117" s="51"/>
+      <c r="T117" s="51"/>
+      <c r="U117" s="51"/>
+      <c r="V117" s="51"/>
+      <c r="W117" s="51"/>
+      <c r="X117" s="51"/>
+      <c r="Y117" s="51"/>
+    </row>
+    <row r="118" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -11145,22 +12215,22 @@
       <c r="O118" s="33">
         <v>6</v>
       </c>
-      <c r="P118" s="48" t="s">
+      <c r="P118" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Q118" s="48"/>
-      <c r="R118" s="54" t="s">
+      <c r="Q118" s="45"/>
+      <c r="R118" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="S118" s="54"/>
-      <c r="T118" s="54"/>
-      <c r="U118" s="54"/>
-      <c r="V118" s="54"/>
-      <c r="W118" s="54"/>
-      <c r="X118" s="54"/>
-      <c r="Y118" s="54"/>
-    </row>
-    <row r="119" spans="2:25">
+      <c r="S118" s="51"/>
+      <c r="T118" s="51"/>
+      <c r="U118" s="51"/>
+      <c r="V118" s="51"/>
+      <c r="W118" s="51"/>
+      <c r="X118" s="51"/>
+      <c r="Y118" s="51"/>
+    </row>
+    <row r="119" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -11177,22 +12247,22 @@
       <c r="O119" s="33">
         <v>7</v>
       </c>
-      <c r="P119" s="48" t="s">
+      <c r="P119" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q119" s="48"/>
-      <c r="R119" s="54" t="s">
+      <c r="Q119" s="45"/>
+      <c r="R119" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="S119" s="54"/>
-      <c r="T119" s="54"/>
-      <c r="U119" s="54"/>
-      <c r="V119" s="54"/>
-      <c r="W119" s="54"/>
-      <c r="X119" s="54"/>
-      <c r="Y119" s="54"/>
-    </row>
-    <row r="120" spans="2:25">
+      <c r="S119" s="51"/>
+      <c r="T119" s="51"/>
+      <c r="U119" s="51"/>
+      <c r="V119" s="51"/>
+      <c r="W119" s="51"/>
+      <c r="X119" s="51"/>
+      <c r="Y119" s="51"/>
+    </row>
+    <row r="120" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -11209,22 +12279,22 @@
       <c r="O120" s="33">
         <v>8</v>
       </c>
-      <c r="P120" s="54" t="s">
+      <c r="P120" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q120" s="54"/>
-      <c r="R120" s="54" t="s">
+      <c r="Q120" s="51"/>
+      <c r="R120" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="S120" s="54"/>
-      <c r="T120" s="54"/>
-      <c r="U120" s="54"/>
-      <c r="V120" s="54"/>
-      <c r="W120" s="54"/>
-      <c r="X120" s="54"/>
-      <c r="Y120" s="54"/>
-    </row>
-    <row r="121" spans="2:25">
+      <c r="S120" s="51"/>
+      <c r="T120" s="51"/>
+      <c r="U120" s="51"/>
+      <c r="V120" s="51"/>
+      <c r="W120" s="51"/>
+      <c r="X120" s="51"/>
+      <c r="Y120" s="51"/>
+    </row>
+    <row r="121" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -11241,22 +12311,22 @@
       <c r="O121" s="33">
         <v>9</v>
       </c>
-      <c r="P121" s="44" t="s">
+      <c r="P121" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="Q121" s="45"/>
-      <c r="R121" s="44" t="s">
+      <c r="Q121" s="64"/>
+      <c r="R121" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="S121" s="46"/>
-      <c r="T121" s="46"/>
-      <c r="U121" s="46"/>
-      <c r="V121" s="46"/>
-      <c r="W121" s="46"/>
-      <c r="X121" s="46"/>
-      <c r="Y121" s="45"/>
-    </row>
-    <row r="122" spans="2:25">
+      <c r="S121" s="65"/>
+      <c r="T121" s="65"/>
+      <c r="U121" s="65"/>
+      <c r="V121" s="65"/>
+      <c r="W121" s="65"/>
+      <c r="X121" s="65"/>
+      <c r="Y121" s="64"/>
+    </row>
+    <row r="122" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -11280,7 +12350,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="2:25">
+    <row r="123" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -11304,7 +12374,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="2:25">
+    <row r="124" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -11328,7 +12398,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="2:25">
+    <row r="125" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -11352,7 +12422,7 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="2:25">
+    <row r="126" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -11376,7 +12446,7 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="2:25">
+    <row r="127" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -11400,7 +12470,7 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="2:25">
+    <row r="128" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -11424,7 +12494,7 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="2:25">
+    <row r="129" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -11448,7 +12518,7 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="2:25">
+    <row r="130" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -11472,7 +12542,7 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="2:25">
+    <row r="131" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -11496,7 +12566,7 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="2:25">
+    <row r="132" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -11520,7 +12590,7 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="2:25">
+    <row r="133" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -11544,7 +12614,7 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="2:25" ht="17.25">
+    <row r="134" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B134" s="16" t="s">
         <v>43</v>
       </c>
@@ -11570,7 +12640,7 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="2:25">
+    <row r="135" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -11587,22 +12657,22 @@
       <c r="O135" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P135" s="50" t="s">
+      <c r="P135" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q135" s="50"/>
-      <c r="R135" s="50" t="s">
+      <c r="Q135" s="44"/>
+      <c r="R135" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="S135" s="50"/>
-      <c r="T135" s="50"/>
-      <c r="U135" s="50"/>
-      <c r="V135" s="50"/>
-      <c r="W135" s="50"/>
-      <c r="X135" s="50"/>
-      <c r="Y135" s="50"/>
-    </row>
-    <row r="136" spans="2:25">
+      <c r="S135" s="44"/>
+      <c r="T135" s="44"/>
+      <c r="U135" s="44"/>
+      <c r="V135" s="44"/>
+      <c r="W135" s="44"/>
+      <c r="X135" s="44"/>
+      <c r="Y135" s="44"/>
+    </row>
+    <row r="136" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -11619,22 +12689,22 @@
       <c r="O136" s="9">
         <v>1</v>
       </c>
-      <c r="P136" s="48" t="s">
+      <c r="P136" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="Q136" s="48"/>
-      <c r="R136" s="48" t="s">
+      <c r="Q136" s="45"/>
+      <c r="R136" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="S136" s="48"/>
-      <c r="T136" s="48"/>
-      <c r="U136" s="48"/>
-      <c r="V136" s="48"/>
-      <c r="W136" s="48"/>
-      <c r="X136" s="48"/>
-      <c r="Y136" s="48"/>
-    </row>
-    <row r="137" spans="2:25">
+      <c r="S136" s="45"/>
+      <c r="T136" s="45"/>
+      <c r="U136" s="45"/>
+      <c r="V136" s="45"/>
+      <c r="W136" s="45"/>
+      <c r="X136" s="45"/>
+      <c r="Y136" s="45"/>
+    </row>
+    <row r="137" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -11651,22 +12721,22 @@
       <c r="O137" s="9">
         <v>2</v>
       </c>
-      <c r="P137" s="48" t="s">
+      <c r="P137" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="Q137" s="48"/>
-      <c r="R137" s="48" t="s">
+      <c r="Q137" s="45"/>
+      <c r="R137" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="S137" s="48"/>
-      <c r="T137" s="48"/>
-      <c r="U137" s="48"/>
-      <c r="V137" s="48"/>
-      <c r="W137" s="48"/>
-      <c r="X137" s="48"/>
-      <c r="Y137" s="48"/>
-    </row>
-    <row r="138" spans="2:25">
+      <c r="S137" s="45"/>
+      <c r="T137" s="45"/>
+      <c r="U137" s="45"/>
+      <c r="V137" s="45"/>
+      <c r="W137" s="45"/>
+      <c r="X137" s="45"/>
+      <c r="Y137" s="45"/>
+    </row>
+    <row r="138" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -11683,22 +12753,22 @@
       <c r="O138" s="9">
         <v>3</v>
       </c>
-      <c r="P138" s="48" t="s">
+      <c r="P138" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="Q138" s="48"/>
-      <c r="R138" s="48" t="s">
+      <c r="Q138" s="45"/>
+      <c r="R138" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="S138" s="48"/>
-      <c r="T138" s="48"/>
-      <c r="U138" s="48"/>
-      <c r="V138" s="48"/>
-      <c r="W138" s="48"/>
-      <c r="X138" s="48"/>
-      <c r="Y138" s="48"/>
-    </row>
-    <row r="139" spans="2:25">
+      <c r="S138" s="45"/>
+      <c r="T138" s="45"/>
+      <c r="U138" s="45"/>
+      <c r="V138" s="45"/>
+      <c r="W138" s="45"/>
+      <c r="X138" s="45"/>
+      <c r="Y138" s="45"/>
+    </row>
+    <row r="139" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -11722,7 +12792,7 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="2:25">
+    <row r="140" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -11746,7 +12816,7 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="2:25">
+    <row r="141" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -11770,7 +12840,7 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="2:25">
+    <row r="142" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -11794,7 +12864,7 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="2:25">
+    <row r="143" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -11818,7 +12888,7 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="2:25">
+    <row r="144" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -11842,7 +12912,7 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="2:25">
+    <row r="145" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -11866,7 +12936,7 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="2:25">
+    <row r="146" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -11890,7 +12960,7 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="2:25">
+    <row r="147" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -11914,7 +12984,7 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="2:25">
+    <row r="148" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -11938,7 +13008,7 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="2:25">
+    <row r="149" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -11962,7 +13032,7 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="2:25">
+    <row r="150" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -11986,7 +13056,7 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="2:25">
+    <row r="151" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -12010,7 +13080,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="2:25">
+    <row r="152" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -12034,7 +13104,7 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="2:25">
+    <row r="153" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -12058,7 +13128,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="2:25" ht="17.25">
+    <row r="154" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B154" s="16" t="s">
         <v>49</v>
       </c>
@@ -12084,7 +13154,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="2:25">
+    <row r="155" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -12101,22 +13171,22 @@
       <c r="O155" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="P155" s="50" t="s">
+      <c r="P155" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="Q155" s="50"/>
-      <c r="R155" s="50" t="s">
+      <c r="Q155" s="44"/>
+      <c r="R155" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="S155" s="50"/>
-      <c r="T155" s="50"/>
-      <c r="U155" s="50"/>
-      <c r="V155" s="50"/>
-      <c r="W155" s="50"/>
-      <c r="X155" s="50"/>
-      <c r="Y155" s="50"/>
-    </row>
-    <row r="156" spans="2:25">
+      <c r="S155" s="44"/>
+      <c r="T155" s="44"/>
+      <c r="U155" s="44"/>
+      <c r="V155" s="44"/>
+      <c r="W155" s="44"/>
+      <c r="X155" s="44"/>
+      <c r="Y155" s="44"/>
+    </row>
+    <row r="156" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -12133,22 +13203,22 @@
       <c r="O156" s="9">
         <v>1</v>
       </c>
-      <c r="P156" s="48" t="s">
+      <c r="P156" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="Q156" s="48"/>
-      <c r="R156" s="48" t="s">
+      <c r="Q156" s="45"/>
+      <c r="R156" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="S156" s="48"/>
-      <c r="T156" s="48"/>
-      <c r="U156" s="48"/>
-      <c r="V156" s="48"/>
-      <c r="W156" s="48"/>
-      <c r="X156" s="48"/>
-      <c r="Y156" s="48"/>
-    </row>
-    <row r="157" spans="2:25">
+      <c r="S156" s="45"/>
+      <c r="T156" s="45"/>
+      <c r="U156" s="45"/>
+      <c r="V156" s="45"/>
+      <c r="W156" s="45"/>
+      <c r="X156" s="45"/>
+      <c r="Y156" s="45"/>
+    </row>
+    <row r="157" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -12163,7 +13233,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="2:25">
+    <row r="158" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -12178,7 +13248,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:25">
+    <row r="159" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -12202,7 +13272,7 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="2:25">
+    <row r="160" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -12226,7 +13296,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="2:23">
+    <row r="161" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -12250,7 +13320,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="2:23">
+    <row r="162" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -12274,7 +13344,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="2:23">
+    <row r="163" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -12298,7 +13368,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="2:23">
+    <row r="164" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -12322,7 +13392,7 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" spans="2:23">
+    <row r="165" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -12346,7 +13416,7 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
     </row>
-    <row r="166" spans="2:23">
+    <row r="166" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -12370,7 +13440,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="2:23">
+    <row r="167" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -12394,7 +13464,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="2:23">
+    <row r="168" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -12418,7 +13488,7 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="2:23">
+    <row r="169" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -12442,7 +13512,7 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="2:23">
+    <row r="170" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -12466,7 +13536,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="2:23">
+    <row r="171" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -12490,7 +13560,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="2:23">
+    <row r="172" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -12514,7 +13584,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="2:23">
+    <row r="173" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -12538,7 +13608,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="2:23">
+    <row r="174" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -12562,7 +13632,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="2:23">
+    <row r="175" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -12586,7 +13656,7 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="2:23">
+    <row r="176" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -12610,7 +13680,7 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="2:25">
+    <row r="177" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -12634,7 +13704,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="2:25">
+    <row r="178" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -12658,7 +13728,7 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="2:25">
+    <row r="179" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -12682,7 +13752,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="2:25">
+    <row r="180" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -12706,7 +13776,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="2:25" ht="17.25" thickBot="1">
+    <row r="181" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -12732,7 +13802,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
     </row>
-    <row r="182" spans="2:25">
+    <row r="182" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -12758,7 +13828,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="2:25">
+    <row r="183" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -12784,7 +13854,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="2:25" ht="27" thickBot="1">
+    <row r="184" spans="2:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B184" s="7" t="s">
         <v>113</v>
       </c>
@@ -12812,20 +13882,20 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
     </row>
-    <row r="185" spans="2:25">
+    <row r="185" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="2:25">
+    <row r="186" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B186" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="187" spans="2:25">
+    <row r="187" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="14:15">
+    <row r="199" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N199" t="s">
         <v>89</v>
       </c>
@@ -12833,22 +13903,22 @@
         <v>91</v>
       </c>
     </row>
-    <row r="211" spans="3:14">
+    <row r="211" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="222" spans="3:14">
+    <row r="222" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N222" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="246" spans="14:15">
+    <row r="246" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N246" t="s">
         <v>89</v>
       </c>
@@ -12856,27 +13926,27 @@
         <v>93</v>
       </c>
     </row>
-    <row r="259" spans="2:13">
+    <row r="259" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B259" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="260" spans="2:13">
+    <row r="260" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="261" spans="2:13">
+    <row r="261" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D261" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="2:13">
+    <row r="263" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C263" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="264" spans="2:13">
+    <row r="264" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D264" t="s">
         <v>127</v>
       </c>
@@ -12887,12 +13957,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="266" spans="2:13">
+    <row r="266" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C266" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="267" spans="2:13">
+    <row r="267" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D267" t="s">
         <v>139</v>
       </c>
@@ -12903,460 +13973,460 @@
         <v>142</v>
       </c>
     </row>
-    <row r="269" spans="2:13">
-      <c r="C269" s="50" t="s">
+    <row r="269" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C269" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D269" s="50"/>
-      <c r="E269" s="50" t="s">
+      <c r="D269" s="44"/>
+      <c r="E269" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="F269" s="50"/>
-      <c r="G269" s="50"/>
-      <c r="H269" s="50" t="s">
+      <c r="F269" s="44"/>
+      <c r="G269" s="44"/>
+      <c r="H269" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="I269" s="50"/>
-      <c r="J269" s="50"/>
-      <c r="K269" s="50" t="s">
+      <c r="I269" s="44"/>
+      <c r="J269" s="44"/>
+      <c r="K269" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="L269" s="50"/>
-      <c r="M269" s="50"/>
-    </row>
-    <row r="270" spans="2:13">
-      <c r="C270" s="49" t="s">
+      <c r="L269" s="44"/>
+      <c r="M269" s="44"/>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C270" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D270" s="49"/>
-      <c r="E270" s="48" t="s">
+      <c r="D270" s="46"/>
+      <c r="E270" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="F270" s="48"/>
-      <c r="G270" s="48"/>
-      <c r="H270" s="48" t="s">
+      <c r="F270" s="45"/>
+      <c r="G270" s="45"/>
+      <c r="H270" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="I270" s="48"/>
-      <c r="J270" s="48"/>
-      <c r="K270" s="48" t="s">
+      <c r="I270" s="45"/>
+      <c r="J270" s="45"/>
+      <c r="K270" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="L270" s="48"/>
-      <c r="M270" s="48"/>
-    </row>
-    <row r="271" spans="2:13">
-      <c r="C271" s="49"/>
-      <c r="D271" s="49"/>
-      <c r="E271" s="48"/>
-      <c r="F271" s="48"/>
-      <c r="G271" s="48"/>
-      <c r="H271" s="48"/>
-      <c r="I271" s="48"/>
-      <c r="J271" s="48"/>
-      <c r="K271" s="48"/>
-      <c r="L271" s="48"/>
-      <c r="M271" s="48"/>
-    </row>
-    <row r="272" spans="2:13">
-      <c r="C272" s="49" t="s">
+      <c r="L270" s="45"/>
+      <c r="M270" s="45"/>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C271" s="46"/>
+      <c r="D271" s="46"/>
+      <c r="E271" s="45"/>
+      <c r="F271" s="45"/>
+      <c r="G271" s="45"/>
+      <c r="H271" s="45"/>
+      <c r="I271" s="45"/>
+      <c r="J271" s="45"/>
+      <c r="K271" s="45"/>
+      <c r="L271" s="45"/>
+      <c r="M271" s="45"/>
+    </row>
+    <row r="272" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C272" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="D272" s="49"/>
-      <c r="E272" s="48" t="s">
+      <c r="D272" s="46"/>
+      <c r="E272" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F272" s="48"/>
-      <c r="G272" s="48"/>
-      <c r="H272" s="48"/>
-      <c r="I272" s="48"/>
-      <c r="J272" s="48"/>
-      <c r="K272" s="48"/>
-      <c r="L272" s="48"/>
-      <c r="M272" s="48"/>
-    </row>
-    <row r="273" spans="2:25">
-      <c r="C273" s="49"/>
-      <c r="D273" s="49"/>
-      <c r="E273" s="48"/>
-      <c r="F273" s="48"/>
-      <c r="G273" s="48"/>
-      <c r="H273" s="48"/>
-      <c r="I273" s="48"/>
-      <c r="J273" s="48"/>
-      <c r="K273" s="48"/>
-      <c r="L273" s="48"/>
-      <c r="M273" s="48"/>
-    </row>
-    <row r="274" spans="2:25">
-      <c r="C274" s="49" t="s">
+      <c r="F272" s="45"/>
+      <c r="G272" s="45"/>
+      <c r="H272" s="45"/>
+      <c r="I272" s="45"/>
+      <c r="J272" s="45"/>
+      <c r="K272" s="45"/>
+      <c r="L272" s="45"/>
+      <c r="M272" s="45"/>
+    </row>
+    <row r="273" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C273" s="46"/>
+      <c r="D273" s="46"/>
+      <c r="E273" s="45"/>
+      <c r="F273" s="45"/>
+      <c r="G273" s="45"/>
+      <c r="H273" s="45"/>
+      <c r="I273" s="45"/>
+      <c r="J273" s="45"/>
+      <c r="K273" s="45"/>
+      <c r="L273" s="45"/>
+      <c r="M273" s="45"/>
+    </row>
+    <row r="274" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C274" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D274" s="49"/>
-      <c r="E274" s="48" t="s">
+      <c r="D274" s="46"/>
+      <c r="E274" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="F274" s="48"/>
-      <c r="G274" s="48"/>
-      <c r="H274" s="48"/>
-      <c r="I274" s="48"/>
-      <c r="J274" s="48"/>
-      <c r="K274" s="48"/>
-      <c r="L274" s="48"/>
-      <c r="M274" s="48"/>
-    </row>
-    <row r="275" spans="2:25">
-      <c r="C275" s="49"/>
-      <c r="D275" s="49"/>
-      <c r="E275" s="48"/>
-      <c r="F275" s="48"/>
-      <c r="G275" s="48"/>
-      <c r="H275" s="48"/>
-      <c r="I275" s="48"/>
-      <c r="J275" s="48"/>
-      <c r="K275" s="48"/>
-      <c r="L275" s="48"/>
-      <c r="M275" s="48"/>
-    </row>
-    <row r="276" spans="2:25">
-      <c r="C276" s="49" t="s">
+      <c r="F274" s="45"/>
+      <c r="G274" s="45"/>
+      <c r="H274" s="45"/>
+      <c r="I274" s="45"/>
+      <c r="J274" s="45"/>
+      <c r="K274" s="45"/>
+      <c r="L274" s="45"/>
+      <c r="M274" s="45"/>
+    </row>
+    <row r="275" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C275" s="46"/>
+      <c r="D275" s="46"/>
+      <c r="E275" s="45"/>
+      <c r="F275" s="45"/>
+      <c r="G275" s="45"/>
+      <c r="H275" s="45"/>
+      <c r="I275" s="45"/>
+      <c r="J275" s="45"/>
+      <c r="K275" s="45"/>
+      <c r="L275" s="45"/>
+      <c r="M275" s="45"/>
+    </row>
+    <row r="276" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C276" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D276" s="49"/>
-      <c r="E276" s="48" t="s">
+      <c r="D276" s="46"/>
+      <c r="E276" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="F276" s="48"/>
-      <c r="G276" s="48"/>
-      <c r="H276" s="48"/>
-      <c r="I276" s="48"/>
-      <c r="J276" s="48"/>
-      <c r="K276" s="48"/>
-      <c r="L276" s="48"/>
-      <c r="M276" s="48"/>
-    </row>
-    <row r="277" spans="2:25">
-      <c r="C277" s="49"/>
-      <c r="D277" s="49"/>
-      <c r="E277" s="48"/>
-      <c r="F277" s="48"/>
-      <c r="G277" s="48"/>
-      <c r="H277" s="48"/>
-      <c r="I277" s="48"/>
-      <c r="J277" s="48"/>
-      <c r="K277" s="48"/>
-      <c r="L277" s="48"/>
-      <c r="M277" s="48"/>
-    </row>
-    <row r="278" spans="2:25">
-      <c r="C278" s="49" t="s">
+      <c r="F276" s="45"/>
+      <c r="G276" s="45"/>
+      <c r="H276" s="45"/>
+      <c r="I276" s="45"/>
+      <c r="J276" s="45"/>
+      <c r="K276" s="45"/>
+      <c r="L276" s="45"/>
+      <c r="M276" s="45"/>
+    </row>
+    <row r="277" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C277" s="46"/>
+      <c r="D277" s="46"/>
+      <c r="E277" s="45"/>
+      <c r="F277" s="45"/>
+      <c r="G277" s="45"/>
+      <c r="H277" s="45"/>
+      <c r="I277" s="45"/>
+      <c r="J277" s="45"/>
+      <c r="K277" s="45"/>
+      <c r="L277" s="45"/>
+      <c r="M277" s="45"/>
+    </row>
+    <row r="278" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C278" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D278" s="49"/>
-      <c r="E278" s="48" t="s">
+      <c r="D278" s="46"/>
+      <c r="E278" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="F278" s="48"/>
-      <c r="G278" s="48"/>
-      <c r="H278" s="48"/>
-      <c r="I278" s="48"/>
-      <c r="J278" s="48"/>
-      <c r="K278" s="48"/>
-      <c r="L278" s="48"/>
-      <c r="M278" s="48"/>
-    </row>
-    <row r="279" spans="2:25">
-      <c r="C279" s="49"/>
-      <c r="D279" s="49"/>
-      <c r="E279" s="48"/>
-      <c r="F279" s="48"/>
-      <c r="G279" s="48"/>
-      <c r="H279" s="48"/>
-      <c r="I279" s="48"/>
-      <c r="J279" s="48"/>
-      <c r="K279" s="48"/>
-      <c r="L279" s="48"/>
-      <c r="M279" s="48"/>
-    </row>
-    <row r="280" spans="2:25">
-      <c r="C280" s="49" t="s">
+      <c r="F278" s="45"/>
+      <c r="G278" s="45"/>
+      <c r="H278" s="45"/>
+      <c r="I278" s="45"/>
+      <c r="J278" s="45"/>
+      <c r="K278" s="45"/>
+      <c r="L278" s="45"/>
+      <c r="M278" s="45"/>
+    </row>
+    <row r="279" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C279" s="46"/>
+      <c r="D279" s="46"/>
+      <c r="E279" s="45"/>
+      <c r="F279" s="45"/>
+      <c r="G279" s="45"/>
+      <c r="H279" s="45"/>
+      <c r="I279" s="45"/>
+      <c r="J279" s="45"/>
+      <c r="K279" s="45"/>
+      <c r="L279" s="45"/>
+      <c r="M279" s="45"/>
+    </row>
+    <row r="280" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C280" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D280" s="49"/>
-      <c r="E280" s="48" t="s">
+      <c r="D280" s="46"/>
+      <c r="E280" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="F280" s="48"/>
-      <c r="G280" s="48"/>
-      <c r="H280" s="48"/>
-      <c r="I280" s="48"/>
-      <c r="J280" s="48"/>
-      <c r="K280" s="48"/>
-      <c r="L280" s="48"/>
-      <c r="M280" s="48"/>
-    </row>
-    <row r="281" spans="2:25">
-      <c r="C281" s="49"/>
-      <c r="D281" s="49"/>
-      <c r="E281" s="48"/>
-      <c r="F281" s="48"/>
-      <c r="G281" s="48"/>
-      <c r="H281" s="48"/>
-      <c r="I281" s="48"/>
-      <c r="J281" s="48"/>
-      <c r="K281" s="48"/>
-      <c r="L281" s="48"/>
-      <c r="M281" s="48"/>
-    </row>
-    <row r="283" spans="2:25" ht="17.25">
+      <c r="F280" s="45"/>
+      <c r="G280" s="45"/>
+      <c r="H280" s="45"/>
+      <c r="I280" s="45"/>
+      <c r="J280" s="45"/>
+      <c r="K280" s="45"/>
+      <c r="L280" s="45"/>
+      <c r="M280" s="45"/>
+    </row>
+    <row r="281" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C281" s="46"/>
+      <c r="D281" s="46"/>
+      <c r="E281" s="45"/>
+      <c r="F281" s="45"/>
+      <c r="G281" s="45"/>
+      <c r="H281" s="45"/>
+      <c r="I281" s="45"/>
+      <c r="J281" s="45"/>
+      <c r="K281" s="45"/>
+      <c r="L281" s="45"/>
+      <c r="M281" s="45"/>
+    </row>
+    <row r="283" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B283" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="284" spans="2:25">
+    <row r="284" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C284" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="286" spans="2:25">
+    <row r="286" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O286" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="P286" s="50" t="s">
+      <c r="P286" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="Q286" s="50"/>
-      <c r="R286" s="50" t="s">
+      <c r="Q286" s="44"/>
+      <c r="R286" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="S286" s="50"/>
-      <c r="T286" s="50"/>
-      <c r="U286" s="50"/>
-      <c r="V286" s="50"/>
-      <c r="W286" s="50"/>
-      <c r="X286" s="50"/>
-      <c r="Y286" s="50"/>
-    </row>
-    <row r="287" spans="2:25">
+      <c r="S286" s="44"/>
+      <c r="T286" s="44"/>
+      <c r="U286" s="44"/>
+      <c r="V286" s="44"/>
+      <c r="W286" s="44"/>
+      <c r="X286" s="44"/>
+      <c r="Y286" s="44"/>
+    </row>
+    <row r="287" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O287" s="22">
         <v>1</v>
       </c>
-      <c r="P287" s="48" t="s">
+      <c r="P287" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="Q287" s="48"/>
-      <c r="R287" s="48" t="s">
+      <c r="Q287" s="45"/>
+      <c r="R287" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="S287" s="48"/>
-      <c r="T287" s="48"/>
-      <c r="U287" s="48"/>
-      <c r="V287" s="48"/>
-      <c r="W287" s="48"/>
-      <c r="X287" s="48"/>
-      <c r="Y287" s="48"/>
-    </row>
-    <row r="288" spans="2:25">
+      <c r="S287" s="45"/>
+      <c r="T287" s="45"/>
+      <c r="U287" s="45"/>
+      <c r="V287" s="45"/>
+      <c r="W287" s="45"/>
+      <c r="X287" s="45"/>
+      <c r="Y287" s="45"/>
+    </row>
+    <row r="288" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O288" s="22">
         <v>2</v>
       </c>
-      <c r="P288" s="48" t="s">
+      <c r="P288" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="Q288" s="48"/>
-      <c r="R288" s="48" t="s">
+      <c r="Q288" s="45"/>
+      <c r="R288" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="S288" s="48"/>
-      <c r="T288" s="48"/>
-      <c r="U288" s="48"/>
-      <c r="V288" s="48"/>
-      <c r="W288" s="48"/>
-      <c r="X288" s="48"/>
-      <c r="Y288" s="48"/>
-    </row>
-    <row r="289" spans="15:25">
+      <c r="S288" s="45"/>
+      <c r="T288" s="45"/>
+      <c r="U288" s="45"/>
+      <c r="V288" s="45"/>
+      <c r="W288" s="45"/>
+      <c r="X288" s="45"/>
+      <c r="Y288" s="45"/>
+    </row>
+    <row r="289" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O289" s="22">
         <v>3</v>
       </c>
-      <c r="P289" s="48" t="s">
+      <c r="P289" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="Q289" s="48"/>
-      <c r="R289" s="48" t="s">
+      <c r="Q289" s="45"/>
+      <c r="R289" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="S289" s="48"/>
-      <c r="T289" s="48"/>
-      <c r="U289" s="48"/>
-      <c r="V289" s="48"/>
-      <c r="W289" s="48"/>
-      <c r="X289" s="48"/>
-      <c r="Y289" s="48"/>
-    </row>
-    <row r="308" spans="3:17">
+      <c r="S289" s="45"/>
+      <c r="T289" s="45"/>
+      <c r="U289" s="45"/>
+      <c r="V289" s="45"/>
+      <c r="W289" s="45"/>
+      <c r="X289" s="45"/>
+      <c r="Y289" s="45"/>
+    </row>
+    <row r="308" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C308" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="309" spans="3:17">
+    <row r="309" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D309" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E309" s="50" t="s">
+      <c r="E309" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F309" s="50"/>
+      <c r="F309" s="44"/>
       <c r="G309" s="20" t="s">
         <v>80</v>
       </c>
       <c r="H309" s="20"/>
-      <c r="I309" s="50" t="s">
+      <c r="I309" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="J309" s="50"/>
-    </row>
-    <row r="310" spans="3:17">
+      <c r="J309" s="44"/>
+    </row>
+    <row r="310" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D310" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E310" s="48" t="s">
+      <c r="E310" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F310" s="48"/>
-      <c r="G310" s="51" t="s">
+      <c r="F310" s="45"/>
+      <c r="G310" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="H310" s="48"/>
-      <c r="I310" s="48" t="s">
+      <c r="H310" s="45"/>
+      <c r="I310" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J310" s="48"/>
-      <c r="M310" s="52"/>
-      <c r="N310" s="52"/>
-      <c r="O310" s="52"/>
-      <c r="P310" s="52"/>
-      <c r="Q310" s="52"/>
-    </row>
-    <row r="311" spans="3:17">
+      <c r="J310" s="45"/>
+      <c r="M310" s="49"/>
+      <c r="N310" s="49"/>
+      <c r="O310" s="49"/>
+      <c r="P310" s="49"/>
+      <c r="Q310" s="49"/>
+    </row>
+    <row r="311" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D311" s="47"/>
-      <c r="E311" s="48"/>
-      <c r="F311" s="48"/>
-      <c r="G311" s="48"/>
-      <c r="H311" s="48"/>
-      <c r="I311" s="48"/>
-      <c r="J311" s="48"/>
-    </row>
-    <row r="312" spans="3:17">
+      <c r="E311" s="45"/>
+      <c r="F311" s="45"/>
+      <c r="G311" s="45"/>
+      <c r="H311" s="45"/>
+      <c r="I311" s="45"/>
+      <c r="J311" s="45"/>
+    </row>
+    <row r="312" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D312" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E312" s="48">
+      <c r="E312" s="45">
         <v>0</v>
       </c>
-      <c r="F312" s="48"/>
-      <c r="G312" s="48">
+      <c r="F312" s="45"/>
+      <c r="G312" s="45">
         <v>1000</v>
       </c>
-      <c r="H312" s="48"/>
-      <c r="I312" s="48">
+      <c r="H312" s="45"/>
+      <c r="I312" s="45">
         <v>2500</v>
       </c>
-      <c r="J312" s="48"/>
-    </row>
-    <row r="313" spans="3:17">
+      <c r="J312" s="45"/>
+    </row>
+    <row r="313" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D313" s="47"/>
-      <c r="E313" s="48"/>
-      <c r="F313" s="48"/>
-      <c r="G313" s="48"/>
-      <c r="H313" s="48"/>
-      <c r="I313" s="48"/>
-      <c r="J313" s="48"/>
-    </row>
-    <row r="315" spans="3:17">
+      <c r="E313" s="45"/>
+      <c r="F313" s="45"/>
+      <c r="G313" s="45"/>
+      <c r="H313" s="45"/>
+      <c r="I313" s="45"/>
+      <c r="J313" s="45"/>
+    </row>
+    <row r="315" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C315" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="317" spans="3:17">
+    <row r="317" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D317" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E317" s="50" t="s">
+      <c r="E317" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F317" s="50"/>
-      <c r="G317" s="50"/>
-      <c r="H317" s="50"/>
-      <c r="I317" s="50"/>
-      <c r="J317" s="50"/>
-    </row>
-    <row r="318" spans="3:17">
+      <c r="F317" s="44"/>
+      <c r="G317" s="44"/>
+      <c r="H317" s="44"/>
+      <c r="I317" s="44"/>
+      <c r="J317" s="44"/>
+    </row>
+    <row r="318" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D318" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E318" s="48" t="s">
+      <c r="E318" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="F318" s="48"/>
-      <c r="G318" s="48"/>
-      <c r="H318" s="48"/>
-      <c r="I318" s="48"/>
-      <c r="J318" s="48"/>
-    </row>
-    <row r="319" spans="3:17">
+      <c r="F318" s="45"/>
+      <c r="G318" s="45"/>
+      <c r="H318" s="45"/>
+      <c r="I318" s="45"/>
+      <c r="J318" s="45"/>
+    </row>
+    <row r="319" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D319" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E319" s="48" t="s">
+      <c r="E319" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="F319" s="48"/>
-      <c r="G319" s="48"/>
-      <c r="H319" s="48"/>
-      <c r="I319" s="48"/>
-      <c r="J319" s="48"/>
-    </row>
-    <row r="320" spans="3:17">
+      <c r="F319" s="45"/>
+      <c r="G319" s="45"/>
+      <c r="H319" s="45"/>
+      <c r="I319" s="45"/>
+      <c r="J319" s="45"/>
+    </row>
+    <row r="320" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D320" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E320" s="48" t="s">
+      <c r="E320" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="F320" s="48"/>
-      <c r="G320" s="48"/>
-      <c r="H320" s="48"/>
-      <c r="I320" s="48"/>
-      <c r="J320" s="48"/>
-    </row>
-    <row r="321" spans="2:25">
+      <c r="F320" s="45"/>
+      <c r="G320" s="45"/>
+      <c r="H320" s="45"/>
+      <c r="I320" s="45"/>
+      <c r="J320" s="45"/>
+    </row>
+    <row r="321" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D321" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E321" s="48" t="s">
+      <c r="E321" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="F321" s="48"/>
-      <c r="G321" s="48"/>
-      <c r="H321" s="48"/>
-      <c r="I321" s="48"/>
-      <c r="J321" s="48"/>
-    </row>
-    <row r="322" spans="2:25">
+      <c r="F321" s="45"/>
+      <c r="G321" s="45"/>
+      <c r="H321" s="45"/>
+      <c r="I321" s="45"/>
+      <c r="J321" s="45"/>
+    </row>
+    <row r="322" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D322" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E322" s="48" t="s">
+      <c r="E322" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F322" s="48"/>
-      <c r="G322" s="48"/>
-      <c r="H322" s="48"/>
-      <c r="I322" s="48"/>
-      <c r="J322" s="48"/>
-    </row>
-    <row r="325" spans="2:25" ht="17.25" thickBot="1">
+      <c r="F322" s="45"/>
+      <c r="G322" s="45"/>
+      <c r="H322" s="45"/>
+      <c r="I322" s="45"/>
+      <c r="J322" s="45"/>
+    </row>
+    <row r="325" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B325" s="28"/>
       <c r="C325" s="28"/>
       <c r="D325" s="28"/>
@@ -13382,7 +14452,7 @@
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
     </row>
-    <row r="327" spans="2:25">
+    <row r="327" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B327" s="24"/>
       <c r="C327" s="24"/>
       <c r="D327" s="24"/>
@@ -13408,7 +14478,7 @@
       <c r="X327" s="24"/>
       <c r="Y327" s="24"/>
     </row>
-    <row r="328" spans="2:25">
+    <row r="328" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B328" s="24"/>
       <c r="C328" s="24"/>
       <c r="D328" s="24"/>
@@ -13455,6 +14525,7 @@
     <mergeCell ref="R135:Y135"/>
     <mergeCell ref="R136:Y136"/>
     <mergeCell ref="R137:Y137"/>
+    <mergeCell ref="R121:Y121"/>
     <mergeCell ref="P96:Q96"/>
     <mergeCell ref="P97:Q97"/>
     <mergeCell ref="P98:Q98"/>
@@ -13476,6 +14547,7 @@
     <mergeCell ref="P119:Q119"/>
     <mergeCell ref="P114:Q114"/>
     <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="P121:Q121"/>
     <mergeCell ref="B1:Y2"/>
     <mergeCell ref="B4:Y5"/>
     <mergeCell ref="V8:Y9"/>
@@ -13533,8 +14605,6 @@
     <mergeCell ref="P287:Q287"/>
     <mergeCell ref="P288:Q288"/>
     <mergeCell ref="P289:Q289"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="R121:Y121"/>
     <mergeCell ref="D312:D313"/>
     <mergeCell ref="D310:D311"/>
     <mergeCell ref="E278:M279"/>
@@ -13547,6 +14617,7 @@
     <mergeCell ref="C276:D277"/>
     <mergeCell ref="C274:D275"/>
     <mergeCell ref="C272:D273"/>
+    <mergeCell ref="R286:Y286"/>
     <mergeCell ref="E270:G271"/>
     <mergeCell ref="E269:G269"/>
     <mergeCell ref="H269:J269"/>
@@ -13556,7 +14627,6 @@
     <mergeCell ref="P286:Q286"/>
     <mergeCell ref="C270:D271"/>
     <mergeCell ref="C269:D269"/>
-    <mergeCell ref="R286:Y286"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13569,24 +14639,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Y195"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -13612,7 +14682,7 @@
       <c r="X1" s="24"/>
       <c r="Y1" s="24"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -13638,61 +14708,61 @@
       <c r="X2" s="24"/>
       <c r="Y2" s="24"/>
     </row>
-    <row r="4" spans="2:25">
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-    </row>
-    <row r="5" spans="2:25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-    </row>
-    <row r="7" spans="2:25" ht="17.25" thickBot="1">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+    </row>
+    <row r="7" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -13718,12 +14788,12 @@
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
     </row>
-    <row r="8" spans="2:25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="77" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="17.25" thickBot="1">
+    <row r="9" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="78"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -13749,57 +14819,57 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="11" spans="2:25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="2:25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="2:25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="2:25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="2:25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="2:25">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="2:25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="2:25" ht="17.25" thickBot="1">
+    <row r="22" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -13825,7 +14895,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -13851,7 +14921,7 @@
       <c r="X23" s="29"/>
       <c r="Y23" s="29"/>
     </row>
-    <row r="25" spans="2:25" ht="27" thickBot="1">
+    <row r="25" spans="2:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>152</v>
       </c>
@@ -13879,12 +14949,12 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="27" spans="2:25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="2:25" ht="17.25" thickBot="1">
+    <row r="29" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="23"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -13910,7 +14980,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="32" spans="2:25" ht="27" thickBot="1">
+    <row r="32" spans="2:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7" t="s">
         <v>156</v>
       </c>
@@ -13938,7 +15008,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" ht="26.25">
+    <row r="33" spans="2:25" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B33" s="37"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -13964,12 +15034,12 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" ht="17.25">
+    <row r="34" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
@@ -13989,7 +15059,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
@@ -14009,7 +15079,7 @@
       <c r="S36" s="30"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="2:25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
@@ -14029,7 +15099,7 @@
       <c r="S37" s="30"/>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="2:25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C38" s="30"/>
       <c r="D38" s="47" t="s">
         <v>170</v>
@@ -14057,7 +15127,7 @@
       <c r="S38" s="30"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="2:25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C39" s="30"/>
       <c r="D39" s="67" t="s">
         <v>158</v>
@@ -14085,7 +15155,7 @@
       <c r="S39" s="30"/>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="2:25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C40" s="30"/>
       <c r="D40" s="67" t="s">
         <v>159</v>
@@ -14113,7 +15183,7 @@
       <c r="S40" s="30"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="2:25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C41" s="30"/>
       <c r="D41" s="67" t="s">
         <v>198</v>
@@ -14141,7 +15211,7 @@
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" spans="2:25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C42" s="30"/>
       <c r="D42" s="74" t="s">
         <v>157</v>
@@ -14167,7 +15237,7 @@
       <c r="S42" s="30"/>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="2:25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C43" s="30"/>
       <c r="D43" s="67" t="s">
         <v>160</v>
@@ -14193,7 +15263,7 @@
       <c r="S43" s="30"/>
       <c r="T43" s="30"/>
     </row>
-    <row r="44" spans="2:25">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
@@ -14215,7 +15285,7 @@
       <c r="S44" s="30"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="2:25">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -14237,7 +15307,7 @@
       <c r="S45" s="30"/>
       <c r="T45" s="30"/>
     </row>
-    <row r="46" spans="2:25">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
@@ -14259,7 +15329,7 @@
       <c r="S46" s="30"/>
       <c r="T46" s="30"/>
     </row>
-    <row r="47" spans="2:25">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -14279,7 +15349,7 @@
       <c r="S47" s="30"/>
       <c r="T47" s="30"/>
     </row>
-    <row r="48" spans="2:25">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
@@ -14299,161 +15369,161 @@
       <c r="S48" s="30"/>
       <c r="T48" s="30"/>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="29" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="3:11">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D51" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50" t="s">
+      <c r="F51" s="44"/>
+      <c r="G51" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-    </row>
-    <row r="52" spans="3:11">
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D52" s="31">
         <v>1</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48" t="s">
+      <c r="F52" s="45"/>
+      <c r="G52" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-    </row>
-    <row r="53" spans="3:11">
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D53" s="31">
         <v>2</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48" t="s">
+      <c r="F53" s="45"/>
+      <c r="G53" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-    </row>
-    <row r="54" spans="3:11">
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D54" s="31">
         <v>3</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48" t="s">
+      <c r="F54" s="45"/>
+      <c r="G54" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-    </row>
-    <row r="55" spans="3:11">
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D55" s="31">
         <v>4</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48" t="s">
+      <c r="F55" s="45"/>
+      <c r="G55" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-    </row>
-    <row r="56" spans="3:11">
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D56" s="31">
         <v>5</v>
       </c>
-      <c r="E56" s="48" t="s">
+      <c r="E56" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48" t="s">
+      <c r="F56" s="45"/>
+      <c r="G56" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-    </row>
-    <row r="58" spans="3:11">
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="29" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="3:11">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D59" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50" t="s">
+      <c r="F59" s="44"/>
+      <c r="G59" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-    </row>
-    <row r="60" spans="3:11">
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D60" s="31">
         <v>1</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48" t="s">
+      <c r="F60" s="45"/>
+      <c r="G60" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-    </row>
-    <row r="61" spans="3:11">
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D61" s="31">
         <v>2</v>
       </c>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48" t="s">
+      <c r="F61" s="45"/>
+      <c r="G61" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-    </row>
-    <row r="62" spans="3:11">
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D62" s="31">
         <v>3</v>
       </c>
@@ -14461,573 +15531,573 @@
         <v>209</v>
       </c>
       <c r="F62" s="31"/>
-      <c r="G62" s="48" t="s">
+      <c r="G62" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-    </row>
-    <row r="64" spans="3:11">
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="29" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="3:11">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D65" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50" t="s">
+      <c r="F65" s="44"/>
+      <c r="G65" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-    </row>
-    <row r="66" spans="3:11">
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D66" s="31">
         <v>1</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48" t="s">
+      <c r="F66" s="45"/>
+      <c r="G66" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-    </row>
-    <row r="67" spans="3:11">
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D67" s="31">
         <v>2</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48" t="s">
+      <c r="F67" s="45"/>
+      <c r="G67" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-    </row>
-    <row r="68" spans="3:11">
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D68" s="31">
         <v>3</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48" t="s">
+      <c r="F68" s="45"/>
+      <c r="G68" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-    </row>
-    <row r="69" spans="3:11">
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D69" s="31">
         <v>4</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48" t="s">
+      <c r="F69" s="45"/>
+      <c r="G69" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-    </row>
-    <row r="70" spans="3:11">
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D70" s="31">
         <v>5</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48" t="s">
+      <c r="F70" s="45"/>
+      <c r="G70" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-    </row>
-    <row r="71" spans="3:11">
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D71" s="31">
         <v>6</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48" t="s">
+      <c r="F71" s="45"/>
+      <c r="G71" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-    </row>
-    <row r="72" spans="3:11">
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D72" s="31">
         <v>7</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48" t="s">
+      <c r="F72" s="45"/>
+      <c r="G72" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-    </row>
-    <row r="73" spans="3:11">
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D73" s="33">
         <v>8</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48" t="s">
+      <c r="F73" s="45"/>
+      <c r="G73" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-    </row>
-    <row r="75" spans="3:11">
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C75" s="29" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="3:11">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D76" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50" t="s">
+      <c r="F76" s="44"/>
+      <c r="G76" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-    </row>
-    <row r="77" spans="3:11">
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D77" s="31">
         <v>1</v>
       </c>
-      <c r="E77" s="48" t="s">
+      <c r="E77" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48" t="s">
+      <c r="F77" s="45"/>
+      <c r="G77" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-    </row>
-    <row r="78" spans="3:11">
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D78" s="31">
         <v>2</v>
       </c>
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48" t="s">
+      <c r="F78" s="45"/>
+      <c r="G78" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
-    </row>
-    <row r="79" spans="3:11">
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D79" s="31">
         <v>3</v>
       </c>
-      <c r="E79" s="48" t="s">
+      <c r="E79" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48" t="s">
+      <c r="F79" s="45"/>
+      <c r="G79" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
-    </row>
-    <row r="80" spans="3:11">
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D80" s="31">
         <v>4</v>
       </c>
-      <c r="E80" s="48" t="s">
+      <c r="E80" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48" t="s">
+      <c r="F80" s="45"/>
+      <c r="G80" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
-    </row>
-    <row r="81" spans="2:22">
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D81" s="31">
         <v>5</v>
       </c>
-      <c r="E81" s="48" t="s">
+      <c r="E81" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48" t="s">
+      <c r="F81" s="45"/>
+      <c r="G81" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
       <c r="N81" s="43"/>
     </row>
-    <row r="84" spans="2:22" ht="17.25">
+    <row r="84" spans="2:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>243</v>
       </c>
       <c r="R84" s="6"/>
     </row>
-    <row r="85" spans="2:22">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="2:22">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O86" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="P86" s="50" t="s">
+      <c r="P86" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="Q86" s="50"/>
-      <c r="R86" s="50" t="s">
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="S86" s="50"/>
-      <c r="T86" s="50"/>
-      <c r="U86" s="50"/>
-      <c r="V86" s="50"/>
-    </row>
-    <row r="87" spans="2:22">
+      <c r="S86" s="44"/>
+      <c r="T86" s="44"/>
+      <c r="U86" s="44"/>
+      <c r="V86" s="44"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O87" s="31">
         <v>1</v>
       </c>
-      <c r="P87" s="48" t="s">
+      <c r="P87" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="Q87" s="48"/>
-      <c r="R87" s="48" t="s">
+      <c r="Q87" s="45"/>
+      <c r="R87" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="S87" s="48"/>
-      <c r="T87" s="48"/>
-      <c r="U87" s="48"/>
-      <c r="V87" s="48"/>
-    </row>
-    <row r="88" spans="2:22">
+      <c r="S87" s="45"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="45"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O88" s="31">
         <v>2</v>
       </c>
-      <c r="P88" s="48" t="s">
+      <c r="P88" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="48" t="s">
+      <c r="Q88" s="45"/>
+      <c r="R88" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="S88" s="48"/>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="48"/>
-    </row>
-    <row r="89" spans="2:22">
+      <c r="S88" s="45"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="45"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O89" s="31">
         <v>3</v>
       </c>
-      <c r="P89" s="48" t="s">
+      <c r="P89" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="Q89" s="48"/>
-      <c r="R89" s="48" t="s">
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="S89" s="48"/>
-      <c r="T89" s="48"/>
-      <c r="U89" s="48"/>
-      <c r="V89" s="48"/>
-    </row>
-    <row r="90" spans="2:22">
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="45"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O90" s="31">
         <v>4</v>
       </c>
-      <c r="P90" s="44" t="s">
+      <c r="P90" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="Q90" s="45"/>
-      <c r="R90" s="44" t="s">
+      <c r="Q90" s="64"/>
+      <c r="R90" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="S90" s="46"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="46"/>
-      <c r="V90" s="45"/>
-    </row>
-    <row r="91" spans="2:22">
+      <c r="S90" s="65"/>
+      <c r="T90" s="65"/>
+      <c r="U90" s="65"/>
+      <c r="V90" s="64"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O91" s="31">
         <v>5</v>
       </c>
-      <c r="P91" s="48" t="s">
+      <c r="P91" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="Q91" s="48"/>
-      <c r="R91" s="48" t="s">
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="S91" s="48"/>
-      <c r="T91" s="48"/>
-      <c r="U91" s="48"/>
-      <c r="V91" s="48"/>
-    </row>
-    <row r="92" spans="2:22">
+      <c r="S91" s="45"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="45"/>
+      <c r="V91" s="45"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O92" s="31">
         <v>6</v>
       </c>
-      <c r="P92" s="48" t="s">
+      <c r="P92" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="Q92" s="48"/>
-      <c r="R92" s="48" t="s">
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="S92" s="48"/>
-      <c r="T92" s="48"/>
-      <c r="U92" s="48"/>
-      <c r="V92" s="48"/>
-    </row>
-    <row r="93" spans="2:22">
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="45"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O93" s="31">
         <v>7</v>
       </c>
-      <c r="P93" s="48" t="s">
+      <c r="P93" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="Q93" s="48"/>
-      <c r="R93" s="48" t="s">
+      <c r="Q93" s="45"/>
+      <c r="R93" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="S93" s="48"/>
-      <c r="T93" s="48"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="48"/>
-    </row>
-    <row r="94" spans="2:22">
+      <c r="S93" s="45"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="45"/>
+      <c r="V93" s="45"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
       <c r="O94" s="31">
         <v>8</v>
       </c>
-      <c r="P94" s="48" t="s">
+      <c r="P94" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="Q94" s="48"/>
-      <c r="R94" s="48" t="s">
+      <c r="Q94" s="45"/>
+      <c r="R94" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="S94" s="48"/>
-      <c r="T94" s="48"/>
-      <c r="U94" s="48"/>
-      <c r="V94" s="48"/>
-    </row>
-    <row r="107" spans="3:22">
+      <c r="S94" s="45"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="45"/>
+      <c r="V94" s="45"/>
+    </row>
+    <row r="107" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="3:22">
+    <row r="108" spans="3:22" x14ac:dyDescent="0.3">
       <c r="O108" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="P108" s="50" t="s">
+      <c r="P108" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="Q108" s="50"/>
-      <c r="R108" s="50" t="s">
+      <c r="Q108" s="44"/>
+      <c r="R108" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="S108" s="50"/>
-      <c r="T108" s="50"/>
-      <c r="U108" s="50"/>
-      <c r="V108" s="50"/>
-    </row>
-    <row r="109" spans="3:22">
+      <c r="S108" s="44"/>
+      <c r="T108" s="44"/>
+      <c r="U108" s="44"/>
+      <c r="V108" s="44"/>
+    </row>
+    <row r="109" spans="3:22" x14ac:dyDescent="0.3">
       <c r="O109" s="34">
         <v>1</v>
       </c>
-      <c r="P109" s="53" t="s">
+      <c r="P109" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="Q109" s="53"/>
-      <c r="R109" s="53" t="s">
+      <c r="Q109" s="50"/>
+      <c r="R109" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="S109" s="53"/>
-      <c r="T109" s="53"/>
-      <c r="U109" s="53"/>
-      <c r="V109" s="53"/>
-    </row>
-    <row r="110" spans="3:22">
+      <c r="S109" s="50"/>
+      <c r="T109" s="50"/>
+      <c r="U109" s="50"/>
+      <c r="V109" s="50"/>
+    </row>
+    <row r="110" spans="3:22" x14ac:dyDescent="0.3">
       <c r="O110" s="34">
         <v>2</v>
       </c>
-      <c r="P110" s="53" t="s">
+      <c r="P110" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="Q110" s="53"/>
-      <c r="R110" s="53" t="s">
+      <c r="Q110" s="50"/>
+      <c r="R110" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="S110" s="53"/>
-      <c r="T110" s="53"/>
-      <c r="U110" s="53"/>
-      <c r="V110" s="53"/>
-    </row>
-    <row r="111" spans="3:22">
+      <c r="S110" s="50"/>
+      <c r="T110" s="50"/>
+      <c r="U110" s="50"/>
+      <c r="V110" s="50"/>
+    </row>
+    <row r="111" spans="3:22" x14ac:dyDescent="0.3">
       <c r="O111" s="34">
         <v>3</v>
       </c>
-      <c r="P111" s="53" t="s">
+      <c r="P111" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="Q111" s="53"/>
-      <c r="R111" s="53" t="s">
+      <c r="Q111" s="50"/>
+      <c r="R111" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="S111" s="53"/>
-      <c r="T111" s="53"/>
-      <c r="U111" s="53"/>
-      <c r="V111" s="53"/>
-    </row>
-    <row r="112" spans="3:22">
+      <c r="S111" s="50"/>
+      <c r="T111" s="50"/>
+      <c r="U111" s="50"/>
+      <c r="V111" s="50"/>
+    </row>
+    <row r="112" spans="3:22" x14ac:dyDescent="0.3">
       <c r="O112" s="34">
         <v>4</v>
       </c>
-      <c r="P112" s="53" t="s">
+      <c r="P112" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="Q112" s="53"/>
-      <c r="R112" s="53" t="s">
+      <c r="Q112" s="50"/>
+      <c r="R112" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="S112" s="53"/>
-      <c r="T112" s="53"/>
-      <c r="U112" s="53"/>
-      <c r="V112" s="53"/>
-    </row>
-    <row r="113" spans="15:22">
+      <c r="S112" s="50"/>
+      <c r="T112" s="50"/>
+      <c r="U112" s="50"/>
+      <c r="V112" s="50"/>
+    </row>
+    <row r="113" spans="15:22" x14ac:dyDescent="0.3">
       <c r="O113" s="34">
         <v>5</v>
       </c>
-      <c r="P113" s="53" t="s">
+      <c r="P113" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="Q113" s="53"/>
-      <c r="R113" s="53" t="s">
+      <c r="Q113" s="50"/>
+      <c r="R113" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="S113" s="53"/>
-      <c r="T113" s="53"/>
-      <c r="U113" s="53"/>
-      <c r="V113" s="53"/>
-    </row>
-    <row r="114" spans="15:22">
+      <c r="S113" s="50"/>
+      <c r="T113" s="50"/>
+      <c r="U113" s="50"/>
+      <c r="V113" s="50"/>
+    </row>
+    <row r="114" spans="15:22" x14ac:dyDescent="0.3">
       <c r="O114" s="13">
         <v>6</v>
       </c>
-      <c r="P114" s="53" t="s">
+      <c r="P114" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="Q114" s="53"/>
-      <c r="R114" s="53" t="s">
+      <c r="Q114" s="50"/>
+      <c r="R114" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="S114" s="53"/>
-      <c r="T114" s="53"/>
-      <c r="U114" s="53"/>
-      <c r="V114" s="53"/>
-    </row>
-    <row r="115" spans="15:22">
+      <c r="S114" s="50"/>
+      <c r="T114" s="50"/>
+      <c r="U114" s="50"/>
+      <c r="V114" s="50"/>
+    </row>
+    <row r="115" spans="15:22" x14ac:dyDescent="0.3">
       <c r="O115" s="13">
         <v>7</v>
       </c>
-      <c r="P115" s="53" t="s">
+      <c r="P115" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="Q115" s="53"/>
-      <c r="R115" s="53" t="s">
+      <c r="Q115" s="50"/>
+      <c r="R115" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="S115" s="53"/>
-      <c r="T115" s="53"/>
-      <c r="U115" s="53"/>
-      <c r="V115" s="53"/>
-    </row>
-    <row r="116" spans="15:22">
+      <c r="S115" s="50"/>
+      <c r="T115" s="50"/>
+      <c r="U115" s="50"/>
+      <c r="V115" s="50"/>
+    </row>
+    <row r="116" spans="15:22" x14ac:dyDescent="0.3">
       <c r="O116" s="13">
         <v>8</v>
       </c>
-      <c r="P116" s="53" t="s">
+      <c r="P116" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="Q116" s="53"/>
-      <c r="R116" s="53" t="s">
+      <c r="Q116" s="50"/>
+      <c r="R116" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="S116" s="53"/>
-      <c r="T116" s="53"/>
-      <c r="U116" s="53"/>
-      <c r="V116" s="53"/>
-    </row>
-    <row r="121" spans="15:22">
+      <c r="S116" s="50"/>
+      <c r="T116" s="50"/>
+      <c r="U116" s="50"/>
+      <c r="V116" s="50"/>
+    </row>
+    <row r="121" spans="15:22" x14ac:dyDescent="0.3">
       <c r="R121" s="6"/>
     </row>
-    <row r="129" spans="2:25" ht="17.25" thickBot="1">
+    <row r="129" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -15053,7 +16123,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="2:25">
+    <row r="130" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
@@ -15063,7 +16133,7 @@
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
     </row>
-    <row r="132" spans="2:25" ht="27" thickBot="1">
+    <row r="132" spans="2:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B132" s="38" t="s">
         <v>235</v>
       </c>
@@ -15091,197 +16161,197 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="134" spans="2:25" ht="17.25">
+    <row r="134" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B134" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="2:25">
+    <row r="135" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="2:25">
+    <row r="136" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="2:25">
+    <row r="138" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="139" spans="2:25">
+    <row r="139" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D139" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="E139" s="50" t="s">
+      <c r="E139" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="F139" s="50"/>
-      <c r="G139" s="50"/>
-      <c r="H139" s="50"/>
-      <c r="I139" s="50"/>
-      <c r="J139" s="50" t="s">
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="K139" s="50"/>
-      <c r="L139" s="50"/>
-      <c r="M139" s="50"/>
-    </row>
-    <row r="140" spans="2:25">
+      <c r="K139" s="44"/>
+      <c r="L139" s="44"/>
+      <c r="M139" s="44"/>
+    </row>
+    <row r="140" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D140" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E140" s="48" t="s">
+      <c r="E140" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
-      <c r="H140" s="48"/>
-      <c r="I140" s="48"/>
-      <c r="J140" s="48" t="s">
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="45"/>
+      <c r="I140" s="45"/>
+      <c r="J140" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="K140" s="48"/>
-      <c r="L140" s="48"/>
-      <c r="M140" s="48"/>
-    </row>
-    <row r="141" spans="2:25">
+      <c r="K140" s="45"/>
+      <c r="L140" s="45"/>
+      <c r="M140" s="45"/>
+    </row>
+    <row r="141" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D141" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="E141" s="48" t="s">
+      <c r="E141" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="F141" s="48"/>
-      <c r="G141" s="48"/>
-      <c r="H141" s="48"/>
-      <c r="I141" s="48"/>
-      <c r="J141" s="48" t="s">
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45"/>
+      <c r="J141" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="K141" s="48"/>
-      <c r="L141" s="48"/>
-      <c r="M141" s="48"/>
-    </row>
-    <row r="142" spans="2:25">
+      <c r="K141" s="45"/>
+      <c r="L141" s="45"/>
+      <c r="M141" s="45"/>
+    </row>
+    <row r="142" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D142" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="E142" s="48" t="s">
+      <c r="E142" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="48"/>
-      <c r="I142" s="48"/>
-      <c r="J142" s="48" t="s">
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="45"/>
+      <c r="J142" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="K142" s="48"/>
-      <c r="L142" s="48"/>
-      <c r="M142" s="48"/>
-    </row>
-    <row r="144" spans="2:25">
+      <c r="K142" s="45"/>
+      <c r="L142" s="45"/>
+      <c r="M142" s="45"/>
+    </row>
+    <row r="144" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="145" spans="2:13">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D145" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="E145" s="50" t="s">
+      <c r="E145" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="F145" s="50"/>
-      <c r="G145" s="50"/>
-      <c r="H145" s="50"/>
-      <c r="I145" s="50"/>
-      <c r="J145" s="50" t="s">
+      <c r="F145" s="44"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="44"/>
+      <c r="I145" s="44"/>
+      <c r="J145" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="K145" s="50"/>
-      <c r="L145" s="50"/>
-      <c r="M145" s="50"/>
-    </row>
-    <row r="146" spans="2:13">
+      <c r="K145" s="44"/>
+      <c r="L145" s="44"/>
+      <c r="M145" s="44"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D146" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="E146" s="48" t="s">
+      <c r="E146" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="F146" s="48"/>
-      <c r="G146" s="48"/>
-      <c r="H146" s="48"/>
-      <c r="I146" s="48"/>
-      <c r="J146" s="48" t="s">
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="45"/>
+      <c r="I146" s="45"/>
+      <c r="J146" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="K146" s="48"/>
-      <c r="L146" s="48"/>
-      <c r="M146" s="48"/>
-    </row>
-    <row r="147" spans="2:13">
+      <c r="K146" s="45"/>
+      <c r="L146" s="45"/>
+      <c r="M146" s="45"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D147" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="E147" s="48" t="s">
+      <c r="E147" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="F147" s="48"/>
-      <c r="G147" s="48"/>
-      <c r="H147" s="48"/>
-      <c r="I147" s="48"/>
-      <c r="J147" s="48" t="s">
+      <c r="F147" s="45"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="45"/>
+      <c r="I147" s="45"/>
+      <c r="J147" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="K147" s="48"/>
-      <c r="L147" s="48"/>
-      <c r="M147" s="48"/>
-    </row>
-    <row r="148" spans="2:13">
+      <c r="K147" s="45"/>
+      <c r="L147" s="45"/>
+      <c r="M147" s="45"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D148" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E148" s="48" t="s">
+      <c r="E148" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="F148" s="48"/>
-      <c r="G148" s="48"/>
-      <c r="H148" s="48"/>
-      <c r="I148" s="48"/>
-      <c r="J148" s="48" t="s">
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
+      <c r="J148" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="K148" s="48"/>
-      <c r="L148" s="48"/>
-      <c r="M148" s="48"/>
-    </row>
-    <row r="150" spans="2:13">
+      <c r="K148" s="45"/>
+      <c r="L148" s="45"/>
+      <c r="M148" s="45"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="151" spans="2:13">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D151" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="E151" s="50" t="s">
+      <c r="E151" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F151" s="50"/>
-      <c r="G151" s="50"/>
-      <c r="H151" s="50"/>
-      <c r="I151" s="50"/>
-    </row>
-    <row r="152" spans="2:13">
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="44"/>
+      <c r="I151" s="44"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D152" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="E152" s="48" t="s">
+      <c r="E152" s="45" t="s">
         <v>322</v>
       </c>
       <c r="F152" s="66"/>
@@ -15289,217 +16359,217 @@
       <c r="H152" s="66"/>
       <c r="I152" s="66"/>
     </row>
-    <row r="153" spans="2:13">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D153" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="E153" s="48" t="s">
+      <c r="E153" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="F153" s="48"/>
-      <c r="G153" s="48"/>
-      <c r="H153" s="48"/>
-      <c r="I153" s="48"/>
-    </row>
-    <row r="154" spans="2:13">
+      <c r="F153" s="45"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D154" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E154" s="48" t="s">
+      <c r="E154" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="F154" s="48"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="48"/>
-      <c r="I154" s="48"/>
-    </row>
-    <row r="157" spans="2:13" ht="17.25">
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="45"/>
+    </row>
+    <row r="157" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B157" s="14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="158" spans="2:13">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="2:13">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="161" spans="3:13">
+    <row r="161" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="162" spans="3:13">
+    <row r="162" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D162" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="E162" s="50" t="s">
+      <c r="E162" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="F162" s="50"/>
-      <c r="G162" s="50"/>
-      <c r="H162" s="50"/>
-      <c r="I162" s="50"/>
-      <c r="J162" s="50" t="s">
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="K162" s="50"/>
-      <c r="L162" s="50"/>
-      <c r="M162" s="50"/>
-    </row>
-    <row r="163" spans="3:13">
+      <c r="K162" s="44"/>
+      <c r="L162" s="44"/>
+      <c r="M162" s="44"/>
+    </row>
+    <row r="163" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D163" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E163" s="48" t="s">
+      <c r="E163" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="F163" s="48"/>
-      <c r="G163" s="48"/>
-      <c r="H163" s="48"/>
-      <c r="I163" s="48"/>
-      <c r="J163" s="48" t="s">
+      <c r="F163" s="45"/>
+      <c r="G163" s="45"/>
+      <c r="H163" s="45"/>
+      <c r="I163" s="45"/>
+      <c r="J163" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="K163" s="48"/>
-      <c r="L163" s="48"/>
-      <c r="M163" s="48"/>
-    </row>
-    <row r="164" spans="3:13">
+      <c r="K163" s="45"/>
+      <c r="L163" s="45"/>
+      <c r="M163" s="45"/>
+    </row>
+    <row r="164" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D164" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="E164" s="48" t="s">
+      <c r="E164" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="F164" s="48"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="48"/>
-      <c r="I164" s="48"/>
-      <c r="J164" s="48" t="s">
+      <c r="F164" s="45"/>
+      <c r="G164" s="45"/>
+      <c r="H164" s="45"/>
+      <c r="I164" s="45"/>
+      <c r="J164" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="K164" s="48"/>
-      <c r="L164" s="48"/>
-      <c r="M164" s="48"/>
-    </row>
-    <row r="165" spans="3:13">
+      <c r="K164" s="45"/>
+      <c r="L164" s="45"/>
+      <c r="M164" s="45"/>
+    </row>
+    <row r="165" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D165" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="E165" s="48" t="s">
+      <c r="E165" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="F165" s="48"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="48"/>
-      <c r="I165" s="48"/>
-      <c r="J165" s="48" t="s">
+      <c r="F165" s="45"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="45"/>
+      <c r="J165" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="K165" s="48"/>
-      <c r="L165" s="48"/>
-      <c r="M165" s="48"/>
-    </row>
-    <row r="167" spans="3:13">
+      <c r="K165" s="45"/>
+      <c r="L165" s="45"/>
+      <c r="M165" s="45"/>
+    </row>
+    <row r="167" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="168" spans="3:13">
+    <row r="168" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D168" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E168" s="50" t="s">
+      <c r="E168" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="F168" s="50"/>
-      <c r="G168" s="50"/>
-      <c r="H168" s="50"/>
-      <c r="I168" s="50"/>
-      <c r="J168" s="50" t="s">
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="44"/>
+      <c r="I168" s="44"/>
+      <c r="J168" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="K168" s="50"/>
-      <c r="L168" s="50"/>
-      <c r="M168" s="50"/>
-    </row>
-    <row r="169" spans="3:13">
+      <c r="K168" s="44"/>
+      <c r="L168" s="44"/>
+      <c r="M168" s="44"/>
+    </row>
+    <row r="169" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D169" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="E169" s="48" t="s">
+      <c r="E169" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="F169" s="48"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="48"/>
-      <c r="I169" s="48"/>
-      <c r="J169" s="48" t="s">
+      <c r="F169" s="45"/>
+      <c r="G169" s="45"/>
+      <c r="H169" s="45"/>
+      <c r="I169" s="45"/>
+      <c r="J169" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="K169" s="48"/>
-      <c r="L169" s="48"/>
-      <c r="M169" s="48"/>
-    </row>
-    <row r="170" spans="3:13">
+      <c r="K169" s="45"/>
+      <c r="L169" s="45"/>
+      <c r="M169" s="45"/>
+    </row>
+    <row r="170" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D170" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="E170" s="48" t="s">
+      <c r="E170" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="48"/>
-      <c r="I170" s="48"/>
-      <c r="J170" s="48" t="s">
+      <c r="F170" s="45"/>
+      <c r="G170" s="45"/>
+      <c r="H170" s="45"/>
+      <c r="I170" s="45"/>
+      <c r="J170" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="K170" s="48"/>
-      <c r="L170" s="48"/>
-      <c r="M170" s="48"/>
-    </row>
-    <row r="171" spans="3:13">
+      <c r="K170" s="45"/>
+      <c r="L170" s="45"/>
+      <c r="M170" s="45"/>
+    </row>
+    <row r="171" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D171" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E171" s="48" t="s">
+      <c r="E171" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="F171" s="48"/>
-      <c r="G171" s="48"/>
-      <c r="H171" s="48"/>
-      <c r="I171" s="48"/>
-      <c r="J171" s="48" t="s">
+      <c r="F171" s="45"/>
+      <c r="G171" s="45"/>
+      <c r="H171" s="45"/>
+      <c r="I171" s="45"/>
+      <c r="J171" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="K171" s="48"/>
-      <c r="L171" s="48"/>
-      <c r="M171" s="48"/>
-    </row>
-    <row r="173" spans="3:13">
+      <c r="K171" s="45"/>
+      <c r="L171" s="45"/>
+      <c r="M171" s="45"/>
+    </row>
+    <row r="173" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="174" spans="3:13">
+    <row r="174" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D174" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E174" s="50" t="s">
+      <c r="E174" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F174" s="50"/>
-      <c r="G174" s="50"/>
-      <c r="H174" s="50"/>
-      <c r="I174" s="50"/>
-    </row>
-    <row r="175" spans="3:13">
+      <c r="F174" s="44"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="44"/>
+      <c r="I174" s="44"/>
+    </row>
+    <row r="175" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D175" s="36" t="s">
         <v>190</v>
       </c>
@@ -15511,31 +16581,31 @@
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="3:13">
+    <row r="176" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D176" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="E176" s="48" t="s">
+      <c r="E176" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="F176" s="48"/>
-      <c r="G176" s="48"/>
-      <c r="H176" s="48"/>
-      <c r="I176" s="48"/>
-    </row>
-    <row r="177" spans="2:25">
+      <c r="F176" s="45"/>
+      <c r="G176" s="45"/>
+      <c r="H176" s="45"/>
+      <c r="I176" s="45"/>
+    </row>
+    <row r="177" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D177" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E177" s="48" t="s">
+      <c r="E177" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="F177" s="48"/>
-      <c r="G177" s="48"/>
-      <c r="H177" s="48"/>
-      <c r="I177" s="48"/>
-    </row>
-    <row r="179" spans="2:25">
+      <c r="F177" s="45"/>
+      <c r="G177" s="45"/>
+      <c r="H177" s="45"/>
+      <c r="I177" s="45"/>
+    </row>
+    <row r="179" spans="2:25" x14ac:dyDescent="0.3">
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
@@ -15545,7 +16615,7 @@
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
     </row>
-    <row r="181" spans="2:25" ht="17.25" thickBot="1">
+    <row r="181" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B181" s="40"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -15571,7 +16641,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
     </row>
-    <row r="184" spans="2:25" ht="27" thickBot="1">
+    <row r="184" spans="2:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B184" s="42" t="s">
         <v>325</v>
       </c>
@@ -15599,22 +16669,22 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
     </row>
-    <row r="186" spans="2:25">
+    <row r="186" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="188" spans="2:25">
+    <row r="188" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C188" s="39" t="s">
         <v>80</v>
       </c>
       <c r="D188" s="39"/>
     </row>
-    <row r="189" spans="2:25">
-      <c r="C189" s="51" t="s">
+    <row r="189" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C189" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D189" s="48"/>
+      <c r="D189" s="45"/>
       <c r="E189" t="s">
         <v>328</v>
       </c>
@@ -15625,11 +16695,11 @@
       <c r="H189" s="79"/>
       <c r="I189" s="79"/>
     </row>
-    <row r="190" spans="2:25">
-      <c r="C190" s="48"/>
-      <c r="D190" s="48"/>
-    </row>
-    <row r="192" spans="2:25" ht="17.25" thickBot="1">
+    <row r="190" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C190" s="45"/>
+      <c r="D190" s="45"/>
+    </row>
+    <row r="192" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -15655,7 +16725,7 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
     </row>
-    <row r="194" spans="2:25">
+    <row r="194" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B194" s="35"/>
       <c r="C194" s="35"/>
       <c r="D194" s="35"/>
@@ -15681,7 +16751,7 @@
       <c r="X194" s="35"/>
       <c r="Y194" s="35"/>
     </row>
-    <row r="195" spans="2:25">
+    <row r="195" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B195" s="35"/>
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
@@ -15820,6 +16890,12 @@
     <mergeCell ref="R89:V89"/>
     <mergeCell ref="R91:V91"/>
     <mergeCell ref="R92:V92"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="E152:I152"/>
+    <mergeCell ref="E151:I151"/>
+    <mergeCell ref="E153:I153"/>
+    <mergeCell ref="E154:I154"/>
+    <mergeCell ref="J147:M147"/>
     <mergeCell ref="R113:V113"/>
     <mergeCell ref="P108:Q108"/>
     <mergeCell ref="P109:Q109"/>
@@ -15832,16 +16908,6 @@
     <mergeCell ref="R110:V110"/>
     <mergeCell ref="R111:V111"/>
     <mergeCell ref="R112:V112"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="J168:M168"/>
-    <mergeCell ref="J169:M169"/>
-    <mergeCell ref="J170:M170"/>
-    <mergeCell ref="J171:M171"/>
-    <mergeCell ref="E152:I152"/>
-    <mergeCell ref="E151:I151"/>
-    <mergeCell ref="E153:I153"/>
-    <mergeCell ref="E154:I154"/>
-    <mergeCell ref="J147:M147"/>
     <mergeCell ref="J145:M145"/>
     <mergeCell ref="J146:M146"/>
     <mergeCell ref="J148:M148"/>
@@ -15862,6 +16928,10 @@
     <mergeCell ref="J139:M139"/>
     <mergeCell ref="J141:M141"/>
     <mergeCell ref="J142:M142"/>
+    <mergeCell ref="J168:M168"/>
+    <mergeCell ref="J169:M169"/>
+    <mergeCell ref="J170:M170"/>
+    <mergeCell ref="J171:M171"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
